--- a/test-case-example.xlsx
+++ b/test-case-example.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\truon\source\repos\QLCafe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11885686-69DC-4D52-A78D-5052E9E35419}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76FFE1AA-A6BD-4501-BF41-AE4D6AB9CBCE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="821" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="821" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="97" r:id="rId1"/>
@@ -35,6 +35,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -42,197 +43,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="138">
   <si>
     <t>TC16</t>
   </si>
   <si>
-    <t>You can see details for part of in Sheet Provider supports</t>
-  </si>
-  <si>
-    <t>See the part of requested</t>
-  </si>
-  <si>
-    <t>Check value the part of Requested</t>
-  </si>
-  <si>
-    <t>Check value the part of Provided</t>
-  </si>
-  <si>
-    <t>See the part of Provided</t>
-  </si>
-  <si>
-    <t>All values the same as Edit site details popup displays (User requests)</t>
-  </si>
-  <si>
     <t>TC17</t>
   </si>
   <si>
     <t>TC18</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">1: Will be the same content as CanSeeFullCostAndPriceBreakdown Role = False at the Current system
-2: The export will not just contain one row for each circuit, but will contain one row for each carrier that can provide those circuits. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>The entire row details will be duplicated except the carrier name, price and carrier COS</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-3: A carrier will only be shown once for each circuit with its its aggregate IRD
-4: Instead of only showing the total NRC and MRC, we will break out the price elements and show total NRC and MRC CLIENT PRICE for Access, Port, 6 CoS all separately, then Total – so 18 columns for figures in total
-5: After the access, port, 6 CoS “requirement speeds”, should have 8 columns of speeds that have been priced 
-6: For Expert, this will contain the VSIP tables (selected VSIPs, selected VSIP capacities) which many be a table with no entries in it </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>(All infomation in it are Blank)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>See sheet Template B</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>- If provider supports as user to input then value the part of Provided same as alongside part of requested
-- If provider</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> doesn't </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">support as user to input that it is </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>upgrade</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> to other values, part of Provided will be displayed value to be </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>upgrade</t>
-    </r>
-  </si>
-  <si>
     <t>31/07/2007</t>
-  </si>
-  <si>
-    <r>
-      <t>Don't see</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> a new selector: "</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>Export all Carriers"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>See</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> a new selector: "</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>Export all Carriers"</t>
-    </r>
   </si>
   <si>
     <t>TC1</t>
@@ -401,828 +223,285 @@
     <t>CR236 "Export all carrier choices"</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Checking new function is added in </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>Classic or Current Mode</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Checking new function is added in</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Expert Mode</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>See a new menu item: "</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>Export all Carriers" to be enabled in Current Quote Menu</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>See</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> a new menu item: "</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>Export all Carriers" to be disabled in Current Quote Menu</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Check performent of function in Current or Classic Mode </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>has multi carrier support for a circuit</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Check performent of function in Expert Mode
+    <t>TC8</t>
+  </si>
+  <si>
+    <t>TC9</t>
+  </si>
+  <si>
+    <t>TC10</t>
+  </si>
+  <si>
+    <t>TC11</t>
+  </si>
+  <si>
+    <t>TC12</t>
+  </si>
+  <si>
+    <t>TC13</t>
+  </si>
+  <si>
+    <t>TC14</t>
+  </si>
+  <si>
+    <t>TC15</t>
+  </si>
+  <si>
+    <t>TC19</t>
+  </si>
+  <si>
+    <t>TC20</t>
+  </si>
+  <si>
+    <t>1.1</t>
+  </si>
+  <si>
+    <t>Update testcase</t>
+  </si>
+  <si>
+    <t>1.2</t>
+  </si>
+  <si>
+    <t>Sameple project</t>
+  </si>
+  <si>
+    <t>UTEHY-SE01</t>
+  </si>
+  <si>
+    <t>Test Leader 01</t>
+  </si>
+  <si>
+    <t>Sample Project</t>
+  </si>
+  <si>
+    <t>CR100 - Export to excel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CR1 - </t>
+  </si>
+  <si>
+    <t>John Doe</t>
+  </si>
+  <si>
+    <t>Jane Doe</t>
+  </si>
+  <si>
+    <t>1.Check Form đăng nhập</t>
+  </si>
+  <si>
+    <t>Check text nhập liệu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vào form đăng nhập
 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>Have multi carriers support for a circuit</t>
-    </r>
-  </si>
-  <si>
-    <t>TC8</t>
-  </si>
-  <si>
-    <t>3. Check value of IRD column</t>
-  </si>
-  <si>
-    <t>See IRD column in Template excel to show "IR"</t>
-  </si>
-  <si>
-    <t>See IRD column in Template excel to show "IRD"</t>
-  </si>
-  <si>
-    <t>See IRD column in Template excel to show "ID"</t>
-  </si>
-  <si>
-    <t>See IRD column in Template excel to show "RD"</t>
-  </si>
-  <si>
-    <t>See IRD column in Template excel to show "I"</t>
-  </si>
-  <si>
-    <t>See IRD column in Template excel to show "R"</t>
-  </si>
-  <si>
-    <t>See IRD column in Template excel to show "D"</t>
-  </si>
-  <si>
-    <t>TC9</t>
-  </si>
-  <si>
-    <t>TC10</t>
-  </si>
-  <si>
-    <t>TC11</t>
-  </si>
-  <si>
-    <t>TC12</t>
-  </si>
-  <si>
-    <t>TC13</t>
-  </si>
-  <si>
-    <t>TC14</t>
-  </si>
-  <si>
-    <t>TC15</t>
-  </si>
-  <si>
-    <t>Check value of IRD column with Carrier for each circuit with its aggregate I, R</t>
-  </si>
-  <si>
-    <t>Check value of IRD column with Carrier for each circuit with its aggregate I, R, D</t>
-  </si>
-  <si>
-    <t>Check value of IRD column with Carrier for each circuit with its aggregate I, D</t>
-  </si>
-  <si>
-    <t>Check value of IRD column with Carrier for each circuit with its aggregate R, D</t>
-  </si>
-  <si>
-    <t>Check value of IRD column with Carrier for each circuit with its aggregate I</t>
-  </si>
-  <si>
-    <t>Check value of IRD column with Carrier for each circuit with its aggregate  R</t>
-  </si>
-  <si>
-    <t>Check value of IRD column with Carrier for each circuit with its aggregate  D</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1: Will be the same content as </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">CanSeeFullCostAndPriceBreakdown Role = False at the Current system </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-2: The export will not just contain one row for each circuit, but will contain one row for each carrier that can provide those circuits. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>The entire row details will  be duplicated except the carrier name, price and carrier COS</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-3: A carrier will only be shown once for each circuit with its its aggregate IRD
-4: Instead of only showing the total NRC and MRC, we will break out the price elements and show total NRC and MRC CLIENT PRICE for Access, Port, 6 CoS all separately, then Total – so 18 columns for figures in total
-5: After the access, port, 6 CoS “requirement speeds”, should have 8 columns of speeds that have been priced 
+  </si>
+  <si>
+    <t>Check trống</t>
+  </si>
+  <si>
+    <t>Ấn nút login mà không ghi bất kỳ kí tự nào vào các ô nhập liệu</t>
+  </si>
+  <si>
+    <t>Lỗi hiện thị"bạn chưa nhập dữ liệu"</t>
+  </si>
+  <si>
+    <t>Check các nút</t>
+  </si>
+  <si>
+    <t>Xem các nút trong form</t>
+  </si>
+  <si>
+    <t>Form login phải có nút "Login"</t>
+  </si>
+  <si>
+    <t>Form login chứa 2 ô nhập liệu: 
+1:username
+2:passwork</t>
+  </si>
+  <si>
+    <t>Điền username</t>
+  </si>
+  <si>
+    <t>Chỉ điền username không điền password</t>
+  </si>
+  <si>
+    <t>Thông báo lỗi"Bạn chưa nhập password "</t>
+  </si>
+  <si>
+    <t>Điền password</t>
+  </si>
+  <si>
+    <t>Chỉ điền password không điền username</t>
+  </si>
+  <si>
+    <t>Thông báo lỗi"Bạn chưa nhập username "</t>
+  </si>
+  <si>
+    <t>Điền username và password  của admin</t>
+  </si>
+  <si>
+    <t>Nhập đúng dữ liệu vào 2 ô
+user:tk123
+password:123456789</t>
+  </si>
+  <si>
+    <t>Lỗi hiện thị"bạn nhập sai "</t>
+  </si>
+  <si>
+    <t>Điền username và password  của staff</t>
+  </si>
+  <si>
+    <t>Nhập đúng dữ liệu vào 2 ô
+user:tk456
+password:abcxyz</t>
+  </si>
+  <si>
+    <t>Check nút exit và dấu X</t>
+  </si>
+  <si>
+    <t>Ấn vào nút exit hoặc dấu "X" cuối góc phải</t>
+  </si>
+  <si>
+    <t>Thoát khỏi form</t>
+  </si>
+  <si>
+    <t>2.Form quản lý</t>
+  </si>
+  <si>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>Có quyền sử dụng tất cả các chức năng trong form</t>
+  </si>
+  <si>
+    <t>không báo lỗi</t>
+  </si>
+  <si>
+    <t>Staff</t>
+  </si>
+  <si>
+    <t>Check các nút chọn bàn</t>
+  </si>
+  <si>
+    <t>Ấn vào "bàn 1 ", "bàn 2","bàn 3"</t>
+  </si>
+  <si>
+    <t>Check danh sách thức uống</t>
+  </si>
+  <si>
+    <t>Ấn vào Combobox của thức uống</t>
+  </si>
+  <si>
+    <t>hiện ra các danh sách thức uống</t>
+  </si>
+  <si>
+    <t>Check nút Thêm(+)</t>
+  </si>
+  <si>
+    <t>chọn vào thức uống có sẵn trong Combobox</t>
+  </si>
+  <si>
+    <t>hiện ra thức uống và giá tiền trong listview</t>
+  </si>
+  <si>
+    <t>Check nút đổi bàn</t>
+  </si>
+  <si>
+    <t>bàn chuyển đến sẽ thông báo "có người",và 
+bàn cũ sẽ để "trống"</t>
+  </si>
+  <si>
+    <t>Check nút thanh toán</t>
+  </si>
+  <si>
+    <t>Check chuyển bàn có người</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. chọn bàn hiện tại
+2.chọn bàn trống muốn chuyển đến
+3. ấn nút chuyển bàn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check nút Xóa(-) 1 thức uống </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.chọn thức uống đã chọn trong listview
+2.ấn nút xóa </t>
+  </si>
+  <si>
+    <t>thức uống đã chọn sẽ bị xóa</t>
+  </si>
+  <si>
+    <t>Check nút Xóa bàn</t>
+  </si>
+  <si>
+    <t>1.chọn bàn cần xóa
+2.Ấn nút Xóa</t>
+  </si>
+  <si>
+    <t>bàn đã chọn sẽ hiện "trống"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Không được quyền sử dụng các chức năng như:
+.Thống kê
+.Quản lý bàn
+.Quản lý tài khoản
 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>See sheet Template A</t>
-    </r>
-  </si>
-  <si>
-    <t>Check set Role CanExportAllCarrierChoices = True</t>
-  </si>
-  <si>
-    <t>Check set Role CanExportAllCarrierChoices = False</t>
-  </si>
-  <si>
-    <t>TC19</t>
-  </si>
-  <si>
-    <t>TC20</t>
+  </si>
+  <si>
+    <t>1.Chọn bạn đã có người
+2.Ân nút chuyển bàn</t>
+  </si>
+  <si>
+    <t>Thông báo message:" bàn đã có người"</t>
+  </si>
+  <si>
+    <t>3.Form thống kê</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.chọn bàn cần thanh toán
+2.Ấn nút thanh toán
+</t>
+  </si>
+  <si>
+    <t>Tổng bill, ngày giờ của bàn thanh toán sẽ chuyển
+đến form thông kê, và bàn đã thanh toán sẽ để "trống"</t>
+  </si>
+  <si>
+    <t>Hiện form</t>
+  </si>
+  <si>
+    <t>Form thống kê được hiện lên khi admin chọn nút "Thống Kê" ở form Quản lý café</t>
+  </si>
+  <si>
+    <t>form thống kê xuất hiện</t>
+  </si>
+  <si>
+    <t>Thống kê</t>
+  </si>
+  <si>
+    <t>Chọn tháng/năm cần thống kê</t>
+  </si>
+  <si>
+    <t>tất cả dữ liệu hiện lên ở dưới listview</t>
+  </si>
+  <si>
+    <t>3.Form quản lý thức uống</t>
+  </si>
+  <si>
+    <t>backgound của bàn sẽ hiện màu đỏ</t>
+  </si>
+  <si>
+    <t>Check nút Đăng Xuất</t>
+  </si>
+  <si>
+    <t>đăng xuất tài khoản đang sử dụng</t>
+  </si>
+  <si>
+    <t>Thoát khỏi tài khoàn và trờ về form đăng nhập</t>
   </si>
   <si>
     <t>TC21</t>
-  </si>
-  <si>
-    <t>TC22</t>
-  </si>
-  <si>
-    <t>1.1</t>
-  </si>
-  <si>
-    <t>Update testcase</t>
-  </si>
-  <si>
-    <r>
-      <t>Don’t see</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> a new menu item: "</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>Export all Carriers" in Current Quote Menu</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Don’t see</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> a new menu item: "</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>Export all Carriers"  in Current Quote Menu</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Check performent of function in Expert Mode
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">each circuit has only one carrier support
-</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1: Will be the same content as CanSeeFullCostAndPriceBreakdown Role = False at the Current system
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>2: The export show one row for each circuit has only one carrier support</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-3: A carrier will only be shown once for each circuit with its its aggregate IRD
-4: Instead of only showing the total NRC and MRC, we will break out the price elements and show total NRC and MRC CLIENT PRICE for Access, Port, 6 CoS all separately, then Total – so 18 columns for figures in total
-5: After the access, port, 6 CoS “requirement speeds”, should have 8 columns of speeds that have been priced 
-6: For Expert, this will contain the VSIP tables (selected VSIPs, selected VSIP capacities) which many be a table with no entries in it </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>(All infomation in it are Blank)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>See sheet Template B1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1: Will be the same content as CanSeeFullCostAndPriceBreakdown Role = False at the Current system
-2: The export show one row for each circuit has only one carrier support
-3: A carrier will only be shown once for each circuit with its its aggregate IRD
-4: Instead of only showing the total NRC and MRC, we will break out the price elements and show total NRC and MRC CLIENT PRICE for Access, Port, 6 CoS all separately, then Total – so 18 columns for figures in total
-5: After the access, port, 6 CoS “requirement speeds”, should have 8 columns of speeds that have been priced 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>See sheet Template A1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Check performent of function in Current or Classic Mode
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>each circuit has only one carrier support</t>
-    </r>
-  </si>
-  <si>
-    <t>Check value of IRD column with Carrier for each circuit with its aggregate  IRD</t>
-  </si>
-  <si>
-    <t>See IRD column is tempalate to show "-"</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Check value of Carrier column if Set role </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>CanSeeCarrierName = True</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">See Carrier column: value of it is Carriername (carriercode1, carriercode2…..) </t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Check value of Carrier column if Set role </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>CanSeeCarrierNamer = False</t>
-    </r>
-  </si>
-  <si>
-    <t>See Notes, COS selected column: value of them are Client notes/COS selected as on Pricing option popup</t>
-  </si>
-  <si>
-    <t>See Notes, COS selected column: value of them are Blank</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Check value of Note column if Set role </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>CanSeeNotesAndCoSIndicator = True</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Check value of Note column if Set role </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>CanSeeNotesAndCoSIndicator = False</t>
-    </r>
-  </si>
-  <si>
-    <t>See Carrier column: value of it is Carriercode1,Carriercode2……</t>
-  </si>
-  <si>
-    <t xml:space="preserve">See Carrier column: value of it is Carriername (Expertcode1, expertcode2…..) </t>
-  </si>
-  <si>
-    <t>See Carrier column: value of it is Expertcode1,Expertcode2……</t>
-  </si>
-  <si>
-    <t>See Carrier column: value of it is Carriername Carriercode1, Carriercode2…..) with site is MPLS
-With site is DIA: carrier column show value CarrierName</t>
-  </si>
-  <si>
-    <t>See Carrier column: value of it is Carriercode1,carriercode2…… with site is MPLS
-With site is DIA then show at the Carrier column to be "-"</t>
-  </si>
-  <si>
-    <t>TC23</t>
-  </si>
-  <si>
-    <t>TC24</t>
-  </si>
-  <si>
-    <t>TC25</t>
-  </si>
-  <si>
-    <t>TC26</t>
-  </si>
-  <si>
-    <t>TC27</t>
-  </si>
-  <si>
-    <t>TC28</t>
-  </si>
-  <si>
-    <t>TC29</t>
-  </si>
-  <si>
-    <t>TC30</t>
-  </si>
-  <si>
-    <t>TC31</t>
-  </si>
-  <si>
-    <t>TC32</t>
-  </si>
-  <si>
-    <t>TC33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                                            Set at the Classic Mode, ClassicDIA Mode when site is DIA +Role CanSeeCarrierName = False</t>
-  </si>
-  <si>
-    <t>4. Check value of Notes/COS Selected column</t>
-  </si>
-  <si>
-    <t>5. Check value of  columns that provider supports</t>
-  </si>
-  <si>
-    <t>6. Check value of Carrier column</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                              Check value of Carrier column at the Current Mode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                             Check value of Carrier column at the Expert Mode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                              Check value of Carrier column at the Classic Mode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                             Check value of Carrier column at the ClassicDIA Mode</t>
-  </si>
-  <si>
-    <t>2. Check Template of Excel when Export all Carriers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                          Set at the Current mode, Expert Mode, ClassicDIA Mode when site is MPLS + Role CanSeeCarrierName =True</t>
-  </si>
-  <si>
-    <t>Expert doesn't test</t>
-  </si>
-  <si>
-    <t xml:space="preserve">See Carrier column: value of it is Carriername (Carriercode1,Carriercode2…..) </t>
-  </si>
-  <si>
-    <t>With Mode classic is fail
-ClassicDIA : Ok</t>
-  </si>
-  <si>
-    <t>With Mode classic ,
-ClassicDIA : Ok</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check value of TOTAL (A+P+CoS) Client Price NRC column </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check value of TOTAL (A+P+CoS) Client Price MRC column </t>
-  </si>
-  <si>
-    <t>TOTAL (A+P+CoS) Client Price NRC =Access Client Price NRC +Port Client Price NRC +CoS Voice Client Price NRC +CoS Voice Client Price NRC+CoS Premium (H) Client Price NRC+ CoS Premium (M) Client Price NRC+ CoS Premium (N) Client Price NRC+COS Best Effort Client Price NRC</t>
-  </si>
-  <si>
-    <t>TOTAL (A+P+CoS) Client Price MRC =Access Client Price MRC +Port Client Price MRC +CoS Voice Client Price MRC +CoS Voice Client Price MRC+CoS Premium (H) Client Price MRC+ CoS Premium (M) Client Price MRC+ CoS Premium (N) Client Price MRC+COS Best Effort Client Price MRC</t>
-  </si>
-  <si>
-    <t>TC34</t>
-  </si>
-  <si>
-    <t>TC35</t>
-  </si>
-  <si>
-    <t>Check value of Note column if Access, Port, CoS Rule are mapping</t>
-  </si>
-  <si>
-    <t>See value of  Notes: show full information Access, Port, CoS rule to be mapping</t>
-  </si>
-  <si>
-    <t>TC36</t>
-  </si>
-  <si>
-    <t>1.2</t>
-  </si>
-  <si>
-    <t>7. Check value of TOTAL (A+P+CoS) Client Price NRC/MRC column at the Current, Classic, Expert Mode</t>
-  </si>
-  <si>
-    <t>Sameple project</t>
-  </si>
-  <si>
-    <t>UTEHY-SE01</t>
-  </si>
-  <si>
-    <t>Test Leader 01</t>
-  </si>
-  <si>
-    <t>Sample Project</t>
-  </si>
-  <si>
-    <t>CR100 - Export to excel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CR1 - </t>
-  </si>
-  <si>
-    <t>1: Go to the system TestProEngine with Classic or Current  Mode that has to set role "CanExportAllCarrierChoices"
-2: Submit for the quote 
-3: Open the quote at the home
-4: Go to Quick Links</t>
-  </si>
-  <si>
-    <t>1: Go to the system TestProEngine with Classic or Current  Mode that has to set role "CanExportAllCarrierChoices"
-2: Unsubmit for the quote 
-3: Open the quote at the home
-4: Go to Quick Links</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1: Go to the system TestProEngine with Expert  Mode that has to set role "CanExportAllCarrierChoices"
-2: Submit for the quote
-3: Open the quote at the home
-4: See on left Panel </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1: Go to the system TestProEngine with Expert  Mode that has to set role "CanExportAllCarrierChoices"
-2:Unsubmit for the quote 
-3: Open the quote at the home
-4: See on Left Panel </t>
-  </si>
-  <si>
-    <t>1: Go to the system TestProEngine with Classic or Current  Mode that has not to set role "CanExportAllCarrierChoices"
-2: Submit for the quote 
-3: Open the quote at the home
-4: Go to Quick Links</t>
-  </si>
-  <si>
-    <t>1: Go to the system TestProEngine with Classic or Current  Mode that has not to set role "CanExportAllCarrierChoices"
-2: Unsubmit for the quote 
-3: Open the quote at the home
-4: Go to Quick Links</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1: Go to the system TestProEngine with Expert  Mode that has not to set role "CanExportAllCarrierChoices"
-2: Submit for the quote
-3: Open the quote at the home
-4: See on left Panel </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1: Go to the system TestProEngine with Expert  Mode that has not to set role "CanExportAllCarrierChoices"
-2:Unsubmit for the quote 
-3: Open the quote at the home
-4: See on Left Panel </t>
-  </si>
-  <si>
-    <t>1: Go to the system TestProEngine with Current or Classic  Mode
-2: Create quote and submit
-3: Click [Export all Carriers] on Quick Links</t>
-  </si>
-  <si>
-    <t>1: Go to the system TestProEngine with Current or Classic  Mode
-2: Creat quote and Submit
-3: Click [Export all Carriers] on Quick Links</t>
-  </si>
-  <si>
-    <t>1: Go to the system TestProEngine with  Expert  Mode
-2: Creat quote and submit
-2: Click [Export all Carriers] button</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1: Go to the system TestProEngine with  Expert  Mode
-2: Creat quote and submit
-3: Click [Export all Carriers] button
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1: Go to the system TestProEngine with Current or Classic or Expert  Mode
-2: Creat quote and submit
-3: Click [Export all Carriers] </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1: Go to the system TestProEngine with ClassicDIA or Classic  Mode
-2: Creat quote(with ClassicDIA create site that is DIA) and submit
-3: Click [Export all Carriers] at Quick Links </t>
-  </si>
-  <si>
-    <t>1: Go to the system TestProEngine Current or Classic or Expert Mode
-2: Create quote and submit for it
-3: Go to Maintenance User set role CanSeeNotesAndCoSIndicator = True
-4: Open the quote
-5: Click [Export all Carriers] at Quick Links/Left Panel</t>
-  </si>
-  <si>
-    <t>1: Go to the system TestProEngine Current or Classic or Expert Mode
-2: Create quote and submit for it
-3: Go to Maintenance User set role CanSeeNotesAndCoSIndicator = False
-4: Open the quote
-5: Click [Export all Carriers] at Quick Links /Left panel</t>
-  </si>
-  <si>
-    <t>1: Go to the system TestProEngine Current or Classic or Expert Mode
-2: Create quote and submit for it
-3: Open the quote
-4: Click [Export all Carriers] at Quick Links /Left panel</t>
-  </si>
-  <si>
-    <t>1: Go to the system TestProEngine Current Mode
-2: Create quote and submit for it
-3: Go to Maintenance User set role CanSeeCarrierName = True
-4: Open the quote
-5: Click [Export all Carriers] at Quick Links</t>
-  </si>
-  <si>
-    <t>1: Go to the system TestProEngine Current Mode
-2: Create quote and submit for it
-3: Go to Maintenance User set role CanSeeCarrierName = False
-4: Open the quote
-5: Click [Export all Carriers] at Quick links</t>
-  </si>
-  <si>
-    <t>1: Go to the system TestProEngine Expert Mode
-2: Create quote and submit for it
-3: Go to Maintenance User set role CanSeeCarrierName = True
-4: Open the quote
-5: Click [Export all Carriers] at left panel</t>
-  </si>
-  <si>
-    <t>1: Go to the system TestProEngine Expert Mode
-2: Create quote and submit for it
-3: Go to Maintenance User set role CanSeeCarrierName = False
-4: Open the quote
-5: Click [Export all Carriers] at left panel</t>
-  </si>
-  <si>
-    <t>1: Go to the system TestProEngine Classic Mode
-2: Create quote and submit for it
-3: Go to Maintenance User set role CanSeeCarrierName = True
-4: Open the quote
-5: Click [Export all Carriers] at Quick Links</t>
-  </si>
-  <si>
-    <t>1: Go to the system TestProEngine Classic Mode
-2: Create quote and submit for it
-3: Go to Maintenance User set role CanSeeCarrierName = False
-4: Open the quote
-5: Click [Export all Carriers] at Quick Links</t>
-  </si>
-  <si>
-    <t>1: Go to the system TestProEngine Classic Mode
-2: Create quote MPLS, DIA and submit for them
-3: Go to Maintenance User set role CanSeeCarrierName = True
-4: Open the quote
-5: Click [Export all Carriers] at Quick Links</t>
-  </si>
-  <si>
-    <t>1: Go to the system TestProEngine Classic Mode
-2: Create quote MPLS, DIA and submit for them
-3: Go to Maintenance User set role CanSeeCarrierName = False
-4: Open the quote
-5: Click [Export all Carriers] at Quick Links</t>
-  </si>
-  <si>
-    <t>1: Go to the system TestProEngine Classic Mode
-2: Create quote MPLS, DIA and submit for them
-3: Open the quote
-4: Click [Export all Carriers] at Quick Links
-5: See value of TOTAL (A+P+CoS) Client Price NRC</t>
-  </si>
-  <si>
-    <t>1: Go to the system TestProEngine Classic Mode
-2: Create quote MPLS, DIA and submit for them
-3: Open the quote
-4: Click [Export all Carriers] at Quick Links
-5: See value of TOTAL (A+P+CoS) Client Price MRC</t>
-  </si>
-  <si>
-    <t>John Doe</t>
-  </si>
-  <si>
-    <t>Jane Doe</t>
-  </si>
-  <si>
-    <t>1.Check Form đăng nhập</t>
-  </si>
-  <si>
-    <t>Checking đăng nhập bằng tài khoản Admin</t>
-  </si>
-  <si>
-    <t>1: Nhập username "tk123"
-2: Nhập mật khẩu "123456789"
-3: Bấm login</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Form đăng nhập đóng lại form QUẢN LÝ CAFE mở ra </t>
-  </si>
-  <si>
-    <t>Checking đăng nhập bằng tài khoản Staff</t>
-  </si>
-  <si>
-    <t>1: Nhập username "tk456"
-2: Nhập mật khẩu "abcxy"
-3: Bấm login</t>
   </si>
 </sst>
 </file>
@@ -1233,7 +512,7 @@
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -1382,6 +661,12 @@
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -1894,7 +1179,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="159">
+  <cellXfs count="171">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -2147,9 +1432,6 @@
     <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="4" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2192,12 +1474,54 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="4" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2207,10 +1531,79 @@
     <xf numFmtId="0" fontId="22" fillId="4" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="31" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="32" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="33" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="34" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2225,86 +1618,14 @@
     <xf numFmtId="165" fontId="6" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="31" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="32" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="33" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="34" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -4947,16 +4268,16 @@
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="14.25" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.21875" style="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="1"/>
     <col min="4" max="4" width="15" style="1" customWidth="1"/>
-    <col min="5" max="5" width="32.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="23.875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="20.5" style="1" customWidth="1"/>
-    <col min="8" max="8" width="26.75" style="1" customWidth="1"/>
+    <col min="5" max="5" width="32.44140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="23.88671875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="20.44140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="26.77734375" style="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -4964,10 +4285,10 @@
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
     </row>
-    <row r="2" spans="1:8" ht="22.5">
+    <row r="2" spans="1:8" ht="22.2">
       <c r="A2" s="26"/>
       <c r="B2" s="27" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C2" s="26"/>
       <c r="D2" s="26"/>
@@ -4978,7 +4299,7 @@
     <row r="3" spans="1:8">
       <c r="A3" s="26"/>
       <c r="B3" s="28" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="C3" s="63">
         <v>1.2</v>
@@ -4991,17 +4312,17 @@
     <row r="4" spans="1:8">
       <c r="A4" s="26"/>
       <c r="B4" s="28" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D4" s="11"/>
       <c r="E4" s="26"/>
       <c r="F4" s="26"/>
       <c r="G4" s="26"/>
     </row>
-    <row r="5" spans="1:8" ht="15" thickBot="1">
+    <row r="5" spans="1:8" ht="14.4" thickBot="1">
       <c r="A5" s="26"/>
       <c r="B5" s="28"/>
       <c r="C5" s="29"/>
@@ -5013,26 +4334,26 @@
     <row r="6" spans="1:8" ht="14.25" customHeight="1" thickBot="1">
       <c r="A6" s="26"/>
       <c r="B6" s="28" t="s">
-        <v>53</v>
-      </c>
-      <c r="C6" s="121" t="s">
-        <v>155</v>
-      </c>
-      <c r="D6" s="121"/>
-      <c r="E6" s="122"/>
+        <v>43</v>
+      </c>
+      <c r="C6" s="125" t="s">
+        <v>64</v>
+      </c>
+      <c r="D6" s="125"/>
+      <c r="E6" s="126"/>
       <c r="F6" s="26"/>
       <c r="G6" s="26"/>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="26"/>
       <c r="B7" s="28" t="s">
-        <v>54</v>
-      </c>
-      <c r="C7" s="121" t="s">
-        <v>156</v>
-      </c>
-      <c r="D7" s="121"/>
-      <c r="E7" s="122"/>
+        <v>44</v>
+      </c>
+      <c r="C7" s="125" t="s">
+        <v>65</v>
+      </c>
+      <c r="D7" s="125"/>
+      <c r="E7" s="126"/>
       <c r="F7" s="26"/>
       <c r="G7" s="26"/>
     </row>
@@ -5056,94 +4377,94 @@
     </row>
     <row r="10" spans="1:8">
       <c r="B10" s="5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" s="36" customFormat="1" ht="25.5">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" s="36" customFormat="1" ht="26.4">
       <c r="B11" s="52" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C11" s="53" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="D11" s="53" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="E11" s="53" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="F11" s="53" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="G11" s="54" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="H11" s="90" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" s="36" customFormat="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" s="36" customFormat="1" ht="26.4">
       <c r="B12" s="38">
         <v>39293</v>
       </c>
       <c r="C12" s="39" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="D12" s="40"/>
       <c r="E12" s="41" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="F12" s="77" t="s">
-        <v>188</v>
+        <v>70</v>
       </c>
       <c r="G12" s="89"/>
       <c r="H12" s="91" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" s="36" customFormat="1">
-      <c r="B13" s="117">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" s="36" customFormat="1" ht="26.4">
+      <c r="B13" s="116">
         <v>39295</v>
       </c>
       <c r="C13" s="39" t="s">
-        <v>97</v>
+        <v>61</v>
       </c>
       <c r="D13" s="40"/>
       <c r="E13" s="41" t="s">
-        <v>98</v>
+        <v>62</v>
       </c>
       <c r="F13" s="77" t="s">
-        <v>188</v>
-      </c>
-      <c r="G13" s="115" t="s">
-        <v>189</v>
+        <v>70</v>
+      </c>
+      <c r="G13" s="114" t="s">
+        <v>71</v>
       </c>
       <c r="H13" s="91" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" s="37" customFormat="1" ht="12.75">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" s="37" customFormat="1" ht="26.4">
       <c r="B14" s="38">
         <v>39311</v>
       </c>
       <c r="C14" s="39" t="s">
-        <v>153</v>
+        <v>63</v>
       </c>
       <c r="D14" s="40"/>
       <c r="E14" s="41" t="s">
-        <v>98</v>
+        <v>62</v>
       </c>
       <c r="F14" s="77" t="s">
-        <v>188</v>
-      </c>
-      <c r="G14" s="115" t="s">
-        <v>157</v>
+        <v>70</v>
+      </c>
+      <c r="G14" s="114" t="s">
+        <v>66</v>
       </c>
       <c r="H14" s="91" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" s="37" customFormat="1" ht="12.75">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" s="37" customFormat="1" ht="13.2">
       <c r="B15" s="45"/>
       <c r="C15" s="46"/>
       <c r="D15" s="43"/>
@@ -5243,1239 +4564,1180 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N102"/>
+  <dimension ref="A1:N113"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" outlineLevelRow="1"/>
+  <sheetFormatPr defaultRowHeight="13.8" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="15.75" customWidth="1"/>
-    <col min="2" max="2" width="18.125" style="99" customWidth="1"/>
-    <col min="3" max="3" width="42.125" customWidth="1"/>
-    <col min="6" max="6" width="23.625" customWidth="1"/>
-    <col min="7" max="7" width="18.5" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="17.25" customWidth="1"/>
+    <col min="1" max="1" width="15.77734375" customWidth="1"/>
+    <col min="2" max="2" width="18.88671875" style="99" customWidth="1"/>
+    <col min="3" max="3" width="42.109375" customWidth="1"/>
+    <col min="6" max="6" width="23.6640625" customWidth="1"/>
+    <col min="7" max="7" width="18.44140625" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="17.21875" customWidth="1"/>
     <col min="9" max="9" width="9" style="104"/>
     <col min="10" max="10" width="18" style="102" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="2" customFormat="1" ht="12.75" customHeight="1">
       <c r="A1" s="64" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="145"/>
-      <c r="C1" s="145"/>
-      <c r="D1" s="145"/>
+        <v>13</v>
+      </c>
+      <c r="B1" s="130"/>
+      <c r="C1" s="130"/>
+      <c r="D1" s="130"/>
       <c r="E1" s="6"/>
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
       <c r="H1" s="6"/>
-      <c r="I1" s="118"/>
-      <c r="J1" s="119"/>
+      <c r="I1" s="117"/>
+      <c r="J1" s="118"/>
       <c r="K1" s="7"/>
     </row>
     <row r="2" spans="1:11" s="2" customFormat="1" ht="11.25" customHeight="1" thickBot="1">
       <c r="A2" s="7"/>
-      <c r="B2" s="146"/>
-      <c r="C2" s="146"/>
-      <c r="D2" s="146"/>
+      <c r="B2" s="131"/>
+      <c r="C2" s="131"/>
+      <c r="D2" s="131"/>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
-      <c r="I2" s="118"/>
-      <c r="J2" s="119"/>
+      <c r="I2" s="117"/>
+      <c r="J2" s="118"/>
       <c r="K2" s="7"/>
     </row>
     <row r="3" spans="1:11" s="3" customFormat="1" ht="15" customHeight="1">
       <c r="A3" s="65" t="s">
-        <v>55</v>
-      </c>
-      <c r="B3" s="121" t="s">
-        <v>158</v>
-      </c>
-      <c r="C3" s="121"/>
-      <c r="D3" s="122"/>
+        <v>45</v>
+      </c>
+      <c r="B3" s="125" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" s="125"/>
+      <c r="D3" s="126"/>
       <c r="E3" s="68"/>
       <c r="F3" s="68"/>
       <c r="G3" s="68"/>
-      <c r="H3" s="152"/>
-      <c r="I3" s="152"/>
-      <c r="J3" s="152"/>
+      <c r="H3" s="140"/>
+      <c r="I3" s="140"/>
+      <c r="J3" s="140"/>
       <c r="K3" s="9"/>
     </row>
-    <row r="4" spans="1:11" s="3" customFormat="1" ht="12.75">
+    <row r="4" spans="1:11" s="3" customFormat="1" ht="13.2">
       <c r="A4" s="72" t="s">
-        <v>56</v>
-      </c>
-      <c r="B4" s="153" t="s">
-        <v>159</v>
-      </c>
-      <c r="C4" s="154"/>
-      <c r="D4" s="155"/>
+        <v>46</v>
+      </c>
+      <c r="B4" s="142" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" s="143"/>
+      <c r="D4" s="144"/>
       <c r="E4" s="68"/>
       <c r="F4" s="68"/>
       <c r="G4" s="68"/>
-      <c r="H4" s="152"/>
-      <c r="I4" s="152"/>
-      <c r="J4" s="152"/>
+      <c r="H4" s="140"/>
+      <c r="I4" s="140"/>
+      <c r="J4" s="140"/>
       <c r="K4" s="9"/>
     </row>
-    <row r="5" spans="1:11" s="81" customFormat="1" ht="12.75">
+    <row r="5" spans="1:11" s="81" customFormat="1" ht="26.4">
       <c r="A5" s="72" t="s">
-        <v>49</v>
-      </c>
-      <c r="B5" s="148" t="s">
-        <v>160</v>
-      </c>
-      <c r="C5" s="149"/>
-      <c r="D5" s="150"/>
+        <v>39</v>
+      </c>
+      <c r="B5" s="133" t="s">
+        <v>69</v>
+      </c>
+      <c r="C5" s="134"/>
+      <c r="D5" s="135"/>
       <c r="E5" s="79"/>
       <c r="F5" s="79"/>
       <c r="G5" s="79"/>
-      <c r="H5" s="151"/>
-      <c r="I5" s="151"/>
-      <c r="J5" s="151"/>
+      <c r="H5" s="139"/>
+      <c r="I5" s="139"/>
+      <c r="J5" s="139"/>
       <c r="K5" s="80"/>
     </row>
     <row r="6" spans="1:11" s="3" customFormat="1" ht="15" customHeight="1">
       <c r="A6" s="12" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="B6" s="95">
-        <f>COUNTIF(I12:I61,"Pass")</f>
-        <v>26</v>
+        <f>COUNTIF(I12:I72,"Pass")</f>
+        <v>18</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="D6" s="13">
-        <f>COUNTIF(I10:I783,"Pending")</f>
+        <f>COUNTIF(I10:I794,"Pending")</f>
         <v>0</v>
       </c>
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
-      <c r="H6" s="152"/>
-      <c r="I6" s="152"/>
-      <c r="J6" s="152"/>
+      <c r="H6" s="140"/>
+      <c r="I6" s="140"/>
+      <c r="J6" s="140"/>
       <c r="K6" s="9"/>
     </row>
     <row r="7" spans="1:11" s="3" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A7" s="14" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="B7" s="96">
-        <f>COUNTIF(I12:I61,"Fail")</f>
-        <v>1</v>
+        <f>COUNTIF(I12:I72,"Fail")</f>
+        <v>3</v>
       </c>
       <c r="C7" s="30" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="D7" s="66">
-        <f>COUNTA(A12:A64) -15</f>
-        <v>38</v>
+        <f>COUNTA(A12:A75) -15</f>
+        <v>10</v>
       </c>
       <c r="E7" s="69"/>
       <c r="F7" s="69"/>
       <c r="G7" s="69"/>
-      <c r="H7" s="152"/>
-      <c r="I7" s="152"/>
-      <c r="J7" s="152"/>
+      <c r="H7" s="140"/>
+      <c r="I7" s="140"/>
+      <c r="J7" s="140"/>
       <c r="K7" s="9"/>
     </row>
     <row r="8" spans="1:11" s="3" customFormat="1" ht="15" customHeight="1">
-      <c r="A8" s="147"/>
-      <c r="B8" s="147"/>
-      <c r="C8" s="147"/>
-      <c r="D8" s="147"/>
+      <c r="A8" s="132"/>
+      <c r="B8" s="132"/>
+      <c r="C8" s="132"/>
+      <c r="D8" s="132"/>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
-      <c r="I8" s="120"/>
-      <c r="J8" s="120"/>
+      <c r="I8" s="119"/>
+      <c r="J8" s="119"/>
       <c r="K8" s="9"/>
     </row>
     <row r="9" spans="1:11" s="83" customFormat="1" ht="12" customHeight="1">
-      <c r="A9" s="133" t="s">
-        <v>50</v>
-      </c>
-      <c r="B9" s="135" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="133" t="s">
-        <v>35</v>
-      </c>
-      <c r="D9" s="137" t="s">
-        <v>48</v>
-      </c>
-      <c r="E9" s="138"/>
-      <c r="F9" s="138"/>
-      <c r="G9" s="139"/>
-      <c r="H9" s="156" t="s">
-        <v>46</v>
-      </c>
-      <c r="I9" s="134" t="s">
+      <c r="A9" s="149" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="150" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="149" t="s">
         <v>25</v>
       </c>
-      <c r="J9" s="134" t="s">
-        <v>51</v>
+      <c r="D9" s="152" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="153"/>
+      <c r="F9" s="153"/>
+      <c r="G9" s="154"/>
+      <c r="H9" s="145" t="s">
+        <v>36</v>
+      </c>
+      <c r="I9" s="141" t="s">
+        <v>15</v>
+      </c>
+      <c r="J9" s="141" t="s">
+        <v>41</v>
       </c>
       <c r="K9" s="82"/>
     </row>
     <row r="10" spans="1:11" s="71" customFormat="1" ht="12" customHeight="1">
-      <c r="A10" s="134"/>
-      <c r="B10" s="136"/>
-      <c r="C10" s="134"/>
-      <c r="D10" s="140"/>
-      <c r="E10" s="141"/>
-      <c r="F10" s="141"/>
-      <c r="G10" s="142"/>
-      <c r="H10" s="140"/>
-      <c r="I10" s="134"/>
-      <c r="J10" s="134"/>
+      <c r="A10" s="141"/>
+      <c r="B10" s="151"/>
+      <c r="C10" s="141"/>
+      <c r="D10" s="146"/>
+      <c r="E10" s="155"/>
+      <c r="F10" s="155"/>
+      <c r="G10" s="156"/>
+      <c r="H10" s="146"/>
+      <c r="I10" s="141"/>
+      <c r="J10" s="141"/>
       <c r="K10" s="70"/>
     </row>
     <row r="11" spans="1:11" s="84" customFormat="1" ht="15">
-      <c r="A11" s="157"/>
-      <c r="B11" s="157"/>
-      <c r="C11" s="157"/>
-      <c r="D11" s="157"/>
-      <c r="E11" s="157"/>
-      <c r="F11" s="157"/>
-      <c r="G11" s="157"/>
-      <c r="H11" s="157"/>
-      <c r="I11" s="157"/>
-      <c r="J11" s="158"/>
-    </row>
-    <row r="12" spans="1:11" s="4" customFormat="1" ht="12.75">
-      <c r="A12" s="123" t="s">
-        <v>190</v>
-      </c>
-      <c r="B12" s="124"/>
-      <c r="C12" s="124"/>
-      <c r="D12" s="124"/>
-      <c r="E12" s="124"/>
-      <c r="F12" s="124"/>
-      <c r="G12" s="124"/>
-      <c r="H12" s="124"/>
-      <c r="I12" s="124"/>
-      <c r="J12" s="125"/>
-    </row>
-    <row r="13" spans="1:11" s="4" customFormat="1" ht="38.25" outlineLevel="1">
+      <c r="A11" s="147"/>
+      <c r="B11" s="147"/>
+      <c r="C11" s="147"/>
+      <c r="D11" s="147"/>
+      <c r="E11" s="147"/>
+      <c r="F11" s="147"/>
+      <c r="G11" s="147"/>
+      <c r="H11" s="147"/>
+      <c r="I11" s="147"/>
+      <c r="J11" s="148"/>
+    </row>
+    <row r="12" spans="1:11" s="4" customFormat="1" ht="13.2">
+      <c r="A12" s="136" t="s">
+        <v>72</v>
+      </c>
+      <c r="B12" s="137"/>
+      <c r="C12" s="137"/>
+      <c r="D12" s="137"/>
+      <c r="E12" s="137"/>
+      <c r="F12" s="137"/>
+      <c r="G12" s="137"/>
+      <c r="H12" s="137"/>
+      <c r="I12" s="137"/>
+      <c r="J12" s="138"/>
+    </row>
+    <row r="13" spans="1:11" s="4" customFormat="1" ht="39.6" customHeight="1" outlineLevel="1">
       <c r="A13" s="88" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B13" s="97" t="s">
-        <v>191</v>
+        <v>73</v>
       </c>
       <c r="C13" s="87" t="s">
-        <v>192</v>
-      </c>
-      <c r="D13" s="126" t="s">
-        <v>193</v>
-      </c>
-      <c r="E13" s="127"/>
-      <c r="F13" s="127"/>
+        <v>74</v>
+      </c>
+      <c r="D13" s="127" t="s">
+        <v>81</v>
+      </c>
+      <c r="E13" s="128"/>
+      <c r="F13" s="128"/>
       <c r="G13" s="86"/>
-      <c r="H13" s="113"/>
+      <c r="H13" s="112"/>
       <c r="I13" s="87" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="J13" s="85"/>
     </row>
-    <row r="14" spans="1:11" s="4" customFormat="1" ht="38.25" outlineLevel="1">
+    <row r="14" spans="1:11" s="4" customFormat="1" ht="13.2" outlineLevel="1">
       <c r="A14" s="88" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="B14" s="97" t="s">
-        <v>194</v>
+        <v>82</v>
       </c>
       <c r="C14" s="87" t="s">
-        <v>195</v>
-      </c>
-      <c r="D14" s="126" t="s">
-        <v>193</v>
-      </c>
-      <c r="E14" s="127"/>
-      <c r="F14" s="127"/>
-      <c r="G14" s="87"/>
+        <v>83</v>
+      </c>
+      <c r="D14" s="128" t="s">
+        <v>84</v>
+      </c>
+      <c r="E14" s="128"/>
+      <c r="F14" s="128"/>
+      <c r="G14" s="121"/>
       <c r="H14" s="94"/>
       <c r="I14" s="87" t="s">
+        <v>47</v>
+      </c>
+      <c r="J14" s="85"/>
+    </row>
+    <row r="15" spans="1:11" s="4" customFormat="1" ht="13.2" outlineLevel="1">
+      <c r="A15" s="88" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="97" t="s">
+        <v>78</v>
+      </c>
+      <c r="C15" s="87" t="s">
+        <v>79</v>
+      </c>
+      <c r="D15" s="160" t="s">
+        <v>80</v>
+      </c>
+      <c r="E15" s="161"/>
+      <c r="F15" s="162"/>
+      <c r="G15" s="87"/>
+      <c r="H15" s="97"/>
+      <c r="I15" s="87" t="s">
+        <v>47</v>
+      </c>
+      <c r="J15" s="85"/>
+    </row>
+    <row r="16" spans="1:11" s="4" customFormat="1" ht="13.2" outlineLevel="1">
+      <c r="A16" s="88" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="97" t="s">
+        <v>85</v>
+      </c>
+      <c r="C16" s="87" t="s">
+        <v>86</v>
+      </c>
+      <c r="D16" s="128" t="s">
+        <v>87</v>
+      </c>
+      <c r="E16" s="128"/>
+      <c r="F16" s="128"/>
+      <c r="G16" s="121"/>
+      <c r="H16" s="94"/>
+      <c r="I16" s="87" t="s">
+        <v>47</v>
+      </c>
+      <c r="J16" s="85"/>
+    </row>
+    <row r="17" spans="1:10" s="4" customFormat="1" ht="39.6" customHeight="1" outlineLevel="1">
+      <c r="A17" s="88" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="97" t="s">
+        <v>75</v>
+      </c>
+      <c r="C17" s="87" t="s">
+        <v>76</v>
+      </c>
+      <c r="D17" s="127" t="s">
+        <v>77</v>
+      </c>
+      <c r="E17" s="128"/>
+      <c r="F17" s="128"/>
+      <c r="G17" s="86"/>
+      <c r="H17" s="112"/>
+      <c r="I17" s="87" t="s">
+        <v>47</v>
+      </c>
+      <c r="J17" s="85"/>
+    </row>
+    <row r="18" spans="1:10" s="4" customFormat="1" ht="39.6" customHeight="1" outlineLevel="1">
+      <c r="A18" s="123" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" s="97" t="s">
+        <v>88</v>
+      </c>
+      <c r="C18" s="87" t="s">
+        <v>89</v>
+      </c>
+      <c r="D18" s="127" t="s">
+        <v>90</v>
+      </c>
+      <c r="E18" s="128"/>
+      <c r="F18" s="163"/>
+      <c r="G18" s="87"/>
+      <c r="H18" s="94"/>
+      <c r="I18" s="87" t="s">
+        <v>11</v>
+      </c>
+      <c r="J18" s="85"/>
+    </row>
+    <row r="19" spans="1:10" s="4" customFormat="1" ht="39.6" customHeight="1" outlineLevel="1">
+      <c r="A19" s="88" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" s="97" t="s">
+        <v>91</v>
+      </c>
+      <c r="C19" s="87" t="s">
+        <v>92</v>
+      </c>
+      <c r="D19" s="127" t="s">
+        <v>90</v>
+      </c>
+      <c r="E19" s="128"/>
+      <c r="F19" s="163"/>
+      <c r="G19" s="87"/>
+      <c r="H19" s="94"/>
+      <c r="I19" s="87" t="s">
+        <v>11</v>
+      </c>
+      <c r="J19" s="85"/>
+    </row>
+    <row r="20" spans="1:10" s="4" customFormat="1" ht="39.6" customHeight="1" outlineLevel="1">
+      <c r="A20" s="88" t="s">
+        <v>51</v>
+      </c>
+      <c r="B20" s="97" t="s">
+        <v>93</v>
+      </c>
+      <c r="C20" s="87" t="s">
+        <v>94</v>
+      </c>
+      <c r="D20" s="127" t="s">
+        <v>95</v>
+      </c>
+      <c r="E20" s="128"/>
+      <c r="F20" s="163"/>
+      <c r="G20" s="87"/>
+      <c r="H20" s="94"/>
+      <c r="I20" s="87" t="s">
+        <v>47</v>
+      </c>
+      <c r="J20" s="85"/>
+    </row>
+    <row r="21" spans="1:10" s="4" customFormat="1" ht="13.2" customHeight="1" outlineLevel="1">
+      <c r="A21" s="157" t="s">
+        <v>96</v>
+      </c>
+      <c r="B21" s="158"/>
+      <c r="C21" s="158"/>
+      <c r="D21" s="106"/>
+      <c r="E21" s="106"/>
+      <c r="F21" s="106"/>
+      <c r="G21" s="106"/>
+      <c r="H21" s="106"/>
+      <c r="I21" s="106"/>
+      <c r="J21" s="107"/>
+    </row>
+    <row r="22" spans="1:10" s="4" customFormat="1" ht="63.75" customHeight="1" outlineLevel="1">
+      <c r="A22" s="88" t="s">
+        <v>52</v>
+      </c>
+      <c r="B22" s="105" t="s">
+        <v>97</v>
+      </c>
+      <c r="C22" s="105" t="s">
+        <v>98</v>
+      </c>
+      <c r="D22" s="129" t="s">
+        <v>99</v>
+      </c>
+      <c r="E22" s="128"/>
+      <c r="F22" s="128"/>
+      <c r="G22" s="86"/>
+      <c r="H22" s="120"/>
+      <c r="I22" s="87" t="s">
+        <v>47</v>
+      </c>
+      <c r="J22" s="85"/>
+    </row>
+    <row r="23" spans="1:10" s="4" customFormat="1" ht="54" customHeight="1" outlineLevel="1">
+      <c r="A23" s="88" t="s">
+        <v>53</v>
+      </c>
+      <c r="B23" s="105" t="s">
+        <v>100</v>
+      </c>
+      <c r="C23" s="105" t="s">
+        <v>120</v>
+      </c>
+      <c r="D23" s="129" t="s">
+        <v>99</v>
+      </c>
+      <c r="E23" s="159"/>
+      <c r="F23" s="159"/>
+      <c r="G23" s="86"/>
+      <c r="H23" s="112"/>
+      <c r="I23" s="87" t="s">
+        <v>47</v>
+      </c>
+      <c r="J23" s="85"/>
+    </row>
+    <row r="24" spans="1:10" s="4" customFormat="1" ht="63.75" customHeight="1" outlineLevel="1">
+      <c r="A24" s="88" t="s">
+        <v>54</v>
+      </c>
+      <c r="B24" s="105" t="s">
+        <v>101</v>
+      </c>
+      <c r="C24" s="105" t="s">
+        <v>102</v>
+      </c>
+      <c r="D24" s="127" t="s">
+        <v>133</v>
+      </c>
+      <c r="E24" s="128"/>
+      <c r="F24" s="128"/>
+      <c r="G24" s="86"/>
+      <c r="H24" s="94"/>
+      <c r="I24" s="87" t="s">
+        <v>47</v>
+      </c>
+      <c r="J24" s="85"/>
+    </row>
+    <row r="25" spans="1:10" s="4" customFormat="1" ht="63.75" customHeight="1" outlineLevel="1">
+      <c r="A25" s="88" t="s">
+        <v>55</v>
+      </c>
+      <c r="B25" s="105" t="s">
+        <v>103</v>
+      </c>
+      <c r="C25" s="105" t="s">
+        <v>104</v>
+      </c>
+      <c r="D25" s="129" t="s">
+        <v>105</v>
+      </c>
+      <c r="E25" s="128"/>
+      <c r="F25" s="128"/>
+      <c r="G25" s="86"/>
+      <c r="H25" s="120"/>
+      <c r="I25" s="87" t="s">
+        <v>47</v>
+      </c>
+      <c r="J25" s="85"/>
+    </row>
+    <row r="26" spans="1:10" s="4" customFormat="1" ht="63.75" customHeight="1" outlineLevel="1">
+      <c r="A26" s="88" t="s">
+        <v>56</v>
+      </c>
+      <c r="B26" s="87" t="s">
+        <v>106</v>
+      </c>
+      <c r="C26" s="87" t="s">
+        <v>107</v>
+      </c>
+      <c r="D26" s="129" t="s">
+        <v>108</v>
+      </c>
+      <c r="E26" s="159"/>
+      <c r="F26" s="170"/>
+      <c r="G26" s="87"/>
+      <c r="H26" s="87"/>
+      <c r="I26" s="87" t="s">
+        <v>47</v>
+      </c>
+      <c r="J26" s="85"/>
+    </row>
+    <row r="27" spans="1:10" s="4" customFormat="1" ht="63.75" customHeight="1" outlineLevel="1">
+      <c r="A27" s="88" t="s">
         <v>57</v>
       </c>
-      <c r="J14" s="85"/>
-    </row>
-    <row r="15" spans="1:11" s="4" customFormat="1" ht="12.75" outlineLevel="1">
-      <c r="A15" s="143" t="s">
-        <v>91</v>
-      </c>
-      <c r="B15" s="144"/>
-      <c r="C15" s="144"/>
-      <c r="D15" s="107"/>
-      <c r="E15" s="107"/>
-      <c r="F15" s="107"/>
-      <c r="G15" s="107"/>
-      <c r="H15" s="107"/>
-      <c r="I15" s="107"/>
-      <c r="J15" s="108"/>
-    </row>
-    <row r="16" spans="1:11" s="4" customFormat="1" ht="63.75" customHeight="1" outlineLevel="1">
-      <c r="A16" s="88" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="105" t="s">
-        <v>61</v>
-      </c>
-      <c r="C16" s="106" t="s">
-        <v>161</v>
-      </c>
-      <c r="D16" s="132" t="s">
-        <v>13</v>
-      </c>
-      <c r="E16" s="127"/>
-      <c r="F16" s="127"/>
-      <c r="G16" s="86"/>
-      <c r="H16" s="100"/>
-      <c r="I16" s="87" t="s">
-        <v>57</v>
-      </c>
-      <c r="J16" s="85"/>
-    </row>
-    <row r="17" spans="1:14" s="4" customFormat="1" ht="63.75" customHeight="1" outlineLevel="1">
-      <c r="A17" s="88" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" s="105" t="s">
-        <v>61</v>
-      </c>
-      <c r="C17" s="106" t="s">
-        <v>162</v>
-      </c>
-      <c r="D17" s="132" t="s">
-        <v>12</v>
-      </c>
-      <c r="E17" s="127"/>
-      <c r="F17" s="127"/>
-      <c r="G17" s="86"/>
-      <c r="H17" s="113"/>
-      <c r="I17" s="87" t="s">
-        <v>57</v>
-      </c>
-      <c r="J17" s="85"/>
-    </row>
-    <row r="18" spans="1:14" s="4" customFormat="1" ht="63.75" outlineLevel="1">
-      <c r="A18" s="88" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" s="105" t="s">
-        <v>62</v>
-      </c>
-      <c r="C18" s="106" t="s">
-        <v>163</v>
-      </c>
-      <c r="D18" s="126" t="s">
-        <v>63</v>
-      </c>
-      <c r="E18" s="127"/>
-      <c r="F18" s="127"/>
-      <c r="G18" s="86"/>
-      <c r="H18" s="94"/>
-      <c r="I18" s="87"/>
-      <c r="J18" s="85"/>
-    </row>
-    <row r="19" spans="1:14" s="4" customFormat="1" ht="63.75" outlineLevel="1">
-      <c r="A19" s="88" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19" s="105" t="s">
-        <v>62</v>
-      </c>
-      <c r="C19" s="106" t="s">
-        <v>164</v>
-      </c>
-      <c r="D19" s="132" t="s">
-        <v>64</v>
-      </c>
-      <c r="E19" s="127"/>
-      <c r="F19" s="127"/>
-      <c r="G19" s="86"/>
-      <c r="H19" s="100"/>
-      <c r="I19" s="87"/>
-      <c r="J19" s="85"/>
-    </row>
-    <row r="20" spans="1:14" s="4" customFormat="1" ht="12.75" outlineLevel="1">
-      <c r="A20" s="143" t="s">
-        <v>92</v>
-      </c>
-      <c r="B20" s="144"/>
-      <c r="C20" s="144"/>
-      <c r="D20" s="107"/>
-      <c r="E20" s="107"/>
-      <c r="F20" s="107"/>
-      <c r="G20" s="107"/>
-      <c r="H20" s="107"/>
-      <c r="I20" s="107"/>
-      <c r="J20" s="108"/>
-    </row>
-    <row r="21" spans="1:14" s="4" customFormat="1" ht="63.75" customHeight="1" outlineLevel="1">
-      <c r="A21" s="88" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21" s="105" t="s">
-        <v>61</v>
-      </c>
-      <c r="C21" s="106" t="s">
-        <v>165</v>
-      </c>
-      <c r="D21" s="132" t="s">
-        <v>12</v>
-      </c>
-      <c r="E21" s="127"/>
-      <c r="F21" s="127"/>
-      <c r="G21" s="86"/>
-      <c r="H21" s="100"/>
-      <c r="I21" s="87" t="s">
-        <v>57</v>
-      </c>
-      <c r="J21" s="85"/>
-    </row>
-    <row r="22" spans="1:14" s="4" customFormat="1" ht="63.75" customHeight="1" outlineLevel="1">
-      <c r="A22" s="88" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22" s="105" t="s">
-        <v>61</v>
-      </c>
-      <c r="C22" s="106" t="s">
-        <v>166</v>
-      </c>
-      <c r="D22" s="132" t="s">
-        <v>12</v>
-      </c>
-      <c r="E22" s="127"/>
-      <c r="F22" s="127"/>
-      <c r="G22" s="86"/>
-      <c r="H22" s="113"/>
-      <c r="I22" s="87" t="s">
-        <v>57</v>
-      </c>
-      <c r="J22" s="85"/>
-    </row>
-    <row r="23" spans="1:14" s="4" customFormat="1" ht="63.75" outlineLevel="1">
-      <c r="A23" s="88" t="s">
-        <v>67</v>
-      </c>
-      <c r="B23" s="105" t="s">
-        <v>62</v>
-      </c>
-      <c r="C23" s="106" t="s">
-        <v>167</v>
-      </c>
-      <c r="D23" s="132" t="s">
-        <v>99</v>
-      </c>
-      <c r="E23" s="127"/>
-      <c r="F23" s="127"/>
-      <c r="G23" s="86"/>
-      <c r="H23" s="94"/>
-      <c r="I23" s="87"/>
-      <c r="J23" s="85"/>
-    </row>
-    <row r="24" spans="1:14" s="4" customFormat="1" ht="63.75" outlineLevel="1">
-      <c r="A24" s="88" t="s">
-        <v>76</v>
-      </c>
-      <c r="B24" s="105" t="s">
-        <v>62</v>
-      </c>
-      <c r="C24" s="106" t="s">
-        <v>168</v>
-      </c>
-      <c r="D24" s="132" t="s">
-        <v>100</v>
-      </c>
-      <c r="E24" s="127"/>
-      <c r="F24" s="127"/>
-      <c r="G24" s="86"/>
-      <c r="H24" s="100"/>
-      <c r="I24" s="87"/>
-      <c r="J24" s="85"/>
-    </row>
-    <row r="25" spans="1:14" s="4" customFormat="1" ht="12.75">
-      <c r="A25" s="123" t="s">
-        <v>138</v>
-      </c>
-      <c r="B25" s="124"/>
-      <c r="C25" s="124"/>
-      <c r="D25" s="124"/>
-      <c r="E25" s="124"/>
-      <c r="F25" s="124"/>
-      <c r="G25" s="124"/>
-      <c r="H25" s="124"/>
-      <c r="I25" s="124"/>
-      <c r="J25" s="125"/>
-    </row>
-    <row r="26" spans="1:14" s="93" customFormat="1" ht="228.75" customHeight="1" outlineLevel="1">
-      <c r="A26" s="88" t="s">
-        <v>77</v>
-      </c>
-      <c r="B26" s="98" t="s">
-        <v>65</v>
-      </c>
-      <c r="C26" s="92" t="s">
-        <v>169</v>
-      </c>
-      <c r="D26" s="126" t="s">
-        <v>90</v>
-      </c>
-      <c r="E26" s="127"/>
-      <c r="F26" s="127"/>
-      <c r="I26" s="114" t="s">
-        <v>57</v>
-      </c>
-      <c r="J26" s="94"/>
-    </row>
-    <row r="27" spans="1:14" s="93" customFormat="1" ht="207.75" customHeight="1" outlineLevel="1">
-      <c r="A27" s="88" t="s">
-        <v>78</v>
-      </c>
-      <c r="B27" s="98" t="s">
-        <v>104</v>
-      </c>
-      <c r="C27" s="92" t="s">
-        <v>170</v>
-      </c>
-      <c r="D27" s="126" t="s">
-        <v>103</v>
-      </c>
-      <c r="E27" s="127"/>
-      <c r="F27" s="127"/>
-      <c r="H27" s="112"/>
-      <c r="I27" s="114" t="s">
-        <v>57</v>
-      </c>
-      <c r="J27" s="94"/>
-    </row>
-    <row r="28" spans="1:14" s="93" customFormat="1" ht="255" customHeight="1" outlineLevel="1">
+      <c r="B27" s="87" t="s">
+        <v>114</v>
+      </c>
+      <c r="C27" s="87" t="s">
+        <v>115</v>
+      </c>
+      <c r="D27" s="129" t="s">
+        <v>116</v>
+      </c>
+      <c r="E27" s="159"/>
+      <c r="F27" s="170"/>
+      <c r="G27" s="121"/>
+      <c r="H27" s="87"/>
+      <c r="I27" s="87" t="s">
+        <v>47</v>
+      </c>
+      <c r="J27" s="85"/>
+    </row>
+    <row r="28" spans="1:10" s="4" customFormat="1" ht="63.75" customHeight="1" outlineLevel="1">
       <c r="A28" s="88" t="s">
-        <v>79</v>
-      </c>
-      <c r="B28" s="98" t="s">
-        <v>101</v>
-      </c>
-      <c r="C28" s="92" t="s">
-        <v>171</v>
-      </c>
-      <c r="D28" s="126" t="s">
-        <v>102</v>
-      </c>
-      <c r="E28" s="127"/>
-      <c r="F28" s="127"/>
-      <c r="H28" s="112"/>
-      <c r="I28" s="110"/>
-      <c r="J28" s="111"/>
-      <c r="K28" s="109"/>
-      <c r="L28" s="109"/>
-      <c r="M28" s="109"/>
-      <c r="N28" s="109"/>
-    </row>
-    <row r="29" spans="1:14" s="93" customFormat="1" ht="276.75" customHeight="1" outlineLevel="1">
+        <v>58</v>
+      </c>
+      <c r="B28" s="87" t="s">
+        <v>117</v>
+      </c>
+      <c r="C28" s="87" t="s">
+        <v>118</v>
+      </c>
+      <c r="D28" s="129" t="s">
+        <v>119</v>
+      </c>
+      <c r="E28" s="159"/>
+      <c r="F28" s="170"/>
+      <c r="G28" s="121"/>
+      <c r="H28" s="87"/>
+      <c r="I28" s="87" t="s">
+        <v>47</v>
+      </c>
+      <c r="J28" s="85"/>
+    </row>
+    <row r="29" spans="1:10" s="4" customFormat="1" ht="63.75" customHeight="1" outlineLevel="1">
       <c r="A29" s="88" t="s">
-        <v>80</v>
-      </c>
-      <c r="B29" s="98" t="s">
-        <v>66</v>
-      </c>
-      <c r="C29" s="92" t="s">
-        <v>172</v>
-      </c>
-      <c r="D29" s="126" t="s">
-        <v>9</v>
-      </c>
-      <c r="E29" s="127"/>
-      <c r="F29" s="127"/>
-      <c r="H29" s="101"/>
-      <c r="I29" s="103"/>
-      <c r="J29" s="94"/>
-    </row>
-    <row r="30" spans="1:14" s="4" customFormat="1" ht="12.75">
-      <c r="A30" s="123" t="s">
-        <v>68</v>
-      </c>
-      <c r="B30" s="124"/>
-      <c r="C30" s="124"/>
-      <c r="D30" s="124"/>
-      <c r="E30" s="124"/>
-      <c r="F30" s="124"/>
-      <c r="G30" s="124"/>
-      <c r="H30" s="124"/>
-      <c r="I30" s="124"/>
-      <c r="J30" s="125"/>
-    </row>
-    <row r="31" spans="1:14" s="4" customFormat="1" ht="12.75" outlineLevel="1">
-      <c r="A31" s="123" t="s">
-        <v>139</v>
-      </c>
-      <c r="B31" s="124"/>
-      <c r="C31" s="124"/>
-      <c r="D31" s="124"/>
-      <c r="E31" s="124"/>
-      <c r="F31" s="124"/>
-      <c r="G31" s="124"/>
-      <c r="H31" s="124"/>
-      <c r="I31" s="124"/>
-      <c r="J31" s="125"/>
-    </row>
-    <row r="32" spans="1:14" s="93" customFormat="1" ht="70.5" customHeight="1" outlineLevel="1">
-      <c r="A32" s="88" t="s">
-        <v>81</v>
-      </c>
-      <c r="B32" s="98" t="s">
-        <v>83</v>
-      </c>
-      <c r="C32" s="92" t="s">
-        <v>173</v>
-      </c>
-      <c r="D32" s="126" t="s">
-        <v>69</v>
-      </c>
-      <c r="E32" s="127"/>
-      <c r="F32" s="127"/>
-      <c r="H32" s="101"/>
-      <c r="I32" s="103" t="s">
-        <v>57</v>
-      </c>
-      <c r="J32" s="94"/>
-    </row>
-    <row r="33" spans="1:10" s="93" customFormat="1" ht="87.75" customHeight="1" outlineLevel="1">
-      <c r="A33" s="88" t="s">
-        <v>82</v>
-      </c>
-      <c r="B33" s="98" t="s">
-        <v>84</v>
-      </c>
-      <c r="C33" s="92" t="s">
-        <v>173</v>
-      </c>
-      <c r="D33" s="126" t="s">
-        <v>70</v>
-      </c>
-      <c r="E33" s="127"/>
-      <c r="F33" s="127"/>
-      <c r="H33" s="101"/>
-      <c r="I33" s="103" t="s">
-        <v>57</v>
-      </c>
-      <c r="J33" s="94"/>
-    </row>
-    <row r="34" spans="1:10" s="93" customFormat="1" ht="87.75" customHeight="1" outlineLevel="1">
+        <v>0</v>
+      </c>
+      <c r="B29" s="87" t="s">
+        <v>109</v>
+      </c>
+      <c r="C29" s="87" t="s">
+        <v>113</v>
+      </c>
+      <c r="D29" s="129" t="s">
+        <v>110</v>
+      </c>
+      <c r="E29" s="168"/>
+      <c r="F29" s="169"/>
+      <c r="G29" s="121"/>
+      <c r="H29" s="87"/>
+      <c r="I29" s="87" t="s">
+        <v>47</v>
+      </c>
+      <c r="J29" s="85"/>
+    </row>
+    <row r="30" spans="1:10" s="4" customFormat="1" ht="63.75" customHeight="1" outlineLevel="1">
+      <c r="A30" s="88" t="s">
+        <v>1</v>
+      </c>
+      <c r="B30" s="87" t="s">
+        <v>112</v>
+      </c>
+      <c r="C30" s="87" t="s">
+        <v>121</v>
+      </c>
+      <c r="D30" s="129" t="s">
+        <v>122</v>
+      </c>
+      <c r="E30" s="159"/>
+      <c r="F30" s="170"/>
+      <c r="G30" s="121"/>
+      <c r="H30" s="87"/>
+      <c r="I30" s="87" t="s">
+        <v>11</v>
+      </c>
+      <c r="J30" s="85"/>
+    </row>
+    <row r="31" spans="1:10" s="4" customFormat="1" ht="63.75" customHeight="1" outlineLevel="1">
+      <c r="A31" s="88" t="s">
+        <v>2</v>
+      </c>
+      <c r="B31" s="87" t="s">
+        <v>111</v>
+      </c>
+      <c r="C31" s="87" t="s">
+        <v>124</v>
+      </c>
+      <c r="D31" s="127" t="s">
+        <v>125</v>
+      </c>
+      <c r="E31" s="168"/>
+      <c r="F31" s="169"/>
+      <c r="G31" s="121"/>
+      <c r="H31" s="87"/>
+      <c r="I31" s="87" t="s">
+        <v>47</v>
+      </c>
+      <c r="J31" s="85"/>
+    </row>
+    <row r="32" spans="1:10" s="4" customFormat="1" ht="63.75" customHeight="1" outlineLevel="1">
+      <c r="A32" s="123" t="s">
+        <v>59</v>
+      </c>
+      <c r="B32" s="87" t="s">
+        <v>134</v>
+      </c>
+      <c r="C32" s="87" t="s">
+        <v>135</v>
+      </c>
+      <c r="D32" s="127" t="s">
+        <v>136</v>
+      </c>
+      <c r="E32" s="128"/>
+      <c r="F32" s="128"/>
+      <c r="G32" s="122"/>
+      <c r="H32" s="87"/>
+      <c r="I32" s="87" t="s">
+        <v>47</v>
+      </c>
+      <c r="J32" s="124"/>
+    </row>
+    <row r="33" spans="1:14" s="4" customFormat="1" ht="13.8" customHeight="1" outlineLevel="1">
+      <c r="A33" s="157" t="s">
+        <v>123</v>
+      </c>
+      <c r="B33" s="158"/>
+      <c r="C33" s="158"/>
+      <c r="D33" s="106"/>
+      <c r="E33" s="106"/>
+      <c r="F33" s="106"/>
+      <c r="G33" s="106"/>
+      <c r="H33" s="106"/>
+      <c r="I33" s="106"/>
+      <c r="J33" s="107"/>
+    </row>
+    <row r="34" spans="1:14" s="4" customFormat="1" ht="63.75" customHeight="1" outlineLevel="1">
       <c r="A34" s="88" t="s">
-        <v>0</v>
-      </c>
-      <c r="B34" s="98" t="s">
-        <v>85</v>
-      </c>
-      <c r="C34" s="92" t="s">
-        <v>173</v>
-      </c>
-      <c r="D34" s="126" t="s">
-        <v>71</v>
-      </c>
-      <c r="E34" s="127"/>
-      <c r="F34" s="127"/>
-      <c r="H34" s="101"/>
-      <c r="I34" s="103" t="s">
-        <v>57</v>
-      </c>
-      <c r="J34" s="94"/>
-    </row>
-    <row r="35" spans="1:10" s="93" customFormat="1" ht="59.25" customHeight="1" outlineLevel="1">
+        <v>60</v>
+      </c>
+      <c r="B34" s="105" t="s">
+        <v>126</v>
+      </c>
+      <c r="C34" s="105" t="s">
+        <v>127</v>
+      </c>
+      <c r="D34" s="129" t="s">
+        <v>128</v>
+      </c>
+      <c r="E34" s="128"/>
+      <c r="F34" s="128"/>
+      <c r="G34" s="86"/>
+      <c r="H34" s="100"/>
+      <c r="I34" s="87" t="s">
+        <v>47</v>
+      </c>
+      <c r="J34" s="85"/>
+    </row>
+    <row r="35" spans="1:14" s="4" customFormat="1" ht="63.75" customHeight="1" outlineLevel="1">
       <c r="A35" s="88" t="s">
-        <v>7</v>
-      </c>
-      <c r="B35" s="98" t="s">
-        <v>86</v>
-      </c>
-      <c r="C35" s="92" t="s">
-        <v>173</v>
-      </c>
-      <c r="D35" s="126" t="s">
-        <v>72</v>
-      </c>
-      <c r="E35" s="127"/>
-      <c r="F35" s="127"/>
-      <c r="H35" s="101"/>
-      <c r="I35" s="103" t="s">
-        <v>57</v>
-      </c>
-      <c r="J35" s="94"/>
-    </row>
-    <row r="36" spans="1:10" s="93" customFormat="1" ht="56.25" customHeight="1" outlineLevel="1">
-      <c r="A36" s="88" t="s">
-        <v>8</v>
-      </c>
-      <c r="B36" s="98" t="s">
-        <v>87</v>
-      </c>
-      <c r="C36" s="92" t="s">
-        <v>173</v>
-      </c>
-      <c r="D36" s="126" t="s">
-        <v>73</v>
-      </c>
-      <c r="E36" s="127"/>
-      <c r="F36" s="127"/>
-      <c r="H36" s="101"/>
-      <c r="I36" s="103" t="s">
-        <v>57</v>
-      </c>
-      <c r="J36" s="94"/>
-    </row>
-    <row r="37" spans="1:10" s="93" customFormat="1" ht="87.75" customHeight="1" outlineLevel="1">
-      <c r="A37" s="88" t="s">
-        <v>93</v>
-      </c>
-      <c r="B37" s="98" t="s">
-        <v>89</v>
-      </c>
-      <c r="C37" s="92" t="s">
-        <v>173</v>
-      </c>
-      <c r="D37" s="126" t="s">
-        <v>75</v>
-      </c>
-      <c r="E37" s="127"/>
-      <c r="F37" s="127"/>
-      <c r="H37" s="101"/>
-      <c r="I37" s="103" t="s">
-        <v>57</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="B35" s="105" t="s">
+        <v>129</v>
+      </c>
+      <c r="C35" s="105" t="s">
+        <v>130</v>
+      </c>
+      <c r="D35" s="129" t="s">
+        <v>131</v>
+      </c>
+      <c r="E35" s="128"/>
+      <c r="F35" s="128"/>
+      <c r="G35" s="86"/>
+      <c r="H35" s="112"/>
+      <c r="I35" s="87" t="s">
+        <v>47</v>
+      </c>
+      <c r="J35" s="85"/>
+    </row>
+    <row r="36" spans="1:14" s="4" customFormat="1" ht="13.2" customHeight="1">
+      <c r="A36" s="136" t="s">
+        <v>132</v>
+      </c>
+      <c r="B36" s="137"/>
+      <c r="C36" s="137"/>
+      <c r="D36" s="137"/>
+      <c r="E36" s="137"/>
+      <c r="F36" s="137"/>
+      <c r="G36" s="137"/>
+      <c r="H36" s="137"/>
+      <c r="I36" s="137"/>
+      <c r="J36" s="138"/>
+    </row>
+    <row r="37" spans="1:14" s="93" customFormat="1" ht="228.75" customHeight="1" outlineLevel="1">
+      <c r="A37" s="88"/>
+      <c r="B37" s="98"/>
+      <c r="C37" s="92"/>
+      <c r="D37" s="127"/>
+      <c r="E37" s="128"/>
+      <c r="F37" s="128"/>
+      <c r="I37" s="113"/>
       <c r="J37" s="94"/>
     </row>
-    <row r="38" spans="1:10" s="93" customFormat="1" ht="62.25" customHeight="1" outlineLevel="1">
-      <c r="A38" s="88" t="s">
-        <v>94</v>
-      </c>
-      <c r="B38" s="98" t="s">
-        <v>88</v>
-      </c>
-      <c r="C38" s="92" t="s">
-        <v>173</v>
-      </c>
-      <c r="D38" s="126" t="s">
-        <v>74</v>
-      </c>
-      <c r="E38" s="127"/>
-      <c r="F38" s="127"/>
-      <c r="H38" s="101"/>
-      <c r="I38" s="103" t="s">
-        <v>57</v>
-      </c>
+    <row r="38" spans="1:14" s="93" customFormat="1" ht="207.75" customHeight="1" outlineLevel="1">
+      <c r="A38" s="88"/>
+      <c r="B38" s="98"/>
+      <c r="C38" s="92"/>
+      <c r="D38" s="127"/>
+      <c r="E38" s="128"/>
+      <c r="F38" s="128"/>
+      <c r="H38" s="111"/>
+      <c r="I38" s="113"/>
       <c r="J38" s="94"/>
     </row>
-    <row r="39" spans="1:10" s="4" customFormat="1" ht="12.75" outlineLevel="1">
-      <c r="A39" s="123" t="s">
-        <v>130</v>
-      </c>
-      <c r="B39" s="124"/>
-      <c r="C39" s="124"/>
-      <c r="D39" s="124"/>
-      <c r="E39" s="124"/>
-      <c r="F39" s="124"/>
-      <c r="G39" s="124"/>
-      <c r="H39" s="124"/>
-      <c r="I39" s="124"/>
-      <c r="J39" s="125"/>
-    </row>
-    <row r="40" spans="1:10" s="93" customFormat="1" ht="87.75" customHeight="1" outlineLevel="1">
-      <c r="A40" s="88" t="s">
-        <v>95</v>
-      </c>
-      <c r="B40" s="98" t="s">
-        <v>105</v>
-      </c>
-      <c r="C40" s="92" t="s">
-        <v>174</v>
-      </c>
-      <c r="D40" s="126" t="s">
-        <v>106</v>
-      </c>
-      <c r="E40" s="127"/>
-      <c r="F40" s="127"/>
+    <row r="39" spans="1:14" s="93" customFormat="1" ht="255" customHeight="1" outlineLevel="1">
+      <c r="A39" s="88"/>
+      <c r="B39" s="98"/>
+      <c r="C39" s="92"/>
+      <c r="D39" s="127"/>
+      <c r="E39" s="128"/>
+      <c r="F39" s="128"/>
+      <c r="H39" s="111"/>
+      <c r="I39" s="109"/>
+      <c r="J39" s="110"/>
+      <c r="K39" s="108"/>
+      <c r="L39" s="108"/>
+      <c r="M39" s="108"/>
+      <c r="N39" s="108"/>
+    </row>
+    <row r="40" spans="1:14" s="93" customFormat="1" ht="276.75" customHeight="1" outlineLevel="1">
+      <c r="A40" s="88"/>
+      <c r="B40" s="98"/>
+      <c r="C40" s="92"/>
+      <c r="D40" s="127"/>
+      <c r="E40" s="128"/>
+      <c r="F40" s="128"/>
       <c r="H40" s="101"/>
-      <c r="I40" s="103" t="s">
-        <v>57</v>
-      </c>
+      <c r="I40" s="103"/>
       <c r="J40" s="94"/>
     </row>
-    <row r="41" spans="1:10" s="4" customFormat="1" ht="12.75">
-      <c r="A41" s="123" t="s">
-        <v>131</v>
-      </c>
-      <c r="B41" s="124"/>
-      <c r="C41" s="124"/>
-      <c r="D41" s="124"/>
-      <c r="E41" s="124"/>
-      <c r="F41" s="124"/>
-      <c r="G41" s="124"/>
-      <c r="H41" s="124"/>
-      <c r="I41" s="124"/>
-      <c r="J41" s="125"/>
-    </row>
-    <row r="42" spans="1:10" s="93" customFormat="1" ht="101.25" customHeight="1" outlineLevel="1">
-      <c r="A42" s="88" t="s">
-        <v>96</v>
-      </c>
-      <c r="B42" s="98" t="s">
-        <v>112</v>
-      </c>
-      <c r="C42" s="92" t="s">
-        <v>175</v>
-      </c>
-      <c r="D42" s="126" t="s">
-        <v>110</v>
-      </c>
-      <c r="E42" s="127"/>
-      <c r="F42" s="127"/>
-      <c r="H42" s="101" t="s">
-        <v>140</v>
-      </c>
-      <c r="I42" s="116" t="s">
-        <v>21</v>
-      </c>
-      <c r="J42" s="94" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" s="93" customFormat="1" ht="96" customHeight="1" outlineLevel="1">
-      <c r="A43" s="88" t="s">
-        <v>119</v>
-      </c>
-      <c r="B43" s="98" t="s">
-        <v>113</v>
-      </c>
-      <c r="C43" s="92" t="s">
-        <v>176</v>
-      </c>
-      <c r="D43" s="126" t="s">
-        <v>111</v>
-      </c>
-      <c r="E43" s="127"/>
-      <c r="F43" s="127"/>
-      <c r="H43" s="101" t="s">
-        <v>140</v>
-      </c>
-      <c r="I43" s="103" t="s">
-        <v>57</v>
-      </c>
-      <c r="J43" s="94" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" s="93" customFormat="1" ht="96" customHeight="1" outlineLevel="1">
-      <c r="A44" s="88" t="s">
-        <v>120</v>
-      </c>
-      <c r="B44" s="98" t="s">
-        <v>150</v>
-      </c>
-      <c r="C44" s="92" t="s">
-        <v>177</v>
-      </c>
-      <c r="D44" s="126" t="s">
-        <v>151</v>
-      </c>
-      <c r="E44" s="127"/>
-      <c r="F44" s="127"/>
-      <c r="H44" s="101" t="s">
-        <v>140</v>
-      </c>
-      <c r="I44" s="103" t="s">
-        <v>57</v>
-      </c>
-      <c r="J44" s="94" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" s="4" customFormat="1" ht="12.75">
-      <c r="A45" s="123" t="s">
-        <v>132</v>
-      </c>
-      <c r="B45" s="124"/>
-      <c r="C45" s="124"/>
-      <c r="D45" s="124"/>
-      <c r="E45" s="124"/>
-      <c r="F45" s="124"/>
-      <c r="G45" s="124"/>
-      <c r="H45" s="124"/>
-      <c r="I45" s="124"/>
-      <c r="J45" s="125"/>
-    </row>
-    <row r="46" spans="1:10" s="93" customFormat="1" ht="27.75" customHeight="1" outlineLevel="1">
-      <c r="A46" s="129" t="s">
-        <v>1</v>
-      </c>
-      <c r="B46" s="130"/>
-      <c r="C46" s="131"/>
-      <c r="D46" s="126"/>
-      <c r="E46" s="127"/>
-      <c r="F46" s="127"/>
+    <row r="41" spans="1:14" s="4" customFormat="1" ht="13.2" customHeight="1">
+      <c r="A41" s="136"/>
+      <c r="B41" s="137"/>
+      <c r="C41" s="137"/>
+      <c r="D41" s="137"/>
+      <c r="E41" s="137"/>
+      <c r="F41" s="137"/>
+      <c r="G41" s="137"/>
+      <c r="H41" s="137"/>
+      <c r="I41" s="137"/>
+      <c r="J41" s="138"/>
+    </row>
+    <row r="42" spans="1:14" s="4" customFormat="1" ht="13.2" customHeight="1" outlineLevel="1">
+      <c r="A42" s="136"/>
+      <c r="B42" s="137"/>
+      <c r="C42" s="137"/>
+      <c r="D42" s="137"/>
+      <c r="E42" s="137"/>
+      <c r="F42" s="137"/>
+      <c r="G42" s="137"/>
+      <c r="H42" s="137"/>
+      <c r="I42" s="137"/>
+      <c r="J42" s="138"/>
+    </row>
+    <row r="43" spans="1:14" s="93" customFormat="1" ht="70.5" customHeight="1" outlineLevel="1">
+      <c r="A43" s="88"/>
+      <c r="B43" s="98"/>
+      <c r="C43" s="92"/>
+      <c r="D43" s="127"/>
+      <c r="E43" s="128"/>
+      <c r="F43" s="128"/>
+      <c r="H43" s="101"/>
+      <c r="I43" s="103"/>
+      <c r="J43" s="94"/>
+    </row>
+    <row r="44" spans="1:14" s="93" customFormat="1" ht="87.75" customHeight="1" outlineLevel="1">
+      <c r="A44" s="88"/>
+      <c r="B44" s="98"/>
+      <c r="C44" s="92"/>
+      <c r="D44" s="127"/>
+      <c r="E44" s="128"/>
+      <c r="F44" s="128"/>
+      <c r="H44" s="101"/>
+      <c r="I44" s="103"/>
+      <c r="J44" s="94"/>
+    </row>
+    <row r="45" spans="1:14" s="93" customFormat="1" ht="87.75" customHeight="1" outlineLevel="1">
+      <c r="A45" s="88"/>
+      <c r="B45" s="98"/>
+      <c r="C45" s="92"/>
+      <c r="D45" s="127"/>
+      <c r="E45" s="128"/>
+      <c r="F45" s="128"/>
+      <c r="H45" s="101"/>
+      <c r="I45" s="103"/>
+      <c r="J45" s="94"/>
+    </row>
+    <row r="46" spans="1:14" s="93" customFormat="1" ht="59.25" customHeight="1" outlineLevel="1">
+      <c r="A46" s="88"/>
+      <c r="B46" s="98"/>
+      <c r="C46" s="92"/>
+      <c r="D46" s="127"/>
+      <c r="E46" s="128"/>
+      <c r="F46" s="128"/>
       <c r="H46" s="101"/>
       <c r="I46" s="103"/>
       <c r="J46" s="94"/>
     </row>
-    <row r="47" spans="1:10" s="93" customFormat="1" ht="27.75" customHeight="1" outlineLevel="1">
-      <c r="A47" s="88" t="s">
-        <v>121</v>
-      </c>
-      <c r="B47" s="98" t="s">
-        <v>3</v>
-      </c>
-      <c r="C47" s="92" t="s">
-        <v>2</v>
-      </c>
-      <c r="D47" s="126" t="s">
-        <v>6</v>
-      </c>
-      <c r="E47" s="127"/>
-      <c r="F47" s="127"/>
+    <row r="47" spans="1:14" s="93" customFormat="1" ht="56.25" customHeight="1" outlineLevel="1">
+      <c r="A47" s="88"/>
+      <c r="B47" s="98"/>
+      <c r="C47" s="92"/>
+      <c r="D47" s="127"/>
+      <c r="E47" s="128"/>
+      <c r="F47" s="128"/>
       <c r="H47" s="101"/>
-      <c r="I47" s="103" t="s">
-        <v>57</v>
-      </c>
+      <c r="I47" s="103"/>
       <c r="J47" s="94"/>
     </row>
-    <row r="48" spans="1:10" s="93" customFormat="1" ht="81" customHeight="1" outlineLevel="1">
-      <c r="A48" s="88" t="s">
-        <v>122</v>
-      </c>
-      <c r="B48" s="98" t="s">
-        <v>4</v>
-      </c>
-      <c r="C48" s="92" t="s">
-        <v>5</v>
-      </c>
-      <c r="D48" s="128" t="s">
-        <v>10</v>
-      </c>
-      <c r="E48" s="127"/>
-      <c r="F48" s="127"/>
+    <row r="48" spans="1:14" s="93" customFormat="1" ht="87.75" customHeight="1" outlineLevel="1">
+      <c r="A48" s="88"/>
+      <c r="B48" s="98"/>
+      <c r="C48" s="92"/>
+      <c r="D48" s="127"/>
+      <c r="E48" s="128"/>
+      <c r="F48" s="128"/>
       <c r="H48" s="101"/>
-      <c r="I48" s="103" t="s">
-        <v>57</v>
-      </c>
+      <c r="I48" s="103"/>
       <c r="J48" s="94"/>
     </row>
-    <row r="49" spans="1:10" s="4" customFormat="1" ht="12.75">
-      <c r="A49" s="123" t="s">
-        <v>133</v>
-      </c>
-      <c r="B49" s="124"/>
-      <c r="C49" s="124"/>
-      <c r="D49" s="124"/>
-      <c r="E49" s="124"/>
-      <c r="F49" s="124"/>
-      <c r="G49" s="124"/>
-      <c r="H49" s="124"/>
-      <c r="I49" s="124"/>
-      <c r="J49" s="125"/>
-    </row>
-    <row r="50" spans="1:10" s="4" customFormat="1" ht="12.75" outlineLevel="1">
-      <c r="A50" s="123" t="s">
-        <v>134</v>
-      </c>
-      <c r="B50" s="124"/>
-      <c r="C50" s="124"/>
-      <c r="D50" s="124"/>
-      <c r="E50" s="124"/>
-      <c r="F50" s="124"/>
-      <c r="G50" s="124"/>
-      <c r="H50" s="124"/>
-      <c r="I50" s="124"/>
-      <c r="J50" s="125"/>
+    <row r="49" spans="1:10" s="93" customFormat="1" ht="62.25" customHeight="1" outlineLevel="1">
+      <c r="A49" s="88"/>
+      <c r="B49" s="98"/>
+      <c r="C49" s="92"/>
+      <c r="D49" s="127"/>
+      <c r="E49" s="128"/>
+      <c r="F49" s="128"/>
+      <c r="H49" s="101"/>
+      <c r="I49" s="103"/>
+      <c r="J49" s="94"/>
+    </row>
+    <row r="50" spans="1:10" s="4" customFormat="1" ht="13.2" customHeight="1" outlineLevel="1">
+      <c r="A50" s="136"/>
+      <c r="B50" s="137"/>
+      <c r="C50" s="137"/>
+      <c r="D50" s="137"/>
+      <c r="E50" s="137"/>
+      <c r="F50" s="137"/>
+      <c r="G50" s="137"/>
+      <c r="H50" s="137"/>
+      <c r="I50" s="137"/>
+      <c r="J50" s="138"/>
     </row>
     <row r="51" spans="1:10" s="93" customFormat="1" ht="87.75" customHeight="1" outlineLevel="1">
-      <c r="A51" s="88" t="s">
-        <v>123</v>
-      </c>
-      <c r="B51" s="98" t="s">
-        <v>107</v>
-      </c>
-      <c r="C51" s="92" t="s">
-        <v>178</v>
-      </c>
-      <c r="D51" s="126" t="s">
-        <v>108</v>
-      </c>
-      <c r="E51" s="127"/>
-      <c r="F51" s="127"/>
+      <c r="A51" s="88"/>
+      <c r="B51" s="98"/>
+      <c r="C51" s="92"/>
+      <c r="D51" s="127"/>
+      <c r="E51" s="128"/>
+      <c r="F51" s="128"/>
       <c r="H51" s="101"/>
-      <c r="I51" s="103" t="s">
-        <v>57</v>
-      </c>
+      <c r="I51" s="103"/>
       <c r="J51" s="94"/>
     </row>
-    <row r="52" spans="1:10" s="93" customFormat="1" ht="87.75" customHeight="1" outlineLevel="1">
-      <c r="A52" s="88" t="s">
-        <v>124</v>
-      </c>
-      <c r="B52" s="98" t="s">
-        <v>109</v>
-      </c>
-      <c r="C52" s="92" t="s">
-        <v>179</v>
-      </c>
-      <c r="D52" s="126" t="s">
-        <v>114</v>
-      </c>
-      <c r="E52" s="127"/>
-      <c r="F52" s="127"/>
-      <c r="H52" s="101"/>
-      <c r="I52" s="103" t="s">
-        <v>57</v>
-      </c>
-      <c r="J52" s="94"/>
-    </row>
-    <row r="53" spans="1:10" s="4" customFormat="1" ht="12.75" outlineLevel="1">
-      <c r="A53" s="123" t="s">
-        <v>135</v>
-      </c>
-      <c r="B53" s="124"/>
-      <c r="C53" s="124"/>
-      <c r="D53" s="124"/>
-      <c r="E53" s="124"/>
-      <c r="F53" s="124"/>
-      <c r="G53" s="124"/>
-      <c r="H53" s="124"/>
-      <c r="I53" s="124"/>
-      <c r="J53" s="125"/>
-    </row>
-    <row r="54" spans="1:10" s="93" customFormat="1" ht="87.75" customHeight="1" outlineLevel="1">
-      <c r="A54" s="88" t="s">
-        <v>125</v>
-      </c>
-      <c r="B54" s="98" t="s">
-        <v>107</v>
-      </c>
-      <c r="C54" s="92" t="s">
-        <v>180</v>
-      </c>
-      <c r="D54" s="126" t="s">
-        <v>115</v>
-      </c>
-      <c r="E54" s="127"/>
-      <c r="F54" s="127"/>
+    <row r="52" spans="1:10" s="4" customFormat="1" ht="13.2" customHeight="1">
+      <c r="A52" s="136"/>
+      <c r="B52" s="137"/>
+      <c r="C52" s="137"/>
+      <c r="D52" s="137"/>
+      <c r="E52" s="137"/>
+      <c r="F52" s="137"/>
+      <c r="G52" s="137"/>
+      <c r="H52" s="137"/>
+      <c r="I52" s="137"/>
+      <c r="J52" s="138"/>
+    </row>
+    <row r="53" spans="1:10" s="93" customFormat="1" ht="101.25" customHeight="1" outlineLevel="1">
+      <c r="A53" s="88"/>
+      <c r="B53" s="98"/>
+      <c r="C53" s="92"/>
+      <c r="D53" s="127"/>
+      <c r="E53" s="128"/>
+      <c r="F53" s="128"/>
+      <c r="H53" s="101"/>
+      <c r="I53" s="115"/>
+      <c r="J53" s="94"/>
+    </row>
+    <row r="54" spans="1:10" s="93" customFormat="1" ht="96" customHeight="1" outlineLevel="1">
+      <c r="A54" s="88"/>
+      <c r="B54" s="98"/>
+      <c r="C54" s="92"/>
+      <c r="D54" s="127"/>
+      <c r="E54" s="128"/>
+      <c r="F54" s="128"/>
       <c r="H54" s="101"/>
       <c r="I54" s="103"/>
       <c r="J54" s="94"/>
     </row>
-    <row r="55" spans="1:10" s="93" customFormat="1" ht="87.75" customHeight="1" outlineLevel="1">
-      <c r="A55" s="88" t="s">
-        <v>126</v>
-      </c>
-      <c r="B55" s="98" t="s">
-        <v>109</v>
-      </c>
-      <c r="C55" s="92" t="s">
-        <v>181</v>
-      </c>
-      <c r="D55" s="126" t="s">
-        <v>116</v>
-      </c>
-      <c r="E55" s="127"/>
-      <c r="F55" s="127"/>
+    <row r="55" spans="1:10" s="93" customFormat="1" ht="96" customHeight="1" outlineLevel="1">
+      <c r="A55" s="88"/>
+      <c r="B55" s="98"/>
+      <c r="C55" s="92"/>
+      <c r="D55" s="127"/>
+      <c r="E55" s="128"/>
+      <c r="F55" s="128"/>
       <c r="H55" s="101"/>
       <c r="I55" s="103"/>
       <c r="J55" s="94"/>
     </row>
-    <row r="56" spans="1:10" s="4" customFormat="1" ht="12.75" outlineLevel="1">
-      <c r="A56" s="123" t="s">
-        <v>136</v>
-      </c>
-      <c r="B56" s="124"/>
-      <c r="C56" s="124"/>
-      <c r="D56" s="124"/>
-      <c r="E56" s="124"/>
-      <c r="F56" s="124"/>
-      <c r="G56" s="124"/>
-      <c r="H56" s="124"/>
-      <c r="I56" s="124"/>
-      <c r="J56" s="125"/>
-    </row>
-    <row r="57" spans="1:10" s="93" customFormat="1" ht="87.75" customHeight="1" outlineLevel="1">
-      <c r="A57" s="88" t="s">
-        <v>127</v>
-      </c>
-      <c r="B57" s="98" t="s">
-        <v>107</v>
-      </c>
-      <c r="C57" s="92" t="s">
-        <v>182</v>
-      </c>
-      <c r="D57" s="126" t="s">
-        <v>141</v>
-      </c>
-      <c r="E57" s="127"/>
-      <c r="F57" s="127"/>
+    <row r="56" spans="1:10" s="4" customFormat="1" ht="13.2" customHeight="1">
+      <c r="A56" s="136"/>
+      <c r="B56" s="137"/>
+      <c r="C56" s="137"/>
+      <c r="D56" s="137"/>
+      <c r="E56" s="137"/>
+      <c r="F56" s="137"/>
+      <c r="G56" s="137"/>
+      <c r="H56" s="137"/>
+      <c r="I56" s="137"/>
+      <c r="J56" s="138"/>
+    </row>
+    <row r="57" spans="1:10" s="93" customFormat="1" ht="27.75" customHeight="1" outlineLevel="1">
+      <c r="A57" s="165"/>
+      <c r="B57" s="166"/>
+      <c r="C57" s="167"/>
+      <c r="D57" s="127"/>
+      <c r="E57" s="128"/>
+      <c r="F57" s="128"/>
       <c r="H57" s="101"/>
-      <c r="I57" s="103" t="s">
-        <v>57</v>
-      </c>
+      <c r="I57" s="103"/>
       <c r="J57" s="94"/>
     </row>
-    <row r="58" spans="1:10" s="93" customFormat="1" ht="87.75" customHeight="1" outlineLevel="1">
-      <c r="A58" s="88" t="s">
-        <v>128</v>
-      </c>
-      <c r="B58" s="98" t="s">
-        <v>109</v>
-      </c>
-      <c r="C58" s="92" t="s">
-        <v>183</v>
-      </c>
-      <c r="D58" s="126" t="s">
-        <v>114</v>
-      </c>
-      <c r="E58" s="127"/>
-      <c r="F58" s="127"/>
+    <row r="58" spans="1:10" s="93" customFormat="1" ht="27.75" customHeight="1" outlineLevel="1">
+      <c r="A58" s="88"/>
+      <c r="B58" s="98"/>
+      <c r="C58" s="92"/>
+      <c r="D58" s="127"/>
+      <c r="E58" s="128"/>
+      <c r="F58" s="128"/>
       <c r="H58" s="101"/>
-      <c r="I58" s="103" t="s">
-        <v>57</v>
-      </c>
+      <c r="I58" s="103"/>
       <c r="J58" s="94"/>
     </row>
-    <row r="59" spans="1:10" s="4" customFormat="1" ht="12.75" outlineLevel="1">
-      <c r="A59" s="123" t="s">
-        <v>137</v>
-      </c>
-      <c r="B59" s="124"/>
-      <c r="C59" s="124"/>
-      <c r="D59" s="124"/>
-      <c r="E59" s="124"/>
-      <c r="F59" s="124"/>
-      <c r="G59" s="124"/>
-      <c r="H59" s="124"/>
-      <c r="I59" s="124"/>
-      <c r="J59" s="125"/>
-    </row>
-    <row r="60" spans="1:10" s="93" customFormat="1" ht="87.75" customHeight="1" outlineLevel="1">
-      <c r="A60" s="88" t="s">
-        <v>129</v>
-      </c>
-      <c r="B60" s="98" t="s">
-        <v>107</v>
-      </c>
-      <c r="C60" s="92" t="s">
-        <v>184</v>
-      </c>
-      <c r="D60" s="126" t="s">
-        <v>117</v>
-      </c>
-      <c r="E60" s="127"/>
-      <c r="F60" s="127"/>
-      <c r="H60" s="101"/>
-      <c r="I60" s="103" t="s">
-        <v>57</v>
-      </c>
-      <c r="J60" s="94"/>
-    </row>
-    <row r="61" spans="1:10" s="93" customFormat="1" ht="87.75" customHeight="1" outlineLevel="1">
-      <c r="A61" s="88" t="s">
-        <v>148</v>
-      </c>
-      <c r="B61" s="98" t="s">
-        <v>109</v>
-      </c>
-      <c r="C61" s="92" t="s">
-        <v>185</v>
-      </c>
-      <c r="D61" s="126" t="s">
-        <v>118</v>
-      </c>
-      <c r="E61" s="127"/>
-      <c r="F61" s="127"/>
-      <c r="H61" s="101"/>
-      <c r="I61" s="103" t="s">
-        <v>57</v>
-      </c>
-      <c r="J61" s="94"/>
-    </row>
-    <row r="62" spans="1:10" s="4" customFormat="1" ht="12.75">
-      <c r="A62" s="123" t="s">
-        <v>154</v>
-      </c>
-      <c r="B62" s="124"/>
-      <c r="C62" s="124"/>
-      <c r="D62" s="124"/>
-      <c r="E62" s="124"/>
-      <c r="F62" s="124"/>
-      <c r="G62" s="124"/>
-      <c r="H62" s="124"/>
-      <c r="I62" s="124"/>
-      <c r="J62" s="125"/>
+    <row r="59" spans="1:10" s="93" customFormat="1" ht="81" customHeight="1" outlineLevel="1">
+      <c r="A59" s="88"/>
+      <c r="B59" s="98"/>
+      <c r="C59" s="92"/>
+      <c r="D59" s="164"/>
+      <c r="E59" s="128"/>
+      <c r="F59" s="128"/>
+      <c r="H59" s="101"/>
+      <c r="I59" s="103"/>
+      <c r="J59" s="94"/>
+    </row>
+    <row r="60" spans="1:10" s="4" customFormat="1" ht="13.2" customHeight="1">
+      <c r="A60" s="136"/>
+      <c r="B60" s="137"/>
+      <c r="C60" s="137"/>
+      <c r="D60" s="137"/>
+      <c r="E60" s="137"/>
+      <c r="F60" s="137"/>
+      <c r="G60" s="137"/>
+      <c r="H60" s="137"/>
+      <c r="I60" s="137"/>
+      <c r="J60" s="138"/>
+    </row>
+    <row r="61" spans="1:10" s="4" customFormat="1" ht="13.2" customHeight="1" outlineLevel="1">
+      <c r="A61" s="136"/>
+      <c r="B61" s="137"/>
+      <c r="C61" s="137"/>
+      <c r="D61" s="137"/>
+      <c r="E61" s="137"/>
+      <c r="F61" s="137"/>
+      <c r="G61" s="137"/>
+      <c r="H61" s="137"/>
+      <c r="I61" s="137"/>
+      <c r="J61" s="138"/>
+    </row>
+    <row r="62" spans="1:10" s="93" customFormat="1" ht="87.75" customHeight="1" outlineLevel="1">
+      <c r="A62" s="88"/>
+      <c r="B62" s="98"/>
+      <c r="C62" s="92"/>
+      <c r="D62" s="127"/>
+      <c r="E62" s="128"/>
+      <c r="F62" s="128"/>
+      <c r="H62" s="101"/>
+      <c r="I62" s="103"/>
+      <c r="J62" s="94"/>
     </row>
     <row r="63" spans="1:10" s="93" customFormat="1" ht="87.75" customHeight="1" outlineLevel="1">
-      <c r="A63" s="88" t="s">
-        <v>149</v>
-      </c>
-      <c r="B63" s="98" t="s">
-        <v>144</v>
-      </c>
-      <c r="C63" s="92" t="s">
-        <v>186</v>
-      </c>
-      <c r="D63" s="126" t="s">
-        <v>146</v>
-      </c>
-      <c r="E63" s="127"/>
-      <c r="F63" s="127"/>
+      <c r="A63" s="88"/>
+      <c r="B63" s="98"/>
+      <c r="C63" s="92"/>
+      <c r="D63" s="127"/>
+      <c r="E63" s="128"/>
+      <c r="F63" s="128"/>
       <c r="H63" s="101"/>
-      <c r="I63" s="103" t="s">
-        <v>57</v>
-      </c>
+      <c r="I63" s="103"/>
       <c r="J63" s="94"/>
     </row>
-    <row r="64" spans="1:10" s="93" customFormat="1" ht="87.75" customHeight="1" outlineLevel="1">
-      <c r="A64" s="88" t="s">
-        <v>152</v>
-      </c>
-      <c r="B64" s="98" t="s">
-        <v>145</v>
-      </c>
-      <c r="C64" s="92" t="s">
-        <v>187</v>
-      </c>
-      <c r="D64" s="126" t="s">
-        <v>147</v>
-      </c>
-      <c r="E64" s="127"/>
-      <c r="F64" s="127"/>
-      <c r="H64" s="101"/>
-      <c r="I64" s="103" t="s">
-        <v>57</v>
-      </c>
-      <c r="J64" s="94"/>
-    </row>
-    <row r="65" ht="12" customHeight="1"/>
-    <row r="66" ht="12" customHeight="1"/>
-    <row r="67" ht="12" customHeight="1"/>
-    <row r="68" ht="12" customHeight="1"/>
-    <row r="69" ht="12" customHeight="1"/>
-    <row r="70" ht="12" customHeight="1"/>
-    <row r="71" ht="12" customHeight="1"/>
-    <row r="72" ht="12" customHeight="1"/>
-    <row r="73" ht="12" customHeight="1"/>
-    <row r="74" ht="12" customHeight="1"/>
-    <row r="75" ht="12" customHeight="1"/>
-    <row r="76" ht="12" customHeight="1"/>
-    <row r="77" ht="12" customHeight="1"/>
-    <row r="78" ht="12" customHeight="1"/>
-    <row r="79" ht="12" customHeight="1"/>
-    <row r="80" ht="12" customHeight="1"/>
+    <row r="64" spans="1:10" s="4" customFormat="1" ht="13.2" customHeight="1" outlineLevel="1">
+      <c r="A64" s="136"/>
+      <c r="B64" s="137"/>
+      <c r="C64" s="137"/>
+      <c r="D64" s="137"/>
+      <c r="E64" s="137"/>
+      <c r="F64" s="137"/>
+      <c r="G64" s="137"/>
+      <c r="H64" s="137"/>
+      <c r="I64" s="137"/>
+      <c r="J64" s="138"/>
+    </row>
+    <row r="65" spans="1:10" s="93" customFormat="1" ht="87.75" customHeight="1" outlineLevel="1">
+      <c r="A65" s="88"/>
+      <c r="B65" s="98"/>
+      <c r="C65" s="92"/>
+      <c r="D65" s="127"/>
+      <c r="E65" s="128"/>
+      <c r="F65" s="128"/>
+      <c r="H65" s="101"/>
+      <c r="I65" s="103"/>
+      <c r="J65" s="94"/>
+    </row>
+    <row r="66" spans="1:10" s="93" customFormat="1" ht="87.75" customHeight="1" outlineLevel="1">
+      <c r="A66" s="88"/>
+      <c r="B66" s="98"/>
+      <c r="C66" s="92"/>
+      <c r="D66" s="127"/>
+      <c r="E66" s="128"/>
+      <c r="F66" s="128"/>
+      <c r="H66" s="101"/>
+      <c r="I66" s="103"/>
+      <c r="J66" s="94"/>
+    </row>
+    <row r="67" spans="1:10" s="4" customFormat="1" ht="13.2" customHeight="1" outlineLevel="1">
+      <c r="A67" s="136"/>
+      <c r="B67" s="137"/>
+      <c r="C67" s="137"/>
+      <c r="D67" s="137"/>
+      <c r="E67" s="137"/>
+      <c r="F67" s="137"/>
+      <c r="G67" s="137"/>
+      <c r="H67" s="137"/>
+      <c r="I67" s="137"/>
+      <c r="J67" s="138"/>
+    </row>
+    <row r="68" spans="1:10" s="93" customFormat="1" ht="87.75" customHeight="1" outlineLevel="1">
+      <c r="A68" s="88"/>
+      <c r="B68" s="98"/>
+      <c r="C68" s="92"/>
+      <c r="D68" s="127"/>
+      <c r="E68" s="128"/>
+      <c r="F68" s="128"/>
+      <c r="H68" s="101"/>
+      <c r="I68" s="103"/>
+      <c r="J68" s="94"/>
+    </row>
+    <row r="69" spans="1:10" s="93" customFormat="1" ht="87.75" customHeight="1" outlineLevel="1">
+      <c r="A69" s="88"/>
+      <c r="B69" s="98"/>
+      <c r="C69" s="92"/>
+      <c r="D69" s="127"/>
+      <c r="E69" s="128"/>
+      <c r="F69" s="128"/>
+      <c r="H69" s="101"/>
+      <c r="I69" s="103"/>
+      <c r="J69" s="94"/>
+    </row>
+    <row r="70" spans="1:10" s="4" customFormat="1" ht="13.2" customHeight="1" outlineLevel="1">
+      <c r="A70" s="136"/>
+      <c r="B70" s="137"/>
+      <c r="C70" s="137"/>
+      <c r="D70" s="137"/>
+      <c r="E70" s="137"/>
+      <c r="F70" s="137"/>
+      <c r="G70" s="137"/>
+      <c r="H70" s="137"/>
+      <c r="I70" s="137"/>
+      <c r="J70" s="138"/>
+    </row>
+    <row r="71" spans="1:10" s="93" customFormat="1" ht="87.75" customHeight="1" outlineLevel="1">
+      <c r="A71" s="88"/>
+      <c r="B71" s="98"/>
+      <c r="C71" s="92"/>
+      <c r="D71" s="127"/>
+      <c r="E71" s="128"/>
+      <c r="F71" s="128"/>
+      <c r="H71" s="101"/>
+      <c r="I71" s="103"/>
+      <c r="J71" s="94"/>
+    </row>
+    <row r="72" spans="1:10" s="93" customFormat="1" ht="87.75" customHeight="1" outlineLevel="1">
+      <c r="A72" s="88"/>
+      <c r="B72" s="98"/>
+      <c r="C72" s="92"/>
+      <c r="D72" s="127"/>
+      <c r="E72" s="128"/>
+      <c r="F72" s="128"/>
+      <c r="H72" s="101"/>
+      <c r="I72" s="103"/>
+      <c r="J72" s="94"/>
+    </row>
+    <row r="73" spans="1:10" s="4" customFormat="1" ht="13.2" customHeight="1">
+      <c r="A73" s="136"/>
+      <c r="B73" s="137"/>
+      <c r="C73" s="137"/>
+      <c r="D73" s="137"/>
+      <c r="E73" s="137"/>
+      <c r="F73" s="137"/>
+      <c r="G73" s="137"/>
+      <c r="H73" s="137"/>
+      <c r="I73" s="137"/>
+      <c r="J73" s="138"/>
+    </row>
+    <row r="74" spans="1:10" s="93" customFormat="1" ht="87.75" customHeight="1" outlineLevel="1">
+      <c r="A74" s="88"/>
+      <c r="B74" s="98"/>
+      <c r="C74" s="92"/>
+      <c r="D74" s="127"/>
+      <c r="E74" s="128"/>
+      <c r="F74" s="128"/>
+      <c r="H74" s="101"/>
+      <c r="I74" s="103"/>
+      <c r="J74" s="94"/>
+    </row>
+    <row r="75" spans="1:10" s="93" customFormat="1" ht="87.75" customHeight="1" outlineLevel="1">
+      <c r="A75" s="88"/>
+      <c r="B75" s="98"/>
+      <c r="C75" s="92"/>
+      <c r="D75" s="127"/>
+      <c r="E75" s="128"/>
+      <c r="F75" s="128"/>
+      <c r="H75" s="101"/>
+      <c r="I75" s="103"/>
+      <c r="J75" s="94"/>
+    </row>
+    <row r="76" spans="1:10" ht="12" customHeight="1"/>
+    <row r="77" spans="1:10" ht="12" customHeight="1"/>
+    <row r="78" spans="1:10" ht="12" customHeight="1"/>
+    <row r="79" spans="1:10" ht="12" customHeight="1"/>
+    <row r="80" spans="1:10" ht="12" customHeight="1"/>
     <row r="81" ht="12" customHeight="1"/>
     <row r="82" ht="12" customHeight="1"/>
     <row r="83" ht="12" customHeight="1"/>
@@ -6498,25 +5760,75 @@
     <row r="100" ht="12" customHeight="1"/>
     <row r="101" ht="12" customHeight="1"/>
     <row r="102" ht="12" customHeight="1"/>
+    <row r="103" ht="12" customHeight="1"/>
+    <row r="104" ht="12" customHeight="1"/>
+    <row r="105" ht="12" customHeight="1"/>
+    <row r="106" ht="12" customHeight="1"/>
+    <row r="107" ht="12" customHeight="1"/>
+    <row r="108" ht="12" customHeight="1"/>
+    <row r="109" ht="12" customHeight="1"/>
+    <row r="110" ht="12" customHeight="1"/>
+    <row r="111" ht="12" customHeight="1"/>
+    <row r="112" ht="12" customHeight="1"/>
+    <row r="113" ht="12" customHeight="1"/>
   </sheetData>
-  <mergeCells count="72">
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="D35:F35"/>
+  <mergeCells count="83">
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="D25:F25"/>
     <mergeCell ref="D26:F26"/>
     <mergeCell ref="D29:F29"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="A30:J30"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="A60:J60"/>
+    <mergeCell ref="A42:J42"/>
+    <mergeCell ref="A41:J41"/>
+    <mergeCell ref="A36:J36"/>
+    <mergeCell ref="D49:F49"/>
+    <mergeCell ref="D48:F48"/>
+    <mergeCell ref="A56:J56"/>
+    <mergeCell ref="D51:F51"/>
+    <mergeCell ref="D58:F58"/>
+    <mergeCell ref="D59:F59"/>
+    <mergeCell ref="A57:C57"/>
+    <mergeCell ref="D57:F57"/>
+    <mergeCell ref="A50:J50"/>
+    <mergeCell ref="A52:J52"/>
+    <mergeCell ref="A73:J73"/>
+    <mergeCell ref="D74:F74"/>
+    <mergeCell ref="D75:F75"/>
+    <mergeCell ref="D54:F54"/>
+    <mergeCell ref="D69:F69"/>
+    <mergeCell ref="A70:J70"/>
+    <mergeCell ref="D71:F71"/>
+    <mergeCell ref="D72:F72"/>
+    <mergeCell ref="D65:F65"/>
+    <mergeCell ref="D66:F66"/>
+    <mergeCell ref="D68:F68"/>
+    <mergeCell ref="D62:F62"/>
+    <mergeCell ref="D63:F63"/>
+    <mergeCell ref="A61:J61"/>
+    <mergeCell ref="A64:J64"/>
+    <mergeCell ref="A67:J67"/>
+    <mergeCell ref="D53:F53"/>
+    <mergeCell ref="D55:F55"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:G10"/>
+    <mergeCell ref="A21:C21"/>
     <mergeCell ref="D22:F22"/>
+    <mergeCell ref="D13:F13"/>
     <mergeCell ref="D23:F23"/>
-    <mergeCell ref="A25:J25"/>
-    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="A33:C33"/>
     <mergeCell ref="B1:D2"/>
     <mergeCell ref="A8:D8"/>
     <mergeCell ref="B5:D5"/>
@@ -6532,46 +5844,18 @@
     <mergeCell ref="H9:H10"/>
     <mergeCell ref="A11:J11"/>
     <mergeCell ref="I9:I10"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:G10"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="D43:F43"/>
+    <mergeCell ref="D44:F44"/>
+    <mergeCell ref="D45:F45"/>
+    <mergeCell ref="D47:F47"/>
+    <mergeCell ref="D46:F46"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="D40:F40"/>
+    <mergeCell ref="D39:F39"/>
     <mergeCell ref="D38:F38"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="A45:J45"/>
-    <mergeCell ref="D40:F40"/>
-    <mergeCell ref="A56:J56"/>
-    <mergeCell ref="A49:J49"/>
-    <mergeCell ref="D47:F47"/>
-    <mergeCell ref="D48:F48"/>
-    <mergeCell ref="A46:C46"/>
-    <mergeCell ref="D46:F46"/>
-    <mergeCell ref="A39:J39"/>
-    <mergeCell ref="A41:J41"/>
-    <mergeCell ref="D42:F42"/>
-    <mergeCell ref="D44:F44"/>
-    <mergeCell ref="A62:J62"/>
-    <mergeCell ref="D63:F63"/>
-    <mergeCell ref="D64:F64"/>
-    <mergeCell ref="D43:F43"/>
-    <mergeCell ref="D58:F58"/>
-    <mergeCell ref="A59:J59"/>
-    <mergeCell ref="D60:F60"/>
-    <mergeCell ref="D61:F61"/>
-    <mergeCell ref="D54:F54"/>
-    <mergeCell ref="D55:F55"/>
-    <mergeCell ref="D57:F57"/>
-    <mergeCell ref="D51:F51"/>
-    <mergeCell ref="D52:F52"/>
-    <mergeCell ref="A50:J50"/>
-    <mergeCell ref="A53:J53"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6588,15 +5872,15 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="3" max="3" width="22.875" customWidth="1"/>
-    <col min="7" max="7" width="18.875" customWidth="1"/>
+    <col min="3" max="3" width="22.88671875" customWidth="1"/>
+    <col min="7" max="7" width="18.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="22.5">
+    <row r="1" spans="1:7" ht="22.2">
       <c r="A1" s="15" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B1" s="16"/>
       <c r="C1" s="17"/>
@@ -6614,9 +5898,9 @@
       <c r="F2" s="17"/>
       <c r="G2" s="18"/>
     </row>
-    <row r="3" spans="1:7" ht="14.25">
+    <row r="3" spans="1:7" ht="13.8">
       <c r="B3" s="19" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="C3" s="17"/>
       <c r="D3" s="17"/>
@@ -6624,17 +5908,17 @@
       <c r="F3" s="17"/>
       <c r="G3" s="18"/>
     </row>
-    <row r="4" spans="1:7" ht="14.25">
+    <row r="4" spans="1:7" ht="13.8">
       <c r="B4" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="117"/>
+        <v>12</v>
+      </c>
+      <c r="C4" s="116"/>
       <c r="D4" s="19"/>
       <c r="E4" s="19"/>
       <c r="F4" s="19"/>
       <c r="G4" s="19"/>
     </row>
-    <row r="5" spans="1:7" ht="14.25">
+    <row r="5" spans="1:7" ht="13.8">
       <c r="A5" s="19"/>
       <c r="B5" s="19"/>
       <c r="C5" s="19"/>
@@ -6643,7 +5927,7 @@
       <c r="F5" s="19"/>
       <c r="G5" s="19"/>
     </row>
-    <row r="6" spans="1:7" ht="14.25">
+    <row r="6" spans="1:7" ht="13.8">
       <c r="A6" s="19"/>
       <c r="B6" s="19"/>
       <c r="C6" s="19"/>
@@ -6652,28 +5936,28 @@
       <c r="F6" s="19"/>
       <c r="G6" s="19"/>
     </row>
-    <row r="7" spans="1:7" ht="14.25">
+    <row r="7" spans="1:7" ht="26.4">
       <c r="A7" s="20"/>
       <c r="B7" s="55" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="C7" s="56" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="D7" s="57" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="E7" s="56" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="F7" s="56" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="G7" s="58" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" s="67" customFormat="1" ht="14.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="67" customFormat="1" ht="13.8">
       <c r="A8" s="73"/>
       <c r="B8" s="74">
         <v>1</v>
@@ -6684,11 +5968,11 @@
       </c>
       <c r="D8" s="76">
         <f>'Export all carrier choices'!B6</f>
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="E8" s="75">
         <f>'Export all carrier choices'!B7</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8" s="75">
         <f>'Export all carrier choices'!D6</f>
@@ -6696,10 +5980,10 @@
       </c>
       <c r="G8" s="76">
         <f>'Export all carrier choices'!D7</f>
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="14.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="13.8">
       <c r="A9" s="19"/>
       <c r="B9" s="34"/>
       <c r="C9" s="33"/>
@@ -6708,19 +5992,19 @@
       <c r="F9" s="32"/>
       <c r="G9" s="35"/>
     </row>
-    <row r="10" spans="1:7" ht="14.25">
+    <row r="10" spans="1:7" ht="13.8">
       <c r="A10" s="19"/>
       <c r="B10" s="59"/>
       <c r="C10" s="60" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="D10" s="61">
         <f>SUM(D6:D9)</f>
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="E10" s="61">
         <f>SUM(E6:E9)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10" s="61">
         <f>SUM(F6:F9)</f>
@@ -6728,10 +6012,10 @@
       </c>
       <c r="G10" s="62">
         <f>SUM(G6:G9)</f>
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="14.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="13.8">
       <c r="A11" s="19"/>
       <c r="B11" s="21"/>
       <c r="C11" s="19"/>
@@ -6740,35 +6024,35 @@
       <c r="F11" s="23"/>
       <c r="G11" s="23"/>
     </row>
-    <row r="12" spans="1:7" ht="14.25">
+    <row r="12" spans="1:7" ht="13.8">
       <c r="A12" s="19"/>
       <c r="B12" s="19"/>
       <c r="C12" s="19" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D12" s="19"/>
       <c r="E12" s="24">
         <f>(D10+E10)*100/G10</f>
-        <v>71.05263157894737</v>
+        <v>210</v>
       </c>
       <c r="F12" s="19" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G12" s="25"/>
     </row>
-    <row r="13" spans="1:7" ht="14.25">
+    <row r="13" spans="1:7" ht="13.8">
       <c r="A13" s="19"/>
       <c r="B13" s="19"/>
       <c r="C13" s="19" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="D13" s="19"/>
       <c r="E13" s="24">
         <f>D10*100/G10</f>
-        <v>68.421052631578945</v>
+        <v>180</v>
       </c>
       <c r="F13" s="19" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G13" s="25"/>
     </row>

--- a/test-case-example.xlsx
+++ b/test-case-example.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\truon\source\repos\QLCafe\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\QLCafe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76FFE1AA-A6BD-4501-BF41-AE4D6AB9CBCE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AEEB6E8-74E1-44E8-B376-E635896B5179}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="821" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="166">
   <si>
     <t>TC16</t>
   </si>
@@ -422,9 +422,6 @@
 3. ấn nút chuyển bàn </t>
   </si>
   <si>
-    <t xml:space="preserve">Check nút Xóa(-) 1 thức uống </t>
-  </si>
-  <si>
     <t xml:space="preserve">1.chọn thức uống đã chọn trong listview
 2.ấn nút xóa </t>
   </si>
@@ -471,12 +468,6 @@
     <t>Hiện form</t>
   </si>
   <si>
-    <t>Form thống kê được hiện lên khi admin chọn nút "Thống Kê" ở form Quản lý café</t>
-  </si>
-  <si>
-    <t>form thống kê xuất hiện</t>
-  </si>
-  <si>
     <t>Thống kê</t>
   </si>
   <si>
@@ -502,6 +493,110 @@
   </si>
   <si>
     <t>TC21</t>
+  </si>
+  <si>
+    <t>TC22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vào form "thống kê"
+</t>
+  </si>
+  <si>
+    <t>form "thống kê" hiện lên</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vào form "quản lý thức uống"
+</t>
+  </si>
+  <si>
+    <t>form "quản lý thức uống" hiện lên</t>
+  </si>
+  <si>
+    <t>TC23</t>
+  </si>
+  <si>
+    <t>Check "Thêm"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">số thứ ID, tên ,loại, giá tiền được hiện trong listview </t>
+  </si>
+  <si>
+    <t>TC24</t>
+  </si>
+  <si>
+    <t>Check "Xóa"</t>
+  </si>
+  <si>
+    <t>1.Chọn mục thức uống 
+2.Ấn nút"Xóa"</t>
+  </si>
+  <si>
+    <t>TC25</t>
+  </si>
+  <si>
+    <t>Check "sửa"</t>
+  </si>
+  <si>
+    <t>1.Chọn mục cần sửa
+2.tùy chỉnh tên, giá tiền 
+3.Ấn nút "sửa"</t>
+  </si>
+  <si>
+    <t>hiện thông báo "bạn xóa thành công"</t>
+  </si>
+  <si>
+    <t>hiện thông báo "bạn sửa thành công"</t>
+  </si>
+  <si>
+    <t>3.Form quản lý loại thức uống</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check nút Xóa(-)  thức uống </t>
+  </si>
+  <si>
+    <t xml:space="preserve">vào form "quản lý loại thức uống"
+</t>
+  </si>
+  <si>
+    <t>form "quản lý loại thức uống" hiện lên</t>
+  </si>
+  <si>
+    <t>1.Điền Tên thức uống và giá ở combobox
+2.Ấn nút "Thêm"</t>
+  </si>
+  <si>
+    <t>1.Điền Tên loại thức uống ở combobox
+2.Ấn nút "Thêm"</t>
+  </si>
+  <si>
+    <t>thông báo "đã thêm thành công"</t>
+  </si>
+  <si>
+    <t>1.Chọn loại thức uống 
+2.Ấn nút"Xóa"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vào form "Quản lí bàn"
+</t>
+  </si>
+  <si>
+    <t>Thêm 1 bàn</t>
+  </si>
+  <si>
+    <t>Xóa 1 bàn</t>
+  </si>
+  <si>
+    <t>Chọn bàn cần sửa</t>
+  </si>
+  <si>
+    <t>5.Form quản lý tài khoản</t>
+  </si>
+  <si>
+    <t>4.Form quản lý bàn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vào form "Quản lý tài khoản"
+</t>
   </si>
 </sst>
 </file>
@@ -668,7 +763,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -695,12 +790,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="13"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="56"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1179,7 +1268,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="171">
+  <cellXfs count="170">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -1461,7 +1550,6 @@
     <xf numFmtId="15" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1499,11 +1587,83 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="31" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="32" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="33" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="34" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1522,24 +1682,12 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1549,83 +1697,21 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="31" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="32" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="33" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="34" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="22" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="24" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -4336,11 +4422,11 @@
       <c r="B6" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="C6" s="125" t="s">
+      <c r="C6" s="124" t="s">
         <v>64</v>
       </c>
-      <c r="D6" s="125"/>
-      <c r="E6" s="126"/>
+      <c r="D6" s="124"/>
+      <c r="E6" s="125"/>
       <c r="F6" s="26"/>
       <c r="G6" s="26"/>
     </row>
@@ -4349,11 +4435,11 @@
       <c r="B7" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="C7" s="125" t="s">
+      <c r="C7" s="124" t="s">
         <v>65</v>
       </c>
-      <c r="D7" s="125"/>
-      <c r="E7" s="126"/>
+      <c r="D7" s="124"/>
+      <c r="E7" s="125"/>
       <c r="F7" s="26"/>
       <c r="G7" s="26"/>
     </row>
@@ -4423,7 +4509,7 @@
       </c>
     </row>
     <row r="13" spans="1:8" s="36" customFormat="1" ht="26.4">
-      <c r="B13" s="116">
+      <c r="B13" s="115">
         <v>39295</v>
       </c>
       <c r="C13" s="39" t="s">
@@ -4564,10 +4650,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N113"/>
+  <dimension ref="A1:N107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" outlineLevelRow="1"/>
@@ -4586,79 +4672,79 @@
       <c r="A1" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="130"/>
-      <c r="C1" s="130"/>
-      <c r="D1" s="130"/>
+      <c r="B1" s="153"/>
+      <c r="C1" s="153"/>
+      <c r="D1" s="153"/>
       <c r="E1" s="6"/>
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
       <c r="H1" s="6"/>
-      <c r="I1" s="117"/>
-      <c r="J1" s="118"/>
+      <c r="I1" s="116"/>
+      <c r="J1" s="117"/>
       <c r="K1" s="7"/>
     </row>
     <row r="2" spans="1:11" s="2" customFormat="1" ht="11.25" customHeight="1" thickBot="1">
       <c r="A2" s="7"/>
-      <c r="B2" s="131"/>
-      <c r="C2" s="131"/>
-      <c r="D2" s="131"/>
+      <c r="B2" s="154"/>
+      <c r="C2" s="154"/>
+      <c r="D2" s="154"/>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
-      <c r="I2" s="117"/>
-      <c r="J2" s="118"/>
+      <c r="I2" s="116"/>
+      <c r="J2" s="117"/>
       <c r="K2" s="7"/>
     </row>
     <row r="3" spans="1:11" s="3" customFormat="1" ht="15" customHeight="1">
       <c r="A3" s="65" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="125" t="s">
+      <c r="B3" s="124" t="s">
         <v>67</v>
       </c>
-      <c r="C3" s="125"/>
-      <c r="D3" s="126"/>
+      <c r="C3" s="124"/>
+      <c r="D3" s="125"/>
       <c r="E3" s="68"/>
       <c r="F3" s="68"/>
       <c r="G3" s="68"/>
-      <c r="H3" s="140"/>
-      <c r="I3" s="140"/>
-      <c r="J3" s="140"/>
+      <c r="H3" s="160"/>
+      <c r="I3" s="160"/>
+      <c r="J3" s="160"/>
       <c r="K3" s="9"/>
     </row>
     <row r="4" spans="1:11" s="3" customFormat="1" ht="13.2">
       <c r="A4" s="72" t="s">
         <v>46</v>
       </c>
-      <c r="B4" s="142" t="s">
+      <c r="B4" s="161" t="s">
         <v>68</v>
       </c>
-      <c r="C4" s="143"/>
-      <c r="D4" s="144"/>
+      <c r="C4" s="162"/>
+      <c r="D4" s="163"/>
       <c r="E4" s="68"/>
       <c r="F4" s="68"/>
       <c r="G4" s="68"/>
-      <c r="H4" s="140"/>
-      <c r="I4" s="140"/>
-      <c r="J4" s="140"/>
+      <c r="H4" s="160"/>
+      <c r="I4" s="160"/>
+      <c r="J4" s="160"/>
       <c r="K4" s="9"/>
     </row>
     <row r="5" spans="1:11" s="81" customFormat="1" ht="26.4">
       <c r="A5" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="133" t="s">
+      <c r="B5" s="156" t="s">
         <v>69</v>
       </c>
-      <c r="C5" s="134"/>
-      <c r="D5" s="135"/>
+      <c r="C5" s="157"/>
+      <c r="D5" s="158"/>
       <c r="E5" s="79"/>
       <c r="F5" s="79"/>
       <c r="G5" s="79"/>
-      <c r="H5" s="139"/>
-      <c r="I5" s="139"/>
-      <c r="J5" s="139"/>
+      <c r="H5" s="159"/>
+      <c r="I5" s="159"/>
+      <c r="J5" s="159"/>
       <c r="K5" s="80"/>
     </row>
     <row r="6" spans="1:11" s="3" customFormat="1" ht="15" customHeight="1">
@@ -4666,22 +4752,22 @@
         <v>47</v>
       </c>
       <c r="B6" s="95">
-        <f>COUNTIF(I12:I72,"Pass")</f>
-        <v>18</v>
+        <f>COUNTIF(I12:I66,"Pass")</f>
+        <v>31</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>48</v>
       </c>
       <c r="D6" s="13">
-        <f>COUNTIF(I10:I794,"Pending")</f>
+        <f>COUNTIF(I10:I788,"Pending")</f>
         <v>0</v>
       </c>
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
-      <c r="H6" s="140"/>
-      <c r="I6" s="140"/>
-      <c r="J6" s="140"/>
+      <c r="H6" s="160"/>
+      <c r="I6" s="160"/>
+      <c r="J6" s="160"/>
       <c r="K6" s="9"/>
     </row>
     <row r="7" spans="1:11" s="3" customFormat="1" ht="15" customHeight="1" thickBot="1">
@@ -4689,102 +4775,102 @@
         <v>11</v>
       </c>
       <c r="B7" s="96">
-        <f>COUNTIF(I12:I72,"Fail")</f>
+        <f>COUNTIF(I12:I66,"Fail")</f>
         <v>3</v>
       </c>
       <c r="C7" s="30" t="s">
         <v>37</v>
       </c>
       <c r="D7" s="66">
-        <f>COUNTA(A12:A75) -15</f>
-        <v>10</v>
+        <f>COUNTA(A12:A69) -15</f>
+        <v>26</v>
       </c>
       <c r="E7" s="69"/>
       <c r="F7" s="69"/>
       <c r="G7" s="69"/>
-      <c r="H7" s="140"/>
-      <c r="I7" s="140"/>
-      <c r="J7" s="140"/>
+      <c r="H7" s="160"/>
+      <c r="I7" s="160"/>
+      <c r="J7" s="160"/>
       <c r="K7" s="9"/>
     </row>
     <row r="8" spans="1:11" s="3" customFormat="1" ht="15" customHeight="1">
-      <c r="A8" s="132"/>
-      <c r="B8" s="132"/>
-      <c r="C8" s="132"/>
-      <c r="D8" s="132"/>
+      <c r="A8" s="155"/>
+      <c r="B8" s="155"/>
+      <c r="C8" s="155"/>
+      <c r="D8" s="155"/>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
-      <c r="I8" s="119"/>
-      <c r="J8" s="119"/>
+      <c r="I8" s="118"/>
+      <c r="J8" s="118"/>
       <c r="K8" s="9"/>
     </row>
     <row r="9" spans="1:11" s="83" customFormat="1" ht="12" customHeight="1">
-      <c r="A9" s="149" t="s">
+      <c r="A9" s="138" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="150" t="s">
+      <c r="B9" s="140" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="149" t="s">
+      <c r="C9" s="138" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="152" t="s">
+      <c r="D9" s="142" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="153"/>
-      <c r="F9" s="153"/>
-      <c r="G9" s="154"/>
-      <c r="H9" s="145" t="s">
+      <c r="E9" s="143"/>
+      <c r="F9" s="143"/>
+      <c r="G9" s="144"/>
+      <c r="H9" s="164" t="s">
         <v>36</v>
       </c>
-      <c r="I9" s="141" t="s">
+      <c r="I9" s="139" t="s">
         <v>15</v>
       </c>
-      <c r="J9" s="141" t="s">
+      <c r="J9" s="139" t="s">
         <v>41</v>
       </c>
       <c r="K9" s="82"/>
     </row>
     <row r="10" spans="1:11" s="71" customFormat="1" ht="12" customHeight="1">
-      <c r="A10" s="141"/>
-      <c r="B10" s="151"/>
-      <c r="C10" s="141"/>
-      <c r="D10" s="146"/>
-      <c r="E10" s="155"/>
-      <c r="F10" s="155"/>
-      <c r="G10" s="156"/>
-      <c r="H10" s="146"/>
-      <c r="I10" s="141"/>
-      <c r="J10" s="141"/>
+      <c r="A10" s="139"/>
+      <c r="B10" s="141"/>
+      <c r="C10" s="139"/>
+      <c r="D10" s="145"/>
+      <c r="E10" s="146"/>
+      <c r="F10" s="146"/>
+      <c r="G10" s="147"/>
+      <c r="H10" s="145"/>
+      <c r="I10" s="139"/>
+      <c r="J10" s="139"/>
       <c r="K10" s="70"/>
     </row>
     <row r="11" spans="1:11" s="84" customFormat="1" ht="15">
-      <c r="A11" s="147"/>
-      <c r="B11" s="147"/>
-      <c r="C11" s="147"/>
-      <c r="D11" s="147"/>
-      <c r="E11" s="147"/>
-      <c r="F11" s="147"/>
-      <c r="G11" s="147"/>
-      <c r="H11" s="147"/>
-      <c r="I11" s="147"/>
-      <c r="J11" s="148"/>
+      <c r="A11" s="165"/>
+      <c r="B11" s="165"/>
+      <c r="C11" s="165"/>
+      <c r="D11" s="165"/>
+      <c r="E11" s="165"/>
+      <c r="F11" s="165"/>
+      <c r="G11" s="165"/>
+      <c r="H11" s="165"/>
+      <c r="I11" s="165"/>
+      <c r="J11" s="166"/>
     </row>
     <row r="12" spans="1:11" s="4" customFormat="1" ht="13.2">
-      <c r="A12" s="136" t="s">
+      <c r="A12" s="134" t="s">
         <v>72</v>
       </c>
-      <c r="B12" s="137"/>
-      <c r="C12" s="137"/>
-      <c r="D12" s="137"/>
-      <c r="E12" s="137"/>
-      <c r="F12" s="137"/>
-      <c r="G12" s="137"/>
-      <c r="H12" s="137"/>
-      <c r="I12" s="137"/>
-      <c r="J12" s="138"/>
+      <c r="B12" s="135"/>
+      <c r="C12" s="135"/>
+      <c r="D12" s="135"/>
+      <c r="E12" s="135"/>
+      <c r="F12" s="135"/>
+      <c r="G12" s="135"/>
+      <c r="H12" s="135"/>
+      <c r="I12" s="135"/>
+      <c r="J12" s="136"/>
     </row>
     <row r="13" spans="1:11" s="4" customFormat="1" ht="39.6" customHeight="1" outlineLevel="1">
       <c r="A13" s="88" t="s">
@@ -4796,11 +4882,11 @@
       <c r="C13" s="87" t="s">
         <v>74</v>
       </c>
-      <c r="D13" s="127" t="s">
+      <c r="D13" s="126" t="s">
         <v>81</v>
       </c>
-      <c r="E13" s="128"/>
-      <c r="F13" s="128"/>
+      <c r="E13" s="132"/>
+      <c r="F13" s="132"/>
       <c r="G13" s="86"/>
       <c r="H13" s="112"/>
       <c r="I13" s="87" t="s">
@@ -4818,12 +4904,12 @@
       <c r="C14" s="87" t="s">
         <v>83</v>
       </c>
-      <c r="D14" s="128" t="s">
+      <c r="D14" s="132" t="s">
         <v>84</v>
       </c>
-      <c r="E14" s="128"/>
-      <c r="F14" s="128"/>
-      <c r="G14" s="121"/>
+      <c r="E14" s="132"/>
+      <c r="F14" s="132"/>
+      <c r="G14" s="120"/>
       <c r="H14" s="94"/>
       <c r="I14" s="87" t="s">
         <v>47</v>
@@ -4840,11 +4926,11 @@
       <c r="C15" s="87" t="s">
         <v>79</v>
       </c>
-      <c r="D15" s="160" t="s">
+      <c r="D15" s="150" t="s">
         <v>80</v>
       </c>
-      <c r="E15" s="161"/>
-      <c r="F15" s="162"/>
+      <c r="E15" s="151"/>
+      <c r="F15" s="152"/>
       <c r="G15" s="87"/>
       <c r="H15" s="97"/>
       <c r="I15" s="87" t="s">
@@ -4862,12 +4948,12 @@
       <c r="C16" s="87" t="s">
         <v>86</v>
       </c>
-      <c r="D16" s="128" t="s">
+      <c r="D16" s="132" t="s">
         <v>87</v>
       </c>
-      <c r="E16" s="128"/>
-      <c r="F16" s="128"/>
-      <c r="G16" s="121"/>
+      <c r="E16" s="132"/>
+      <c r="F16" s="132"/>
+      <c r="G16" s="120"/>
       <c r="H16" s="94"/>
       <c r="I16" s="87" t="s">
         <v>47</v>
@@ -4884,11 +4970,11 @@
       <c r="C17" s="87" t="s">
         <v>76</v>
       </c>
-      <c r="D17" s="127" t="s">
+      <c r="D17" s="126" t="s">
         <v>77</v>
       </c>
-      <c r="E17" s="128"/>
-      <c r="F17" s="128"/>
+      <c r="E17" s="132"/>
+      <c r="F17" s="132"/>
       <c r="G17" s="86"/>
       <c r="H17" s="112"/>
       <c r="I17" s="87" t="s">
@@ -4897,7 +4983,7 @@
       <c r="J17" s="85"/>
     </row>
     <row r="18" spans="1:10" s="4" customFormat="1" ht="39.6" customHeight="1" outlineLevel="1">
-      <c r="A18" s="123" t="s">
+      <c r="A18" s="122" t="s">
         <v>9</v>
       </c>
       <c r="B18" s="97" t="s">
@@ -4906,11 +4992,11 @@
       <c r="C18" s="87" t="s">
         <v>89</v>
       </c>
-      <c r="D18" s="127" t="s">
+      <c r="D18" s="126" t="s">
         <v>90</v>
       </c>
-      <c r="E18" s="128"/>
-      <c r="F18" s="163"/>
+      <c r="E18" s="132"/>
+      <c r="F18" s="133"/>
       <c r="G18" s="87"/>
       <c r="H18" s="94"/>
       <c r="I18" s="87" t="s">
@@ -4928,11 +5014,11 @@
       <c r="C19" s="87" t="s">
         <v>92</v>
       </c>
-      <c r="D19" s="127" t="s">
+      <c r="D19" s="126" t="s">
         <v>90</v>
       </c>
-      <c r="E19" s="128"/>
-      <c r="F19" s="163"/>
+      <c r="E19" s="132"/>
+      <c r="F19" s="133"/>
       <c r="G19" s="87"/>
       <c r="H19" s="94"/>
       <c r="I19" s="87" t="s">
@@ -4950,11 +5036,11 @@
       <c r="C20" s="87" t="s">
         <v>94</v>
       </c>
-      <c r="D20" s="127" t="s">
+      <c r="D20" s="126" t="s">
         <v>95</v>
       </c>
-      <c r="E20" s="128"/>
-      <c r="F20" s="163"/>
+      <c r="E20" s="132"/>
+      <c r="F20" s="133"/>
       <c r="G20" s="87"/>
       <c r="H20" s="94"/>
       <c r="I20" s="87" t="s">
@@ -4963,11 +5049,11 @@
       <c r="J20" s="85"/>
     </row>
     <row r="21" spans="1:10" s="4" customFormat="1" ht="13.2" customHeight="1" outlineLevel="1">
-      <c r="A21" s="157" t="s">
+      <c r="A21" s="148" t="s">
         <v>96</v>
       </c>
-      <c r="B21" s="158"/>
-      <c r="C21" s="158"/>
+      <c r="B21" s="149"/>
+      <c r="C21" s="149"/>
       <c r="D21" s="106"/>
       <c r="E21" s="106"/>
       <c r="F21" s="106"/>
@@ -4989,10 +5075,10 @@
       <c r="D22" s="129" t="s">
         <v>99</v>
       </c>
-      <c r="E22" s="128"/>
-      <c r="F22" s="128"/>
+      <c r="E22" s="132"/>
+      <c r="F22" s="132"/>
       <c r="G22" s="86"/>
-      <c r="H22" s="120"/>
+      <c r="H22" s="119"/>
       <c r="I22" s="87" t="s">
         <v>47</v>
       </c>
@@ -5006,13 +5092,13 @@
         <v>100</v>
       </c>
       <c r="C23" s="105" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D23" s="129" t="s">
         <v>99</v>
       </c>
-      <c r="E23" s="159"/>
-      <c r="F23" s="159"/>
+      <c r="E23" s="130"/>
+      <c r="F23" s="130"/>
       <c r="G23" s="86"/>
       <c r="H23" s="112"/>
       <c r="I23" s="87" t="s">
@@ -5030,11 +5116,11 @@
       <c r="C24" s="105" t="s">
         <v>102</v>
       </c>
-      <c r="D24" s="127" t="s">
-        <v>133</v>
-      </c>
-      <c r="E24" s="128"/>
-      <c r="F24" s="128"/>
+      <c r="D24" s="126" t="s">
+        <v>130</v>
+      </c>
+      <c r="E24" s="132"/>
+      <c r="F24" s="132"/>
       <c r="G24" s="86"/>
       <c r="H24" s="94"/>
       <c r="I24" s="87" t="s">
@@ -5055,10 +5141,10 @@
       <c r="D25" s="129" t="s">
         <v>105</v>
       </c>
-      <c r="E25" s="128"/>
-      <c r="F25" s="128"/>
+      <c r="E25" s="132"/>
+      <c r="F25" s="132"/>
       <c r="G25" s="86"/>
-      <c r="H25" s="120"/>
+      <c r="H25" s="119"/>
       <c r="I25" s="87" t="s">
         <v>47</v>
       </c>
@@ -5077,8 +5163,8 @@
       <c r="D26" s="129" t="s">
         <v>108</v>
       </c>
-      <c r="E26" s="159"/>
-      <c r="F26" s="170"/>
+      <c r="E26" s="130"/>
+      <c r="F26" s="131"/>
       <c r="G26" s="87"/>
       <c r="H26" s="87"/>
       <c r="I26" s="87" t="s">
@@ -5091,17 +5177,17 @@
         <v>57</v>
       </c>
       <c r="B27" s="87" t="s">
+        <v>152</v>
+      </c>
+      <c r="C27" s="87" t="s">
         <v>114</v>
       </c>
-      <c r="C27" s="87" t="s">
+      <c r="D27" s="129" t="s">
         <v>115</v>
       </c>
-      <c r="D27" s="129" t="s">
-        <v>116</v>
-      </c>
-      <c r="E27" s="159"/>
-      <c r="F27" s="170"/>
-      <c r="G27" s="121"/>
+      <c r="E27" s="130"/>
+      <c r="F27" s="131"/>
+      <c r="G27" s="120"/>
       <c r="H27" s="87"/>
       <c r="I27" s="87" t="s">
         <v>47</v>
@@ -5113,17 +5199,17 @@
         <v>58</v>
       </c>
       <c r="B28" s="87" t="s">
+        <v>116</v>
+      </c>
+      <c r="C28" s="87" t="s">
         <v>117</v>
       </c>
-      <c r="C28" s="87" t="s">
+      <c r="D28" s="129" t="s">
         <v>118</v>
       </c>
-      <c r="D28" s="129" t="s">
-        <v>119</v>
-      </c>
-      <c r="E28" s="159"/>
-      <c r="F28" s="170"/>
-      <c r="G28" s="121"/>
+      <c r="E28" s="130"/>
+      <c r="F28" s="131"/>
+      <c r="G28" s="120"/>
       <c r="H28" s="87"/>
       <c r="I28" s="87" t="s">
         <v>47</v>
@@ -5143,9 +5229,9 @@
       <c r="D29" s="129" t="s">
         <v>110</v>
       </c>
-      <c r="E29" s="168"/>
-      <c r="F29" s="169"/>
-      <c r="G29" s="121"/>
+      <c r="E29" s="127"/>
+      <c r="F29" s="128"/>
+      <c r="G29" s="120"/>
       <c r="H29" s="87"/>
       <c r="I29" s="87" t="s">
         <v>47</v>
@@ -5160,14 +5246,14 @@
         <v>112</v>
       </c>
       <c r="C30" s="87" t="s">
+        <v>120</v>
+      </c>
+      <c r="D30" s="129" t="s">
         <v>121</v>
       </c>
-      <c r="D30" s="129" t="s">
-        <v>122</v>
-      </c>
-      <c r="E30" s="159"/>
-      <c r="F30" s="170"/>
-      <c r="G30" s="121"/>
+      <c r="E30" s="130"/>
+      <c r="F30" s="131"/>
+      <c r="G30" s="120"/>
       <c r="H30" s="87"/>
       <c r="I30" s="87" t="s">
         <v>11</v>
@@ -5182,14 +5268,14 @@
         <v>111</v>
       </c>
       <c r="C31" s="87" t="s">
+        <v>123</v>
+      </c>
+      <c r="D31" s="126" t="s">
         <v>124</v>
       </c>
-      <c r="D31" s="127" t="s">
-        <v>125</v>
-      </c>
-      <c r="E31" s="168"/>
-      <c r="F31" s="169"/>
-      <c r="G31" s="121"/>
+      <c r="E31" s="127"/>
+      <c r="F31" s="128"/>
+      <c r="G31" s="120"/>
       <c r="H31" s="87"/>
       <c r="I31" s="87" t="s">
         <v>47</v>
@@ -5197,33 +5283,33 @@
       <c r="J31" s="85"/>
     </row>
     <row r="32" spans="1:10" s="4" customFormat="1" ht="63.75" customHeight="1" outlineLevel="1">
-      <c r="A32" s="123" t="s">
+      <c r="A32" s="122" t="s">
         <v>59</v>
       </c>
       <c r="B32" s="87" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C32" s="87" t="s">
-        <v>135</v>
-      </c>
-      <c r="D32" s="127" t="s">
-        <v>136</v>
-      </c>
-      <c r="E32" s="128"/>
-      <c r="F32" s="128"/>
-      <c r="G32" s="122"/>
+        <v>132</v>
+      </c>
+      <c r="D32" s="126" t="s">
+        <v>133</v>
+      </c>
+      <c r="E32" s="132"/>
+      <c r="F32" s="132"/>
+      <c r="G32" s="121"/>
       <c r="H32" s="87"/>
       <c r="I32" s="87" t="s">
         <v>47</v>
       </c>
-      <c r="J32" s="124"/>
+      <c r="J32" s="123"/>
     </row>
     <row r="33" spans="1:14" s="4" customFormat="1" ht="13.8" customHeight="1" outlineLevel="1">
-      <c r="A33" s="157" t="s">
-        <v>123</v>
-      </c>
-      <c r="B33" s="158"/>
-      <c r="C33" s="158"/>
+      <c r="A33" s="148" t="s">
+        <v>122</v>
+      </c>
+      <c r="B33" s="149"/>
+      <c r="C33" s="149"/>
       <c r="D33" s="106"/>
       <c r="E33" s="106"/>
       <c r="F33" s="106"/>
@@ -5237,16 +5323,16 @@
         <v>60</v>
       </c>
       <c r="B34" s="105" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C34" s="105" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="D34" s="129" t="s">
-        <v>128</v>
-      </c>
-      <c r="E34" s="128"/>
-      <c r="F34" s="128"/>
+        <v>137</v>
+      </c>
+      <c r="E34" s="132"/>
+      <c r="F34" s="132"/>
       <c r="G34" s="86"/>
       <c r="H34" s="100"/>
       <c r="I34" s="87" t="s">
@@ -5256,19 +5342,19 @@
     </row>
     <row r="35" spans="1:14" s="4" customFormat="1" ht="63.75" customHeight="1" outlineLevel="1">
       <c r="A35" s="88" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B35" s="105" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C35" s="105" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D35" s="129" t="s">
-        <v>131</v>
-      </c>
-      <c r="E35" s="128"/>
-      <c r="F35" s="128"/>
+        <v>128</v>
+      </c>
+      <c r="E35" s="132"/>
+      <c r="F35" s="132"/>
       <c r="G35" s="86"/>
       <c r="H35" s="112"/>
       <c r="I35" s="87" t="s">
@@ -5277,311 +5363,452 @@
       <c r="J35" s="85"/>
     </row>
     <row r="36" spans="1:14" s="4" customFormat="1" ht="13.2" customHeight="1">
-      <c r="A36" s="136" t="s">
-        <v>132</v>
-      </c>
-      <c r="B36" s="137"/>
-      <c r="C36" s="137"/>
-      <c r="D36" s="137"/>
-      <c r="E36" s="137"/>
-      <c r="F36" s="137"/>
-      <c r="G36" s="137"/>
-      <c r="H36" s="137"/>
-      <c r="I36" s="137"/>
-      <c r="J36" s="138"/>
-    </row>
-    <row r="37" spans="1:14" s="93" customFormat="1" ht="228.75" customHeight="1" outlineLevel="1">
-      <c r="A37" s="88"/>
-      <c r="B37" s="98"/>
-      <c r="C37" s="92"/>
-      <c r="D37" s="127"/>
-      <c r="E37" s="128"/>
-      <c r="F37" s="128"/>
-      <c r="I37" s="113"/>
+      <c r="A36" s="134" t="s">
+        <v>129</v>
+      </c>
+      <c r="B36" s="135"/>
+      <c r="C36" s="135"/>
+      <c r="D36" s="135"/>
+      <c r="E36" s="135"/>
+      <c r="F36" s="135"/>
+      <c r="G36" s="135"/>
+      <c r="H36" s="135"/>
+      <c r="I36" s="135"/>
+      <c r="J36" s="136"/>
+    </row>
+    <row r="37" spans="1:14" s="93" customFormat="1" ht="37.200000000000003" customHeight="1" outlineLevel="1">
+      <c r="A37" s="88" t="s">
+        <v>135</v>
+      </c>
+      <c r="B37" s="105" t="s">
+        <v>125</v>
+      </c>
+      <c r="C37" s="105" t="s">
+        <v>138</v>
+      </c>
+      <c r="D37" s="129" t="s">
+        <v>139</v>
+      </c>
+      <c r="E37" s="132"/>
+      <c r="F37" s="132"/>
+      <c r="G37" s="168"/>
+      <c r="H37" s="168"/>
+      <c r="I37" s="113" t="s">
+        <v>47</v>
+      </c>
       <c r="J37" s="94"/>
     </row>
-    <row r="38" spans="1:14" s="93" customFormat="1" ht="207.75" customHeight="1" outlineLevel="1">
-      <c r="A38" s="88"/>
-      <c r="B38" s="98"/>
-      <c r="C38" s="92"/>
-      <c r="D38" s="127"/>
-      <c r="E38" s="128"/>
-      <c r="F38" s="128"/>
-      <c r="H38" s="111"/>
-      <c r="I38" s="113"/>
+    <row r="38" spans="1:14" s="93" customFormat="1" ht="46.2" customHeight="1" outlineLevel="1">
+      <c r="A38" s="88" t="s">
+        <v>140</v>
+      </c>
+      <c r="B38" s="98" t="s">
+        <v>141</v>
+      </c>
+      <c r="C38" s="92" t="s">
+        <v>155</v>
+      </c>
+      <c r="D38" s="150" t="s">
+        <v>142</v>
+      </c>
+      <c r="E38" s="151"/>
+      <c r="F38" s="151"/>
+      <c r="H38" s="167"/>
+      <c r="I38" s="109" t="s">
+        <v>47</v>
+      </c>
       <c r="J38" s="94"/>
     </row>
-    <row r="39" spans="1:14" s="93" customFormat="1" ht="255" customHeight="1" outlineLevel="1">
-      <c r="A39" s="88"/>
-      <c r="B39" s="98"/>
-      <c r="C39" s="92"/>
-      <c r="D39" s="127"/>
-      <c r="E39" s="128"/>
-      <c r="F39" s="128"/>
+    <row r="39" spans="1:14" s="93" customFormat="1" ht="43.2" customHeight="1" outlineLevel="1">
+      <c r="A39" s="88" t="s">
+        <v>143</v>
+      </c>
+      <c r="B39" s="98" t="s">
+        <v>144</v>
+      </c>
+      <c r="C39" s="92" t="s">
+        <v>145</v>
+      </c>
+      <c r="D39" s="126" t="s">
+        <v>149</v>
+      </c>
+      <c r="E39" s="132"/>
+      <c r="F39" s="132"/>
       <c r="H39" s="111"/>
-      <c r="I39" s="109"/>
+      <c r="I39" s="109" t="s">
+        <v>47</v>
+      </c>
       <c r="J39" s="110"/>
       <c r="K39" s="108"/>
       <c r="L39" s="108"/>
       <c r="M39" s="108"/>
       <c r="N39" s="108"/>
     </row>
-    <row r="40" spans="1:14" s="93" customFormat="1" ht="276.75" customHeight="1" outlineLevel="1">
-      <c r="A40" s="88"/>
-      <c r="B40" s="98"/>
-      <c r="C40" s="92"/>
-      <c r="D40" s="127"/>
-      <c r="E40" s="128"/>
-      <c r="F40" s="128"/>
+    <row r="40" spans="1:14" s="93" customFormat="1" ht="52.8" customHeight="1" outlineLevel="1">
+      <c r="A40" s="88" t="s">
+        <v>146</v>
+      </c>
+      <c r="B40" s="98" t="s">
+        <v>147</v>
+      </c>
+      <c r="C40" s="92" t="s">
+        <v>148</v>
+      </c>
+      <c r="D40" s="126" t="s">
+        <v>150</v>
+      </c>
+      <c r="E40" s="132"/>
+      <c r="F40" s="132"/>
       <c r="H40" s="101"/>
-      <c r="I40" s="103"/>
+      <c r="I40" s="169" t="s">
+        <v>47</v>
+      </c>
       <c r="J40" s="94"/>
     </row>
     <row r="41" spans="1:14" s="4" customFormat="1" ht="13.2" customHeight="1">
-      <c r="A41" s="136"/>
-      <c r="B41" s="137"/>
-      <c r="C41" s="137"/>
-      <c r="D41" s="137"/>
-      <c r="E41" s="137"/>
-      <c r="F41" s="137"/>
-      <c r="G41" s="137"/>
-      <c r="H41" s="137"/>
-      <c r="I41" s="137"/>
-      <c r="J41" s="138"/>
-    </row>
-    <row r="42" spans="1:14" s="4" customFormat="1" ht="13.2" customHeight="1" outlineLevel="1">
-      <c r="A42" s="136"/>
-      <c r="B42" s="137"/>
-      <c r="C42" s="137"/>
-      <c r="D42" s="137"/>
-      <c r="E42" s="137"/>
-      <c r="F42" s="137"/>
-      <c r="G42" s="137"/>
-      <c r="H42" s="137"/>
-      <c r="I42" s="137"/>
-      <c r="J42" s="138"/>
-    </row>
-    <row r="43" spans="1:14" s="93" customFormat="1" ht="70.5" customHeight="1" outlineLevel="1">
-      <c r="A43" s="88"/>
-      <c r="B43" s="98"/>
-      <c r="C43" s="92"/>
-      <c r="D43" s="127"/>
-      <c r="E43" s="128"/>
-      <c r="F43" s="128"/>
-      <c r="H43" s="101"/>
-      <c r="I43" s="103"/>
+      <c r="A41" s="134" t="s">
+        <v>151</v>
+      </c>
+      <c r="B41" s="135"/>
+      <c r="C41" s="135"/>
+      <c r="D41" s="135"/>
+      <c r="E41" s="135"/>
+      <c r="F41" s="135"/>
+      <c r="G41" s="135"/>
+      <c r="H41" s="135"/>
+      <c r="I41" s="135"/>
+      <c r="J41" s="136"/>
+    </row>
+    <row r="42" spans="1:14" s="93" customFormat="1" ht="70.5" customHeight="1" outlineLevel="1">
+      <c r="A42" s="88" t="s">
+        <v>135</v>
+      </c>
+      <c r="B42" s="105" t="s">
+        <v>125</v>
+      </c>
+      <c r="C42" s="105" t="s">
+        <v>153</v>
+      </c>
+      <c r="D42" s="129" t="s">
+        <v>154</v>
+      </c>
+      <c r="E42" s="132"/>
+      <c r="F42" s="132"/>
+      <c r="G42" s="168"/>
+      <c r="H42" s="168"/>
+      <c r="I42" s="113" t="s">
+        <v>47</v>
+      </c>
+      <c r="J42" s="94"/>
+    </row>
+    <row r="43" spans="1:14" s="93" customFormat="1" ht="87.75" customHeight="1" outlineLevel="1">
+      <c r="A43" s="88" t="s">
+        <v>140</v>
+      </c>
+      <c r="B43" s="98" t="s">
+        <v>141</v>
+      </c>
+      <c r="C43" s="92" t="s">
+        <v>156</v>
+      </c>
+      <c r="D43" s="150" t="s">
+        <v>157</v>
+      </c>
+      <c r="E43" s="151"/>
+      <c r="F43" s="151"/>
+      <c r="H43" s="167"/>
+      <c r="I43" s="109" t="s">
+        <v>47</v>
+      </c>
       <c r="J43" s="94"/>
     </row>
     <row r="44" spans="1:14" s="93" customFormat="1" ht="87.75" customHeight="1" outlineLevel="1">
-      <c r="A44" s="88"/>
-      <c r="B44" s="98"/>
-      <c r="C44" s="92"/>
-      <c r="D44" s="127"/>
-      <c r="E44" s="128"/>
-      <c r="F44" s="128"/>
-      <c r="H44" s="101"/>
-      <c r="I44" s="103"/>
-      <c r="J44" s="94"/>
-    </row>
-    <row r="45" spans="1:14" s="93" customFormat="1" ht="87.75" customHeight="1" outlineLevel="1">
-      <c r="A45" s="88"/>
-      <c r="B45" s="98"/>
-      <c r="C45" s="92"/>
-      <c r="D45" s="127"/>
-      <c r="E45" s="128"/>
-      <c r="F45" s="128"/>
+      <c r="A44" s="88" t="s">
+        <v>143</v>
+      </c>
+      <c r="B44" s="98" t="s">
+        <v>144</v>
+      </c>
+      <c r="C44" s="92" t="s">
+        <v>158</v>
+      </c>
+      <c r="D44" s="126" t="s">
+        <v>149</v>
+      </c>
+      <c r="E44" s="132"/>
+      <c r="F44" s="132"/>
+      <c r="H44" s="111"/>
+      <c r="I44" s="109" t="s">
+        <v>47</v>
+      </c>
+      <c r="J44" s="110"/>
+    </row>
+    <row r="45" spans="1:14" s="93" customFormat="1" ht="59.25" customHeight="1" outlineLevel="1">
+      <c r="A45" s="88" t="s">
+        <v>146</v>
+      </c>
+      <c r="B45" s="98" t="s">
+        <v>147</v>
+      </c>
+      <c r="C45" s="92" t="s">
+        <v>148</v>
+      </c>
+      <c r="D45" s="126" t="s">
+        <v>150</v>
+      </c>
+      <c r="E45" s="132"/>
+      <c r="F45" s="132"/>
       <c r="H45" s="101"/>
-      <c r="I45" s="103"/>
+      <c r="I45" s="169" t="s">
+        <v>47</v>
+      </c>
       <c r="J45" s="94"/>
     </row>
-    <row r="46" spans="1:14" s="93" customFormat="1" ht="59.25" customHeight="1" outlineLevel="1">
-      <c r="A46" s="88"/>
-      <c r="B46" s="98"/>
-      <c r="C46" s="92"/>
-      <c r="D46" s="127"/>
-      <c r="E46" s="128"/>
-      <c r="F46" s="128"/>
-      <c r="H46" s="101"/>
-      <c r="I46" s="103"/>
-      <c r="J46" s="94"/>
-    </row>
-    <row r="47" spans="1:14" s="93" customFormat="1" ht="56.25" customHeight="1" outlineLevel="1">
-      <c r="A47" s="88"/>
-      <c r="B47" s="98"/>
-      <c r="C47" s="92"/>
-      <c r="D47" s="127"/>
-      <c r="E47" s="128"/>
-      <c r="F47" s="128"/>
-      <c r="H47" s="101"/>
-      <c r="I47" s="103"/>
+    <row r="46" spans="1:14" s="4" customFormat="1" ht="13.2" customHeight="1" outlineLevel="1">
+      <c r="A46" s="134" t="s">
+        <v>164</v>
+      </c>
+      <c r="B46" s="135"/>
+      <c r="C46" s="135"/>
+      <c r="D46" s="135"/>
+      <c r="E46" s="135"/>
+      <c r="F46" s="135"/>
+      <c r="G46" s="135"/>
+      <c r="H46" s="135"/>
+      <c r="I46" s="135"/>
+      <c r="J46" s="136"/>
+    </row>
+    <row r="47" spans="1:14" s="93" customFormat="1" ht="34.799999999999997" customHeight="1" outlineLevel="1">
+      <c r="A47" s="88" t="s">
+        <v>135</v>
+      </c>
+      <c r="B47" s="105" t="s">
+        <v>125</v>
+      </c>
+      <c r="C47" s="105" t="s">
+        <v>159</v>
+      </c>
+      <c r="D47" s="129" t="s">
+        <v>154</v>
+      </c>
+      <c r="E47" s="132"/>
+      <c r="F47" s="132"/>
+      <c r="G47" s="168"/>
+      <c r="H47" s="168"/>
+      <c r="I47" s="113" t="s">
+        <v>47</v>
+      </c>
       <c r="J47" s="94"/>
     </row>
-    <row r="48" spans="1:14" s="93" customFormat="1" ht="87.75" customHeight="1" outlineLevel="1">
-      <c r="A48" s="88"/>
-      <c r="B48" s="98"/>
-      <c r="C48" s="92"/>
-      <c r="D48" s="127"/>
-      <c r="E48" s="128"/>
-      <c r="F48" s="128"/>
-      <c r="H48" s="101"/>
-      <c r="I48" s="103"/>
+    <row r="48" spans="1:14" s="93" customFormat="1" ht="35.4" customHeight="1" outlineLevel="1">
+      <c r="A48" s="88" t="s">
+        <v>140</v>
+      </c>
+      <c r="B48" s="98" t="s">
+        <v>141</v>
+      </c>
+      <c r="C48" s="92" t="s">
+        <v>160</v>
+      </c>
+      <c r="D48" s="150" t="s">
+        <v>157</v>
+      </c>
+      <c r="E48" s="151"/>
+      <c r="F48" s="151"/>
+      <c r="H48" s="167"/>
+      <c r="I48" s="109" t="s">
+        <v>47</v>
+      </c>
       <c r="J48" s="94"/>
     </row>
-    <row r="49" spans="1:10" s="93" customFormat="1" ht="62.25" customHeight="1" outlineLevel="1">
-      <c r="A49" s="88"/>
-      <c r="B49" s="98"/>
-      <c r="C49" s="92"/>
-      <c r="D49" s="127"/>
-      <c r="E49" s="128"/>
-      <c r="F49" s="128"/>
-      <c r="H49" s="101"/>
-      <c r="I49" s="103"/>
-      <c r="J49" s="94"/>
-    </row>
-    <row r="50" spans="1:10" s="4" customFormat="1" ht="13.2" customHeight="1" outlineLevel="1">
-      <c r="A50" s="136"/>
-      <c r="B50" s="137"/>
-      <c r="C50" s="137"/>
-      <c r="D50" s="137"/>
-      <c r="E50" s="137"/>
-      <c r="F50" s="137"/>
-      <c r="G50" s="137"/>
-      <c r="H50" s="137"/>
-      <c r="I50" s="137"/>
-      <c r="J50" s="138"/>
-    </row>
-    <row r="51" spans="1:10" s="93" customFormat="1" ht="87.75" customHeight="1" outlineLevel="1">
-      <c r="A51" s="88"/>
-      <c r="B51" s="98"/>
-      <c r="C51" s="92"/>
-      <c r="D51" s="127"/>
-      <c r="E51" s="128"/>
-      <c r="F51" s="128"/>
-      <c r="H51" s="101"/>
-      <c r="I51" s="103"/>
-      <c r="J51" s="94"/>
-    </row>
-    <row r="52" spans="1:10" s="4" customFormat="1" ht="13.2" customHeight="1">
-      <c r="A52" s="136"/>
-      <c r="B52" s="137"/>
-      <c r="C52" s="137"/>
-      <c r="D52" s="137"/>
-      <c r="E52" s="137"/>
-      <c r="F52" s="137"/>
-      <c r="G52" s="137"/>
-      <c r="H52" s="137"/>
-      <c r="I52" s="137"/>
-      <c r="J52" s="138"/>
-    </row>
-    <row r="53" spans="1:10" s="93" customFormat="1" ht="101.25" customHeight="1" outlineLevel="1">
+    <row r="49" spans="1:10" s="93" customFormat="1" ht="37.799999999999997" customHeight="1" outlineLevel="1">
+      <c r="A49" s="88" t="s">
+        <v>143</v>
+      </c>
+      <c r="B49" s="98" t="s">
+        <v>144</v>
+      </c>
+      <c r="C49" s="92" t="s">
+        <v>161</v>
+      </c>
+      <c r="D49" s="126" t="s">
+        <v>149</v>
+      </c>
+      <c r="E49" s="132"/>
+      <c r="F49" s="132"/>
+      <c r="H49" s="111"/>
+      <c r="I49" s="109" t="s">
+        <v>47</v>
+      </c>
+      <c r="J49" s="110"/>
+    </row>
+    <row r="50" spans="1:10" s="93" customFormat="1" ht="30.6" customHeight="1" outlineLevel="1">
+      <c r="A50" s="88" t="s">
+        <v>146</v>
+      </c>
+      <c r="B50" s="98" t="s">
+        <v>147</v>
+      </c>
+      <c r="C50" s="92" t="s">
+        <v>162</v>
+      </c>
+      <c r="D50" s="126" t="s">
+        <v>150</v>
+      </c>
+      <c r="E50" s="132"/>
+      <c r="F50" s="132"/>
+      <c r="H50" s="101"/>
+      <c r="I50" s="169" t="s">
+        <v>47</v>
+      </c>
+      <c r="J50" s="94"/>
+    </row>
+    <row r="51" spans="1:10" s="4" customFormat="1" ht="13.2" customHeight="1">
+      <c r="A51" s="134" t="s">
+        <v>163</v>
+      </c>
+      <c r="B51" s="135"/>
+      <c r="C51" s="135"/>
+      <c r="D51" s="135"/>
+      <c r="E51" s="135"/>
+      <c r="F51" s="135"/>
+      <c r="G51" s="135"/>
+      <c r="H51" s="135"/>
+      <c r="I51" s="135"/>
+      <c r="J51" s="136"/>
+    </row>
+    <row r="52" spans="1:10" s="93" customFormat="1" ht="27.75" customHeight="1" outlineLevel="1">
+      <c r="A52" s="88" t="s">
+        <v>135</v>
+      </c>
+      <c r="B52" s="105" t="s">
+        <v>125</v>
+      </c>
+      <c r="C52" s="105" t="s">
+        <v>165</v>
+      </c>
+      <c r="D52" s="129" t="s">
+        <v>154</v>
+      </c>
+      <c r="E52" s="132"/>
+      <c r="F52" s="132"/>
+      <c r="G52" s="168"/>
+      <c r="H52" s="168"/>
+      <c r="I52" s="113" t="s">
+        <v>47</v>
+      </c>
+      <c r="J52" s="94"/>
+    </row>
+    <row r="53" spans="1:10" s="93" customFormat="1" ht="81" customHeight="1" outlineLevel="1">
       <c r="A53" s="88"/>
       <c r="B53" s="98"/>
       <c r="C53" s="92"/>
-      <c r="D53" s="127"/>
-      <c r="E53" s="128"/>
-      <c r="F53" s="128"/>
+      <c r="D53" s="137"/>
+      <c r="E53" s="132"/>
+      <c r="F53" s="132"/>
       <c r="H53" s="101"/>
-      <c r="I53" s="115"/>
+      <c r="I53" s="103"/>
       <c r="J53" s="94"/>
     </row>
-    <row r="54" spans="1:10" s="93" customFormat="1" ht="96" customHeight="1" outlineLevel="1">
-      <c r="A54" s="88"/>
-      <c r="B54" s="98"/>
-      <c r="C54" s="92"/>
-      <c r="D54" s="127"/>
-      <c r="E54" s="128"/>
-      <c r="F54" s="128"/>
-      <c r="H54" s="101"/>
-      <c r="I54" s="103"/>
-      <c r="J54" s="94"/>
-    </row>
-    <row r="55" spans="1:10" s="93" customFormat="1" ht="96" customHeight="1" outlineLevel="1">
-      <c r="A55" s="88"/>
-      <c r="B55" s="98"/>
-      <c r="C55" s="92"/>
-      <c r="D55" s="127"/>
-      <c r="E55" s="128"/>
-      <c r="F55" s="128"/>
-      <c r="H55" s="101"/>
-      <c r="I55" s="103"/>
-      <c r="J55" s="94"/>
-    </row>
-    <row r="56" spans="1:10" s="4" customFormat="1" ht="13.2" customHeight="1">
-      <c r="A56" s="136"/>
-      <c r="B56" s="137"/>
-      <c r="C56" s="137"/>
-      <c r="D56" s="137"/>
-      <c r="E56" s="137"/>
-      <c r="F56" s="137"/>
-      <c r="G56" s="137"/>
-      <c r="H56" s="137"/>
-      <c r="I56" s="137"/>
-      <c r="J56" s="138"/>
-    </row>
-    <row r="57" spans="1:10" s="93" customFormat="1" ht="27.75" customHeight="1" outlineLevel="1">
-      <c r="A57" s="165"/>
-      <c r="B57" s="166"/>
-      <c r="C57" s="167"/>
-      <c r="D57" s="127"/>
-      <c r="E57" s="128"/>
-      <c r="F57" s="128"/>
+    <row r="54" spans="1:10" s="4" customFormat="1" ht="13.2" customHeight="1">
+      <c r="A54" s="134"/>
+      <c r="B54" s="135"/>
+      <c r="C54" s="135"/>
+      <c r="D54" s="135"/>
+      <c r="E54" s="135"/>
+      <c r="F54" s="135"/>
+      <c r="G54" s="135"/>
+      <c r="H54" s="135"/>
+      <c r="I54" s="135"/>
+      <c r="J54" s="136"/>
+    </row>
+    <row r="55" spans="1:10" s="4" customFormat="1" ht="13.2" customHeight="1" outlineLevel="1">
+      <c r="A55" s="134"/>
+      <c r="B55" s="135"/>
+      <c r="C55" s="135"/>
+      <c r="D55" s="135"/>
+      <c r="E55" s="135"/>
+      <c r="F55" s="135"/>
+      <c r="G55" s="135"/>
+      <c r="H55" s="135"/>
+      <c r="I55" s="135"/>
+      <c r="J55" s="136"/>
+    </row>
+    <row r="56" spans="1:10" s="93" customFormat="1" ht="87.75" customHeight="1" outlineLevel="1">
+      <c r="A56" s="88"/>
+      <c r="B56" s="98"/>
+      <c r="C56" s="92"/>
+      <c r="D56" s="126"/>
+      <c r="E56" s="132"/>
+      <c r="F56" s="132"/>
+      <c r="H56" s="101"/>
+      <c r="I56" s="103"/>
+      <c r="J56" s="94"/>
+    </row>
+    <row r="57" spans="1:10" s="93" customFormat="1" ht="87.75" customHeight="1" outlineLevel="1">
+      <c r="A57" s="88"/>
+      <c r="B57" s="98"/>
+      <c r="C57" s="92"/>
+      <c r="D57" s="126"/>
+      <c r="E57" s="132"/>
+      <c r="F57" s="132"/>
       <c r="H57" s="101"/>
       <c r="I57" s="103"/>
       <c r="J57" s="94"/>
     </row>
-    <row r="58" spans="1:10" s="93" customFormat="1" ht="27.75" customHeight="1" outlineLevel="1">
-      <c r="A58" s="88"/>
-      <c r="B58" s="98"/>
-      <c r="C58" s="92"/>
-      <c r="D58" s="127"/>
-      <c r="E58" s="128"/>
-      <c r="F58" s="128"/>
-      <c r="H58" s="101"/>
-      <c r="I58" s="103"/>
-      <c r="J58" s="94"/>
-    </row>
-    <row r="59" spans="1:10" s="93" customFormat="1" ht="81" customHeight="1" outlineLevel="1">
+    <row r="58" spans="1:10" s="4" customFormat="1" ht="13.2" customHeight="1" outlineLevel="1">
+      <c r="A58" s="134"/>
+      <c r="B58" s="135"/>
+      <c r="C58" s="135"/>
+      <c r="D58" s="135"/>
+      <c r="E58" s="135"/>
+      <c r="F58" s="135"/>
+      <c r="G58" s="135"/>
+      <c r="H58" s="135"/>
+      <c r="I58" s="135"/>
+      <c r="J58" s="136"/>
+    </row>
+    <row r="59" spans="1:10" s="93" customFormat="1" ht="87.75" customHeight="1" outlineLevel="1">
       <c r="A59" s="88"/>
       <c r="B59" s="98"/>
       <c r="C59" s="92"/>
-      <c r="D59" s="164"/>
-      <c r="E59" s="128"/>
-      <c r="F59" s="128"/>
+      <c r="D59" s="126"/>
+      <c r="E59" s="132"/>
+      <c r="F59" s="132"/>
       <c r="H59" s="101"/>
       <c r="I59" s="103"/>
       <c r="J59" s="94"/>
     </row>
-    <row r="60" spans="1:10" s="4" customFormat="1" ht="13.2" customHeight="1">
-      <c r="A60" s="136"/>
-      <c r="B60" s="137"/>
-      <c r="C60" s="137"/>
-      <c r="D60" s="137"/>
-      <c r="E60" s="137"/>
-      <c r="F60" s="137"/>
-      <c r="G60" s="137"/>
-      <c r="H60" s="137"/>
-      <c r="I60" s="137"/>
-      <c r="J60" s="138"/>
+    <row r="60" spans="1:10" s="93" customFormat="1" ht="87.75" customHeight="1" outlineLevel="1">
+      <c r="A60" s="88"/>
+      <c r="B60" s="98"/>
+      <c r="C60" s="92"/>
+      <c r="D60" s="126"/>
+      <c r="E60" s="132"/>
+      <c r="F60" s="132"/>
+      <c r="H60" s="101"/>
+      <c r="I60" s="103"/>
+      <c r="J60" s="94"/>
     </row>
     <row r="61" spans="1:10" s="4" customFormat="1" ht="13.2" customHeight="1" outlineLevel="1">
-      <c r="A61" s="136"/>
-      <c r="B61" s="137"/>
-      <c r="C61" s="137"/>
-      <c r="D61" s="137"/>
-      <c r="E61" s="137"/>
-      <c r="F61" s="137"/>
-      <c r="G61" s="137"/>
-      <c r="H61" s="137"/>
-      <c r="I61" s="137"/>
-      <c r="J61" s="138"/>
+      <c r="A61" s="134"/>
+      <c r="B61" s="135"/>
+      <c r="C61" s="135"/>
+      <c r="D61" s="135"/>
+      <c r="E61" s="135"/>
+      <c r="F61" s="135"/>
+      <c r="G61" s="135"/>
+      <c r="H61" s="135"/>
+      <c r="I61" s="135"/>
+      <c r="J61" s="136"/>
     </row>
     <row r="62" spans="1:10" s="93" customFormat="1" ht="87.75" customHeight="1" outlineLevel="1">
       <c r="A62" s="88"/>
       <c r="B62" s="98"/>
       <c r="C62" s="92"/>
-      <c r="D62" s="127"/>
-      <c r="E62" s="128"/>
-      <c r="F62" s="128"/>
+      <c r="D62" s="126"/>
+      <c r="E62" s="132"/>
+      <c r="F62" s="132"/>
       <c r="H62" s="101"/>
       <c r="I62" s="103"/>
       <c r="J62" s="94"/>
@@ -5590,32 +5817,32 @@
       <c r="A63" s="88"/>
       <c r="B63" s="98"/>
       <c r="C63" s="92"/>
-      <c r="D63" s="127"/>
-      <c r="E63" s="128"/>
-      <c r="F63" s="128"/>
+      <c r="D63" s="126"/>
+      <c r="E63" s="132"/>
+      <c r="F63" s="132"/>
       <c r="H63" s="101"/>
       <c r="I63" s="103"/>
       <c r="J63" s="94"/>
     </row>
     <row r="64" spans="1:10" s="4" customFormat="1" ht="13.2" customHeight="1" outlineLevel="1">
-      <c r="A64" s="136"/>
-      <c r="B64" s="137"/>
-      <c r="C64" s="137"/>
-      <c r="D64" s="137"/>
-      <c r="E64" s="137"/>
-      <c r="F64" s="137"/>
-      <c r="G64" s="137"/>
-      <c r="H64" s="137"/>
-      <c r="I64" s="137"/>
-      <c r="J64" s="138"/>
+      <c r="A64" s="134"/>
+      <c r="B64" s="135"/>
+      <c r="C64" s="135"/>
+      <c r="D64" s="135"/>
+      <c r="E64" s="135"/>
+      <c r="F64" s="135"/>
+      <c r="G64" s="135"/>
+      <c r="H64" s="135"/>
+      <c r="I64" s="135"/>
+      <c r="J64" s="136"/>
     </row>
     <row r="65" spans="1:10" s="93" customFormat="1" ht="87.75" customHeight="1" outlineLevel="1">
       <c r="A65" s="88"/>
       <c r="B65" s="98"/>
       <c r="C65" s="92"/>
-      <c r="D65" s="127"/>
-      <c r="E65" s="128"/>
-      <c r="F65" s="128"/>
+      <c r="D65" s="126"/>
+      <c r="E65" s="132"/>
+      <c r="F65" s="132"/>
       <c r="H65" s="101"/>
       <c r="I65" s="103"/>
       <c r="J65" s="94"/>
@@ -5624,32 +5851,32 @@
       <c r="A66" s="88"/>
       <c r="B66" s="98"/>
       <c r="C66" s="92"/>
-      <c r="D66" s="127"/>
-      <c r="E66" s="128"/>
-      <c r="F66" s="128"/>
+      <c r="D66" s="126"/>
+      <c r="E66" s="132"/>
+      <c r="F66" s="132"/>
       <c r="H66" s="101"/>
       <c r="I66" s="103"/>
       <c r="J66" s="94"/>
     </row>
-    <row r="67" spans="1:10" s="4" customFormat="1" ht="13.2" customHeight="1" outlineLevel="1">
-      <c r="A67" s="136"/>
-      <c r="B67" s="137"/>
-      <c r="C67" s="137"/>
-      <c r="D67" s="137"/>
-      <c r="E67" s="137"/>
-      <c r="F67" s="137"/>
-      <c r="G67" s="137"/>
-      <c r="H67" s="137"/>
-      <c r="I67" s="137"/>
-      <c r="J67" s="138"/>
+    <row r="67" spans="1:10" s="4" customFormat="1" ht="13.2" customHeight="1">
+      <c r="A67" s="134"/>
+      <c r="B67" s="135"/>
+      <c r="C67" s="135"/>
+      <c r="D67" s="135"/>
+      <c r="E67" s="135"/>
+      <c r="F67" s="135"/>
+      <c r="G67" s="135"/>
+      <c r="H67" s="135"/>
+      <c r="I67" s="135"/>
+      <c r="J67" s="136"/>
     </row>
     <row r="68" spans="1:10" s="93" customFormat="1" ht="87.75" customHeight="1" outlineLevel="1">
       <c r="A68" s="88"/>
       <c r="B68" s="98"/>
       <c r="C68" s="92"/>
-      <c r="D68" s="127"/>
-      <c r="E68" s="128"/>
-      <c r="F68" s="128"/>
+      <c r="D68" s="126"/>
+      <c r="E68" s="132"/>
+      <c r="F68" s="132"/>
       <c r="H68" s="101"/>
       <c r="I68" s="103"/>
       <c r="J68" s="94"/>
@@ -5658,81 +5885,19 @@
       <c r="A69" s="88"/>
       <c r="B69" s="98"/>
       <c r="C69" s="92"/>
-      <c r="D69" s="127"/>
-      <c r="E69" s="128"/>
-      <c r="F69" s="128"/>
+      <c r="D69" s="126"/>
+      <c r="E69" s="132"/>
+      <c r="F69" s="132"/>
       <c r="H69" s="101"/>
       <c r="I69" s="103"/>
       <c r="J69" s="94"/>
     </row>
-    <row r="70" spans="1:10" s="4" customFormat="1" ht="13.2" customHeight="1" outlineLevel="1">
-      <c r="A70" s="136"/>
-      <c r="B70" s="137"/>
-      <c r="C70" s="137"/>
-      <c r="D70" s="137"/>
-      <c r="E70" s="137"/>
-      <c r="F70" s="137"/>
-      <c r="G70" s="137"/>
-      <c r="H70" s="137"/>
-      <c r="I70" s="137"/>
-      <c r="J70" s="138"/>
-    </row>
-    <row r="71" spans="1:10" s="93" customFormat="1" ht="87.75" customHeight="1" outlineLevel="1">
-      <c r="A71" s="88"/>
-      <c r="B71" s="98"/>
-      <c r="C71" s="92"/>
-      <c r="D71" s="127"/>
-      <c r="E71" s="128"/>
-      <c r="F71" s="128"/>
-      <c r="H71" s="101"/>
-      <c r="I71" s="103"/>
-      <c r="J71" s="94"/>
-    </row>
-    <row r="72" spans="1:10" s="93" customFormat="1" ht="87.75" customHeight="1" outlineLevel="1">
-      <c r="A72" s="88"/>
-      <c r="B72" s="98"/>
-      <c r="C72" s="92"/>
-      <c r="D72" s="127"/>
-      <c r="E72" s="128"/>
-      <c r="F72" s="128"/>
-      <c r="H72" s="101"/>
-      <c r="I72" s="103"/>
-      <c r="J72" s="94"/>
-    </row>
-    <row r="73" spans="1:10" s="4" customFormat="1" ht="13.2" customHeight="1">
-      <c r="A73" s="136"/>
-      <c r="B73" s="137"/>
-      <c r="C73" s="137"/>
-      <c r="D73" s="137"/>
-      <c r="E73" s="137"/>
-      <c r="F73" s="137"/>
-      <c r="G73" s="137"/>
-      <c r="H73" s="137"/>
-      <c r="I73" s="137"/>
-      <c r="J73" s="138"/>
-    </row>
-    <row r="74" spans="1:10" s="93" customFormat="1" ht="87.75" customHeight="1" outlineLevel="1">
-      <c r="A74" s="88"/>
-      <c r="B74" s="98"/>
-      <c r="C74" s="92"/>
-      <c r="D74" s="127"/>
-      <c r="E74" s="128"/>
-      <c r="F74" s="128"/>
-      <c r="H74" s="101"/>
-      <c r="I74" s="103"/>
-      <c r="J74" s="94"/>
-    </row>
-    <row r="75" spans="1:10" s="93" customFormat="1" ht="87.75" customHeight="1" outlineLevel="1">
-      <c r="A75" s="88"/>
-      <c r="B75" s="98"/>
-      <c r="C75" s="92"/>
-      <c r="D75" s="127"/>
-      <c r="E75" s="128"/>
-      <c r="F75" s="128"/>
-      <c r="H75" s="101"/>
-      <c r="I75" s="103"/>
-      <c r="J75" s="94"/>
-    </row>
+    <row r="70" spans="1:10" ht="12" customHeight="1"/>
+    <row r="71" spans="1:10" ht="12" customHeight="1"/>
+    <row r="72" spans="1:10" ht="12" customHeight="1"/>
+    <row r="73" spans="1:10" ht="12" customHeight="1"/>
+    <row r="74" spans="1:10" ht="12" customHeight="1"/>
+    <row r="75" spans="1:10" ht="12" customHeight="1"/>
     <row r="76" spans="1:10" ht="12" customHeight="1"/>
     <row r="77" spans="1:10" ht="12" customHeight="1"/>
     <row r="78" spans="1:10" ht="12" customHeight="1"/>
@@ -5765,70 +5930,19 @@
     <row r="105" ht="12" customHeight="1"/>
     <row r="106" ht="12" customHeight="1"/>
     <row r="107" ht="12" customHeight="1"/>
-    <row r="108" ht="12" customHeight="1"/>
-    <row r="109" ht="12" customHeight="1"/>
-    <row r="110" ht="12" customHeight="1"/>
-    <row r="111" ht="12" customHeight="1"/>
-    <row r="112" ht="12" customHeight="1"/>
-    <row r="113" ht="12" customHeight="1"/>
   </sheetData>
-  <mergeCells count="83">
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="A60:J60"/>
-    <mergeCell ref="A42:J42"/>
-    <mergeCell ref="A41:J41"/>
-    <mergeCell ref="A36:J36"/>
-    <mergeCell ref="D49:F49"/>
-    <mergeCell ref="D48:F48"/>
-    <mergeCell ref="A56:J56"/>
-    <mergeCell ref="D51:F51"/>
-    <mergeCell ref="D58:F58"/>
-    <mergeCell ref="D59:F59"/>
-    <mergeCell ref="A57:C57"/>
-    <mergeCell ref="D57:F57"/>
-    <mergeCell ref="A50:J50"/>
-    <mergeCell ref="A52:J52"/>
-    <mergeCell ref="A73:J73"/>
-    <mergeCell ref="D74:F74"/>
-    <mergeCell ref="D75:F75"/>
-    <mergeCell ref="D54:F54"/>
-    <mergeCell ref="D69:F69"/>
-    <mergeCell ref="A70:J70"/>
-    <mergeCell ref="D71:F71"/>
-    <mergeCell ref="D72:F72"/>
-    <mergeCell ref="D65:F65"/>
-    <mergeCell ref="D66:F66"/>
-    <mergeCell ref="D68:F68"/>
-    <mergeCell ref="D62:F62"/>
-    <mergeCell ref="D63:F63"/>
-    <mergeCell ref="A61:J61"/>
-    <mergeCell ref="A64:J64"/>
-    <mergeCell ref="A67:J67"/>
-    <mergeCell ref="D53:F53"/>
-    <mergeCell ref="D55:F55"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:G10"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="A33:C33"/>
+  <mergeCells count="76">
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="D42:F42"/>
+    <mergeCell ref="D43:F43"/>
+    <mergeCell ref="D44:F44"/>
+    <mergeCell ref="D45:F45"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="D40:F40"/>
+    <mergeCell ref="D39:F39"/>
+    <mergeCell ref="D38:F38"/>
     <mergeCell ref="B1:D2"/>
     <mergeCell ref="A8:D8"/>
     <mergeCell ref="B5:D5"/>
@@ -5844,18 +5958,56 @@
     <mergeCell ref="H9:H10"/>
     <mergeCell ref="A11:J11"/>
     <mergeCell ref="I9:I10"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="D43:F43"/>
-    <mergeCell ref="D44:F44"/>
-    <mergeCell ref="D45:F45"/>
+    <mergeCell ref="D48:F48"/>
+    <mergeCell ref="D50:F50"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:G10"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="A67:J67"/>
+    <mergeCell ref="D68:F68"/>
+    <mergeCell ref="D69:F69"/>
+    <mergeCell ref="D49:F49"/>
+    <mergeCell ref="D63:F63"/>
+    <mergeCell ref="A64:J64"/>
+    <mergeCell ref="D65:F65"/>
+    <mergeCell ref="D66:F66"/>
+    <mergeCell ref="D59:F59"/>
+    <mergeCell ref="D60:F60"/>
+    <mergeCell ref="D62:F62"/>
+    <mergeCell ref="D56:F56"/>
+    <mergeCell ref="D57:F57"/>
+    <mergeCell ref="A55:J55"/>
+    <mergeCell ref="A58:J58"/>
+    <mergeCell ref="A61:J61"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="A54:J54"/>
+    <mergeCell ref="A41:J41"/>
+    <mergeCell ref="A36:J36"/>
+    <mergeCell ref="A51:J51"/>
     <mergeCell ref="D47:F47"/>
-    <mergeCell ref="D46:F46"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="D40:F40"/>
-    <mergeCell ref="D39:F39"/>
-    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="D52:F52"/>
+    <mergeCell ref="D53:F53"/>
+    <mergeCell ref="A46:J46"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="D29:F29"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5912,7 +6064,7 @@
       <c r="B4" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="116"/>
+      <c r="C4" s="115"/>
       <c r="D4" s="19"/>
       <c r="E4" s="19"/>
       <c r="F4" s="19"/>
@@ -5968,7 +6120,7 @@
       </c>
       <c r="D8" s="76">
         <f>'Export all carrier choices'!B6</f>
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="E8" s="75">
         <f>'Export all carrier choices'!B7</f>
@@ -5980,7 +6132,7 @@
       </c>
       <c r="G8" s="76">
         <f>'Export all carrier choices'!D7</f>
-        <v>10</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="13.8">
@@ -6000,7 +6152,7 @@
       </c>
       <c r="D10" s="61">
         <f>SUM(D6:D9)</f>
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="E10" s="61">
         <f>SUM(E6:E9)</f>
@@ -6012,7 +6164,7 @@
       </c>
       <c r="G10" s="62">
         <f>SUM(G6:G9)</f>
-        <v>10</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="13.8">
@@ -6033,7 +6185,7 @@
       <c r="D12" s="19"/>
       <c r="E12" s="24">
         <f>(D10+E10)*100/G10</f>
-        <v>210</v>
+        <v>130.76923076923077</v>
       </c>
       <c r="F12" s="19" t="s">
         <v>31</v>
@@ -6049,7 +6201,7 @@
       <c r="D13" s="19"/>
       <c r="E13" s="24">
         <f>D10*100/G10</f>
-        <v>180</v>
+        <v>119.23076923076923</v>
       </c>
       <c r="F13" s="19" t="s">
         <v>31</v>

--- a/test-case-example.xlsx
+++ b/test-case-example.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\QLCafe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AEEB6E8-74E1-44E8-B376-E635896B5179}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{152D2ABA-F457-4065-9006-BF1E5870B8D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="821" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="183">
   <si>
     <t>TC16</t>
   </si>
@@ -498,15 +498,7 @@
     <t>TC22</t>
   </si>
   <si>
-    <t xml:space="preserve">vào form "thống kê"
-</t>
-  </si>
-  <si>
     <t>form "thống kê" hiện lên</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vào form "quản lý thức uống"
-</t>
   </si>
   <si>
     <t>form "quản lý thức uống" hiện lên</t>
@@ -554,13 +546,6 @@
     <t xml:space="preserve">Check nút Xóa(-)  thức uống </t>
   </si>
   <si>
-    <t xml:space="preserve">vào form "quản lý loại thức uống"
-</t>
-  </si>
-  <si>
-    <t>form "quản lý loại thức uống" hiện lên</t>
-  </si>
-  <si>
     <t>1.Điền Tên thức uống và giá ở combobox
 2.Ấn nút "Thêm"</t>
   </si>
@@ -569,9 +554,6 @@
 2.Ấn nút "Thêm"</t>
   </si>
   <si>
-    <t>thông báo "đã thêm thành công"</t>
-  </si>
-  <si>
     <t>1.Chọn loại thức uống 
 2.Ấn nút"Xóa"</t>
   </si>
@@ -595,8 +577,78 @@
     <t>4.Form quản lý bàn</t>
   </si>
   <si>
-    <t xml:space="preserve">vào form "Quản lý tài khoản"
+    <t>Thêm tài khoản</t>
+  </si>
+  <si>
+    <t>pass</t>
+  </si>
+  <si>
+    <t>Xóa tài khoản</t>
+  </si>
+  <si>
+    <t>Sửa tài khoản</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nhập bất kì kí tự vào ô nhập liệu (kể cả kí tự đặt biệt và dấu cách)
 </t>
+  </si>
+  <si>
+    <t>Chọn bất kì account nào đã tạo muốn xóa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chọn "quản lý loại thức uống"
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chọn "quản lý thức uống"
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chọn "thống kê"
+</t>
+  </si>
+  <si>
+    <t>Chọn bất kì account nào đã tạo muốn sửa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chọn "Quản lý tài khoản"
+</t>
+  </si>
+  <si>
+    <t>Account được sửa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Account  được xóa </t>
+  </si>
+  <si>
+    <t>Account được thêm vào</t>
+  </si>
+  <si>
+    <t>Form "quản lý loại thức uống" hiện lên</t>
+  </si>
+  <si>
+    <t>Hiện thông báo "bạn sửa thành công"</t>
+  </si>
+  <si>
+    <t>Hiện thông báo "bạn xóa thành công"</t>
+  </si>
+  <si>
+    <t>Thông báo "đã thêm thành công"</t>
+  </si>
+  <si>
+    <t>hHện thông báo "bạn sửa thành công"</t>
+  </si>
+  <si>
+    <t>TC26</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Ngoại lệ khác 0 và 1</t>
+  </si>
+  <si>
+    <t>Thông báo "Chỉ nhận giá trị 0 và 1"</t>
   </si>
 </sst>
 </file>
@@ -801,7 +853,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="35">
+  <borders count="36">
     <border>
       <left/>
       <right/>
@@ -1261,6 +1313,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1268,7 +1329,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="170">
+  <cellXfs count="180">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -1577,141 +1638,169 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="31" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="32" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="33" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="34" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="24" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="31" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="32" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="33" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="34" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -4422,11 +4511,11 @@
       <c r="B6" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="C6" s="124" t="s">
+      <c r="C6" s="127" t="s">
         <v>64</v>
       </c>
-      <c r="D6" s="124"/>
-      <c r="E6" s="125"/>
+      <c r="D6" s="127"/>
+      <c r="E6" s="128"/>
       <c r="F6" s="26"/>
       <c r="G6" s="26"/>
     </row>
@@ -4435,11 +4524,11 @@
       <c r="B7" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="C7" s="124" t="s">
+      <c r="C7" s="127" t="s">
         <v>65</v>
       </c>
-      <c r="D7" s="124"/>
-      <c r="E7" s="125"/>
+      <c r="D7" s="127"/>
+      <c r="E7" s="128"/>
       <c r="F7" s="26"/>
       <c r="G7" s="26"/>
     </row>
@@ -4650,10 +4739,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N107"/>
+  <dimension ref="A1:N110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="C52" sqref="C52"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" outlineLevelRow="1"/>
@@ -4672,9 +4761,9 @@
       <c r="A1" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="153"/>
-      <c r="C1" s="153"/>
-      <c r="D1" s="153"/>
+      <c r="B1" s="134"/>
+      <c r="C1" s="134"/>
+      <c r="D1" s="134"/>
       <c r="E1" s="6"/>
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
@@ -4685,9 +4774,9 @@
     </row>
     <row r="2" spans="1:11" s="2" customFormat="1" ht="11.25" customHeight="1" thickBot="1">
       <c r="A2" s="7"/>
-      <c r="B2" s="154"/>
-      <c r="C2" s="154"/>
-      <c r="D2" s="154"/>
+      <c r="B2" s="135"/>
+      <c r="C2" s="135"/>
+      <c r="D2" s="135"/>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
@@ -4700,51 +4789,51 @@
       <c r="A3" s="65" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="124" t="s">
+      <c r="B3" s="127" t="s">
         <v>67</v>
       </c>
-      <c r="C3" s="124"/>
-      <c r="D3" s="125"/>
+      <c r="C3" s="127"/>
+      <c r="D3" s="128"/>
       <c r="E3" s="68"/>
       <c r="F3" s="68"/>
       <c r="G3" s="68"/>
-      <c r="H3" s="160"/>
-      <c r="I3" s="160"/>
-      <c r="J3" s="160"/>
+      <c r="H3" s="144"/>
+      <c r="I3" s="144"/>
+      <c r="J3" s="144"/>
       <c r="K3" s="9"/>
     </row>
     <row r="4" spans="1:11" s="3" customFormat="1" ht="13.2">
       <c r="A4" s="72" t="s">
         <v>46</v>
       </c>
-      <c r="B4" s="161" t="s">
+      <c r="B4" s="146" t="s">
         <v>68</v>
       </c>
-      <c r="C4" s="162"/>
-      <c r="D4" s="163"/>
+      <c r="C4" s="147"/>
+      <c r="D4" s="148"/>
       <c r="E4" s="68"/>
       <c r="F4" s="68"/>
       <c r="G4" s="68"/>
-      <c r="H4" s="160"/>
-      <c r="I4" s="160"/>
-      <c r="J4" s="160"/>
+      <c r="H4" s="144"/>
+      <c r="I4" s="144"/>
+      <c r="J4" s="144"/>
       <c r="K4" s="9"/>
     </row>
     <row r="5" spans="1:11" s="81" customFormat="1" ht="26.4">
       <c r="A5" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="156" t="s">
+      <c r="B5" s="137" t="s">
         <v>69</v>
       </c>
-      <c r="C5" s="157"/>
-      <c r="D5" s="158"/>
+      <c r="C5" s="138"/>
+      <c r="D5" s="139"/>
       <c r="E5" s="79"/>
       <c r="F5" s="79"/>
       <c r="G5" s="79"/>
-      <c r="H5" s="159"/>
-      <c r="I5" s="159"/>
-      <c r="J5" s="159"/>
+      <c r="H5" s="143"/>
+      <c r="I5" s="143"/>
+      <c r="J5" s="143"/>
       <c r="K5" s="80"/>
     </row>
     <row r="6" spans="1:11" s="3" customFormat="1" ht="15" customHeight="1">
@@ -4752,22 +4841,22 @@
         <v>47</v>
       </c>
       <c r="B6" s="95">
-        <f>COUNTIF(I12:I66,"Pass")</f>
-        <v>31</v>
+        <f>COUNTIF(I12:I69,"Pass")</f>
+        <v>35</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>48</v>
       </c>
       <c r="D6" s="13">
-        <f>COUNTIF(I10:I788,"Pending")</f>
+        <f>COUNTIF(I10:I791,"Pending")</f>
         <v>0</v>
       </c>
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
-      <c r="H6" s="160"/>
-      <c r="I6" s="160"/>
-      <c r="J6" s="160"/>
+      <c r="H6" s="144"/>
+      <c r="I6" s="144"/>
+      <c r="J6" s="144"/>
       <c r="K6" s="9"/>
     </row>
     <row r="7" spans="1:11" s="3" customFormat="1" ht="15" customHeight="1" thickBot="1">
@@ -4775,29 +4864,29 @@
         <v>11</v>
       </c>
       <c r="B7" s="96">
-        <f>COUNTIF(I12:I66,"Fail")</f>
+        <f>COUNTIF(I12:I69,"Fail")</f>
         <v>3</v>
       </c>
       <c r="C7" s="30" t="s">
         <v>37</v>
       </c>
       <c r="D7" s="66">
-        <f>COUNTA(A12:A69) -15</f>
-        <v>26</v>
+        <f>COUNTA(A12:A72) -15</f>
+        <v>30</v>
       </c>
       <c r="E7" s="69"/>
       <c r="F7" s="69"/>
       <c r="G7" s="69"/>
-      <c r="H7" s="160"/>
-      <c r="I7" s="160"/>
-      <c r="J7" s="160"/>
+      <c r="H7" s="144"/>
+      <c r="I7" s="144"/>
+      <c r="J7" s="144"/>
       <c r="K7" s="9"/>
     </row>
     <row r="8" spans="1:11" s="3" customFormat="1" ht="15" customHeight="1">
-      <c r="A8" s="155"/>
-      <c r="B8" s="155"/>
-      <c r="C8" s="155"/>
-      <c r="D8" s="155"/>
+      <c r="A8" s="136"/>
+      <c r="B8" s="136"/>
+      <c r="C8" s="136"/>
+      <c r="D8" s="136"/>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
@@ -4807,70 +4896,70 @@
       <c r="K8" s="9"/>
     </row>
     <row r="9" spans="1:11" s="83" customFormat="1" ht="12" customHeight="1">
-      <c r="A9" s="138" t="s">
+      <c r="A9" s="153" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="140" t="s">
+      <c r="B9" s="154" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="138" t="s">
+      <c r="C9" s="153" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="142" t="s">
+      <c r="D9" s="156" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="143"/>
-      <c r="F9" s="143"/>
-      <c r="G9" s="144"/>
-      <c r="H9" s="164" t="s">
+      <c r="E9" s="157"/>
+      <c r="F9" s="157"/>
+      <c r="G9" s="158"/>
+      <c r="H9" s="149" t="s">
         <v>36</v>
       </c>
-      <c r="I9" s="139" t="s">
+      <c r="I9" s="145" t="s">
         <v>15</v>
       </c>
-      <c r="J9" s="139" t="s">
+      <c r="J9" s="145" t="s">
         <v>41</v>
       </c>
       <c r="K9" s="82"/>
     </row>
     <row r="10" spans="1:11" s="71" customFormat="1" ht="12" customHeight="1">
-      <c r="A10" s="139"/>
-      <c r="B10" s="141"/>
-      <c r="C10" s="139"/>
-      <c r="D10" s="145"/>
-      <c r="E10" s="146"/>
-      <c r="F10" s="146"/>
-      <c r="G10" s="147"/>
-      <c r="H10" s="145"/>
-      <c r="I10" s="139"/>
-      <c r="J10" s="139"/>
+      <c r="A10" s="145"/>
+      <c r="B10" s="155"/>
+      <c r="C10" s="145"/>
+      <c r="D10" s="150"/>
+      <c r="E10" s="159"/>
+      <c r="F10" s="159"/>
+      <c r="G10" s="160"/>
+      <c r="H10" s="150"/>
+      <c r="I10" s="145"/>
+      <c r="J10" s="145"/>
       <c r="K10" s="70"/>
     </row>
     <row r="11" spans="1:11" s="84" customFormat="1" ht="15">
-      <c r="A11" s="165"/>
-      <c r="B11" s="165"/>
-      <c r="C11" s="165"/>
-      <c r="D11" s="165"/>
-      <c r="E11" s="165"/>
-      <c r="F11" s="165"/>
-      <c r="G11" s="165"/>
-      <c r="H11" s="165"/>
-      <c r="I11" s="165"/>
-      <c r="J11" s="166"/>
+      <c r="A11" s="151"/>
+      <c r="B11" s="151"/>
+      <c r="C11" s="151"/>
+      <c r="D11" s="151"/>
+      <c r="E11" s="151"/>
+      <c r="F11" s="151"/>
+      <c r="G11" s="151"/>
+      <c r="H11" s="151"/>
+      <c r="I11" s="151"/>
+      <c r="J11" s="152"/>
     </row>
     <row r="12" spans="1:11" s="4" customFormat="1" ht="13.2">
-      <c r="A12" s="134" t="s">
+      <c r="A12" s="140" t="s">
         <v>72</v>
       </c>
-      <c r="B12" s="135"/>
-      <c r="C12" s="135"/>
-      <c r="D12" s="135"/>
-      <c r="E12" s="135"/>
-      <c r="F12" s="135"/>
-      <c r="G12" s="135"/>
-      <c r="H12" s="135"/>
-      <c r="I12" s="135"/>
-      <c r="J12" s="136"/>
+      <c r="B12" s="141"/>
+      <c r="C12" s="141"/>
+      <c r="D12" s="141"/>
+      <c r="E12" s="141"/>
+      <c r="F12" s="141"/>
+      <c r="G12" s="141"/>
+      <c r="H12" s="141"/>
+      <c r="I12" s="141"/>
+      <c r="J12" s="142"/>
     </row>
     <row r="13" spans="1:11" s="4" customFormat="1" ht="39.6" customHeight="1" outlineLevel="1">
       <c r="A13" s="88" t="s">
@@ -4882,11 +4971,11 @@
       <c r="C13" s="87" t="s">
         <v>74</v>
       </c>
-      <c r="D13" s="126" t="s">
+      <c r="D13" s="129" t="s">
         <v>81</v>
       </c>
-      <c r="E13" s="132"/>
-      <c r="F13" s="132"/>
+      <c r="E13" s="130"/>
+      <c r="F13" s="130"/>
       <c r="G13" s="86"/>
       <c r="H13" s="112"/>
       <c r="I13" s="87" t="s">
@@ -4904,11 +4993,11 @@
       <c r="C14" s="87" t="s">
         <v>83</v>
       </c>
-      <c r="D14" s="132" t="s">
+      <c r="D14" s="130" t="s">
         <v>84</v>
       </c>
-      <c r="E14" s="132"/>
-      <c r="F14" s="132"/>
+      <c r="E14" s="130"/>
+      <c r="F14" s="130"/>
       <c r="G14" s="120"/>
       <c r="H14" s="94"/>
       <c r="I14" s="87" t="s">
@@ -4926,11 +5015,11 @@
       <c r="C15" s="87" t="s">
         <v>79</v>
       </c>
-      <c r="D15" s="150" t="s">
+      <c r="D15" s="132" t="s">
         <v>80</v>
       </c>
-      <c r="E15" s="151"/>
-      <c r="F15" s="152"/>
+      <c r="E15" s="133"/>
+      <c r="F15" s="164"/>
       <c r="G15" s="87"/>
       <c r="H15" s="97"/>
       <c r="I15" s="87" t="s">
@@ -4948,11 +5037,11 @@
       <c r="C16" s="87" t="s">
         <v>86</v>
       </c>
-      <c r="D16" s="132" t="s">
+      <c r="D16" s="130" t="s">
         <v>87</v>
       </c>
-      <c r="E16" s="132"/>
-      <c r="F16" s="132"/>
+      <c r="E16" s="130"/>
+      <c r="F16" s="130"/>
       <c r="G16" s="120"/>
       <c r="H16" s="94"/>
       <c r="I16" s="87" t="s">
@@ -4970,11 +5059,11 @@
       <c r="C17" s="87" t="s">
         <v>76</v>
       </c>
-      <c r="D17" s="126" t="s">
+      <c r="D17" s="129" t="s">
         <v>77</v>
       </c>
-      <c r="E17" s="132"/>
-      <c r="F17" s="132"/>
+      <c r="E17" s="130"/>
+      <c r="F17" s="130"/>
       <c r="G17" s="86"/>
       <c r="H17" s="112"/>
       <c r="I17" s="87" t="s">
@@ -4992,11 +5081,11 @@
       <c r="C18" s="87" t="s">
         <v>89</v>
       </c>
-      <c r="D18" s="126" t="s">
+      <c r="D18" s="129" t="s">
         <v>90</v>
       </c>
-      <c r="E18" s="132"/>
-      <c r="F18" s="133"/>
+      <c r="E18" s="130"/>
+      <c r="F18" s="165"/>
       <c r="G18" s="87"/>
       <c r="H18" s="94"/>
       <c r="I18" s="87" t="s">
@@ -5014,11 +5103,11 @@
       <c r="C19" s="87" t="s">
         <v>92</v>
       </c>
-      <c r="D19" s="126" t="s">
+      <c r="D19" s="129" t="s">
         <v>90</v>
       </c>
-      <c r="E19" s="132"/>
-      <c r="F19" s="133"/>
+      <c r="E19" s="130"/>
+      <c r="F19" s="165"/>
       <c r="G19" s="87"/>
       <c r="H19" s="94"/>
       <c r="I19" s="87" t="s">
@@ -5036,11 +5125,11 @@
       <c r="C20" s="87" t="s">
         <v>94</v>
       </c>
-      <c r="D20" s="126" t="s">
+      <c r="D20" s="129" t="s">
         <v>95</v>
       </c>
-      <c r="E20" s="132"/>
-      <c r="F20" s="133"/>
+      <c r="E20" s="130"/>
+      <c r="F20" s="165"/>
       <c r="G20" s="87"/>
       <c r="H20" s="94"/>
       <c r="I20" s="87" t="s">
@@ -5049,11 +5138,11 @@
       <c r="J20" s="85"/>
     </row>
     <row r="21" spans="1:10" s="4" customFormat="1" ht="13.2" customHeight="1" outlineLevel="1">
-      <c r="A21" s="148" t="s">
+      <c r="A21" s="161" t="s">
         <v>96</v>
       </c>
-      <c r="B21" s="149"/>
-      <c r="C21" s="149"/>
+      <c r="B21" s="162"/>
+      <c r="C21" s="162"/>
       <c r="D21" s="106"/>
       <c r="E21" s="106"/>
       <c r="F21" s="106"/>
@@ -5072,11 +5161,11 @@
       <c r="C22" s="105" t="s">
         <v>98</v>
       </c>
-      <c r="D22" s="129" t="s">
+      <c r="D22" s="131" t="s">
         <v>99</v>
       </c>
-      <c r="E22" s="132"/>
-      <c r="F22" s="132"/>
+      <c r="E22" s="130"/>
+      <c r="F22" s="130"/>
       <c r="G22" s="86"/>
       <c r="H22" s="119"/>
       <c r="I22" s="87" t="s">
@@ -5094,11 +5183,11 @@
       <c r="C23" s="105" t="s">
         <v>119</v>
       </c>
-      <c r="D23" s="129" t="s">
+      <c r="D23" s="131" t="s">
         <v>99</v>
       </c>
-      <c r="E23" s="130"/>
-      <c r="F23" s="130"/>
+      <c r="E23" s="163"/>
+      <c r="F23" s="163"/>
       <c r="G23" s="86"/>
       <c r="H23" s="112"/>
       <c r="I23" s="87" t="s">
@@ -5116,11 +5205,11 @@
       <c r="C24" s="105" t="s">
         <v>102</v>
       </c>
-      <c r="D24" s="126" t="s">
+      <c r="D24" s="129" t="s">
         <v>130</v>
       </c>
-      <c r="E24" s="132"/>
-      <c r="F24" s="132"/>
+      <c r="E24" s="130"/>
+      <c r="F24" s="130"/>
       <c r="G24" s="86"/>
       <c r="H24" s="94"/>
       <c r="I24" s="87" t="s">
@@ -5138,11 +5227,11 @@
       <c r="C25" s="105" t="s">
         <v>104</v>
       </c>
-      <c r="D25" s="129" t="s">
+      <c r="D25" s="131" t="s">
         <v>105</v>
       </c>
-      <c r="E25" s="132"/>
-      <c r="F25" s="132"/>
+      <c r="E25" s="130"/>
+      <c r="F25" s="130"/>
       <c r="G25" s="86"/>
       <c r="H25" s="119"/>
       <c r="I25" s="87" t="s">
@@ -5160,11 +5249,11 @@
       <c r="C26" s="87" t="s">
         <v>107</v>
       </c>
-      <c r="D26" s="129" t="s">
+      <c r="D26" s="131" t="s">
         <v>108</v>
       </c>
-      <c r="E26" s="130"/>
-      <c r="F26" s="131"/>
+      <c r="E26" s="163"/>
+      <c r="F26" s="169"/>
       <c r="G26" s="87"/>
       <c r="H26" s="87"/>
       <c r="I26" s="87" t="s">
@@ -5177,16 +5266,16 @@
         <v>57</v>
       </c>
       <c r="B27" s="87" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C27" s="87" t="s">
         <v>114</v>
       </c>
-      <c r="D27" s="129" t="s">
+      <c r="D27" s="131" t="s">
         <v>115</v>
       </c>
-      <c r="E27" s="130"/>
-      <c r="F27" s="131"/>
+      <c r="E27" s="163"/>
+      <c r="F27" s="169"/>
       <c r="G27" s="120"/>
       <c r="H27" s="87"/>
       <c r="I27" s="87" t="s">
@@ -5204,11 +5293,11 @@
       <c r="C28" s="87" t="s">
         <v>117</v>
       </c>
-      <c r="D28" s="129" t="s">
+      <c r="D28" s="131" t="s">
         <v>118</v>
       </c>
-      <c r="E28" s="130"/>
-      <c r="F28" s="131"/>
+      <c r="E28" s="163"/>
+      <c r="F28" s="169"/>
       <c r="G28" s="120"/>
       <c r="H28" s="87"/>
       <c r="I28" s="87" t="s">
@@ -5226,11 +5315,11 @@
       <c r="C29" s="87" t="s">
         <v>113</v>
       </c>
-      <c r="D29" s="129" t="s">
+      <c r="D29" s="131" t="s">
         <v>110</v>
       </c>
-      <c r="E29" s="127"/>
-      <c r="F29" s="128"/>
+      <c r="E29" s="167"/>
+      <c r="F29" s="168"/>
       <c r="G29" s="120"/>
       <c r="H29" s="87"/>
       <c r="I29" s="87" t="s">
@@ -5248,11 +5337,11 @@
       <c r="C30" s="87" t="s">
         <v>120</v>
       </c>
-      <c r="D30" s="129" t="s">
+      <c r="D30" s="131" t="s">
         <v>121</v>
       </c>
-      <c r="E30" s="130"/>
-      <c r="F30" s="131"/>
+      <c r="E30" s="163"/>
+      <c r="F30" s="169"/>
       <c r="G30" s="120"/>
       <c r="H30" s="87"/>
       <c r="I30" s="87" t="s">
@@ -5270,11 +5359,11 @@
       <c r="C31" s="87" t="s">
         <v>123</v>
       </c>
-      <c r="D31" s="126" t="s">
+      <c r="D31" s="129" t="s">
         <v>124</v>
       </c>
-      <c r="E31" s="127"/>
-      <c r="F31" s="128"/>
+      <c r="E31" s="167"/>
+      <c r="F31" s="168"/>
       <c r="G31" s="120"/>
       <c r="H31" s="87"/>
       <c r="I31" s="87" t="s">
@@ -5292,11 +5381,11 @@
       <c r="C32" s="87" t="s">
         <v>132</v>
       </c>
-      <c r="D32" s="126" t="s">
+      <c r="D32" s="129" t="s">
         <v>133</v>
       </c>
-      <c r="E32" s="132"/>
-      <c r="F32" s="132"/>
+      <c r="E32" s="130"/>
+      <c r="F32" s="130"/>
       <c r="G32" s="121"/>
       <c r="H32" s="87"/>
       <c r="I32" s="87" t="s">
@@ -5305,11 +5394,11 @@
       <c r="J32" s="123"/>
     </row>
     <row r="33" spans="1:14" s="4" customFormat="1" ht="13.8" customHeight="1" outlineLevel="1">
-      <c r="A33" s="148" t="s">
+      <c r="A33" s="161" t="s">
         <v>122</v>
       </c>
-      <c r="B33" s="149"/>
-      <c r="C33" s="149"/>
+      <c r="B33" s="162"/>
+      <c r="C33" s="162"/>
       <c r="D33" s="106"/>
       <c r="E33" s="106"/>
       <c r="F33" s="106"/>
@@ -5326,13 +5415,13 @@
         <v>125</v>
       </c>
       <c r="C34" s="105" t="s">
+        <v>168</v>
+      </c>
+      <c r="D34" s="131" t="s">
         <v>136</v>
       </c>
-      <c r="D34" s="129" t="s">
-        <v>137</v>
-      </c>
-      <c r="E34" s="132"/>
-      <c r="F34" s="132"/>
+      <c r="E34" s="130"/>
+      <c r="F34" s="130"/>
       <c r="G34" s="86"/>
       <c r="H34" s="100"/>
       <c r="I34" s="87" t="s">
@@ -5350,11 +5439,11 @@
       <c r="C35" s="105" t="s">
         <v>127</v>
       </c>
-      <c r="D35" s="129" t="s">
+      <c r="D35" s="131" t="s">
         <v>128</v>
       </c>
-      <c r="E35" s="132"/>
-      <c r="F35" s="132"/>
+      <c r="E35" s="130"/>
+      <c r="F35" s="130"/>
       <c r="G35" s="86"/>
       <c r="H35" s="112"/>
       <c r="I35" s="87" t="s">
@@ -5363,18 +5452,18 @@
       <c r="J35" s="85"/>
     </row>
     <row r="36" spans="1:14" s="4" customFormat="1" ht="13.2" customHeight="1">
-      <c r="A36" s="134" t="s">
+      <c r="A36" s="140" t="s">
         <v>129</v>
       </c>
-      <c r="B36" s="135"/>
-      <c r="C36" s="135"/>
-      <c r="D36" s="135"/>
-      <c r="E36" s="135"/>
-      <c r="F36" s="135"/>
-      <c r="G36" s="135"/>
-      <c r="H36" s="135"/>
-      <c r="I36" s="135"/>
-      <c r="J36" s="136"/>
+      <c r="B36" s="141"/>
+      <c r="C36" s="141"/>
+      <c r="D36" s="141"/>
+      <c r="E36" s="141"/>
+      <c r="F36" s="141"/>
+      <c r="G36" s="141"/>
+      <c r="H36" s="141"/>
+      <c r="I36" s="141"/>
+      <c r="J36" s="142"/>
     </row>
     <row r="37" spans="1:14" s="93" customFormat="1" ht="37.200000000000003" customHeight="1" outlineLevel="1">
       <c r="A37" s="88" t="s">
@@ -5384,15 +5473,15 @@
         <v>125</v>
       </c>
       <c r="C37" s="105" t="s">
-        <v>138</v>
-      </c>
-      <c r="D37" s="129" t="s">
-        <v>139</v>
-      </c>
-      <c r="E37" s="132"/>
-      <c r="F37" s="132"/>
-      <c r="G37" s="168"/>
-      <c r="H37" s="168"/>
+        <v>167</v>
+      </c>
+      <c r="D37" s="131" t="s">
+        <v>137</v>
+      </c>
+      <c r="E37" s="130"/>
+      <c r="F37" s="130"/>
+      <c r="G37" s="125"/>
+      <c r="H37" s="125"/>
       <c r="I37" s="113" t="s">
         <v>47</v>
       </c>
@@ -5400,20 +5489,20 @@
     </row>
     <row r="38" spans="1:14" s="93" customFormat="1" ht="46.2" customHeight="1" outlineLevel="1">
       <c r="A38" s="88" t="s">
+        <v>138</v>
+      </c>
+      <c r="B38" s="98" t="s">
+        <v>139</v>
+      </c>
+      <c r="C38" s="92" t="s">
+        <v>151</v>
+      </c>
+      <c r="D38" s="132" t="s">
         <v>140</v>
       </c>
-      <c r="B38" s="98" t="s">
-        <v>141</v>
-      </c>
-      <c r="C38" s="92" t="s">
-        <v>155</v>
-      </c>
-      <c r="D38" s="150" t="s">
-        <v>142</v>
-      </c>
-      <c r="E38" s="151"/>
-      <c r="F38" s="151"/>
-      <c r="H38" s="167"/>
+      <c r="E38" s="133"/>
+      <c r="F38" s="133"/>
+      <c r="H38" s="124"/>
       <c r="I38" s="109" t="s">
         <v>47</v>
       </c>
@@ -5421,19 +5510,19 @@
     </row>
     <row r="39" spans="1:14" s="93" customFormat="1" ht="43.2" customHeight="1" outlineLevel="1">
       <c r="A39" s="88" t="s">
+        <v>141</v>
+      </c>
+      <c r="B39" s="98" t="s">
+        <v>142</v>
+      </c>
+      <c r="C39" s="92" t="s">
         <v>143</v>
       </c>
-      <c r="B39" s="98" t="s">
-        <v>144</v>
-      </c>
-      <c r="C39" s="92" t="s">
-        <v>145</v>
-      </c>
-      <c r="D39" s="126" t="s">
-        <v>149</v>
-      </c>
-      <c r="E39" s="132"/>
-      <c r="F39" s="132"/>
+      <c r="D39" s="129" t="s">
+        <v>147</v>
+      </c>
+      <c r="E39" s="130"/>
+      <c r="F39" s="130"/>
       <c r="H39" s="111"/>
       <c r="I39" s="109" t="s">
         <v>47</v>
@@ -5446,38 +5535,38 @@
     </row>
     <row r="40" spans="1:14" s="93" customFormat="1" ht="52.8" customHeight="1" outlineLevel="1">
       <c r="A40" s="88" t="s">
+        <v>144</v>
+      </c>
+      <c r="B40" s="98" t="s">
+        <v>145</v>
+      </c>
+      <c r="C40" s="92" t="s">
         <v>146</v>
       </c>
-      <c r="B40" s="98" t="s">
-        <v>147</v>
-      </c>
-      <c r="C40" s="92" t="s">
+      <c r="D40" s="129" t="s">
         <v>148</v>
       </c>
-      <c r="D40" s="126" t="s">
-        <v>150</v>
-      </c>
-      <c r="E40" s="132"/>
-      <c r="F40" s="132"/>
+      <c r="E40" s="130"/>
+      <c r="F40" s="130"/>
       <c r="H40" s="101"/>
-      <c r="I40" s="169" t="s">
+      <c r="I40" s="126" t="s">
         <v>47</v>
       </c>
       <c r="J40" s="94"/>
     </row>
     <row r="41" spans="1:14" s="4" customFormat="1" ht="13.2" customHeight="1">
-      <c r="A41" s="134" t="s">
-        <v>151</v>
-      </c>
-      <c r="B41" s="135"/>
-      <c r="C41" s="135"/>
-      <c r="D41" s="135"/>
-      <c r="E41" s="135"/>
-      <c r="F41" s="135"/>
-      <c r="G41" s="135"/>
-      <c r="H41" s="135"/>
-      <c r="I41" s="135"/>
-      <c r="J41" s="136"/>
+      <c r="A41" s="140" t="s">
+        <v>149</v>
+      </c>
+      <c r="B41" s="141"/>
+      <c r="C41" s="141"/>
+      <c r="D41" s="141"/>
+      <c r="E41" s="141"/>
+      <c r="F41" s="141"/>
+      <c r="G41" s="141"/>
+      <c r="H41" s="141"/>
+      <c r="I41" s="141"/>
+      <c r="J41" s="142"/>
     </row>
     <row r="42" spans="1:14" s="93" customFormat="1" ht="70.5" customHeight="1" outlineLevel="1">
       <c r="A42" s="88" t="s">
@@ -5487,15 +5576,15 @@
         <v>125</v>
       </c>
       <c r="C42" s="105" t="s">
-        <v>153</v>
-      </c>
-      <c r="D42" s="129" t="s">
-        <v>154</v>
-      </c>
-      <c r="E42" s="132"/>
-      <c r="F42" s="132"/>
-      <c r="G42" s="168"/>
-      <c r="H42" s="168"/>
+        <v>166</v>
+      </c>
+      <c r="D42" s="131" t="s">
+        <v>174</v>
+      </c>
+      <c r="E42" s="130"/>
+      <c r="F42" s="130"/>
+      <c r="G42" s="125"/>
+      <c r="H42" s="125"/>
       <c r="I42" s="113" t="s">
         <v>47</v>
       </c>
@@ -5503,20 +5592,20 @@
     </row>
     <row r="43" spans="1:14" s="93" customFormat="1" ht="87.75" customHeight="1" outlineLevel="1">
       <c r="A43" s="88" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B43" s="98" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C43" s="92" t="s">
-        <v>156</v>
-      </c>
-      <c r="D43" s="150" t="s">
-        <v>157</v>
-      </c>
-      <c r="E43" s="151"/>
-      <c r="F43" s="151"/>
-      <c r="H43" s="167"/>
+        <v>152</v>
+      </c>
+      <c r="D43" s="132" t="s">
+        <v>177</v>
+      </c>
+      <c r="E43" s="133"/>
+      <c r="F43" s="133"/>
+      <c r="H43" s="124"/>
       <c r="I43" s="109" t="s">
         <v>47</v>
       </c>
@@ -5524,19 +5613,19 @@
     </row>
     <row r="44" spans="1:14" s="93" customFormat="1" ht="87.75" customHeight="1" outlineLevel="1">
       <c r="A44" s="88" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B44" s="98" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C44" s="92" t="s">
-        <v>158</v>
-      </c>
-      <c r="D44" s="126" t="s">
-        <v>149</v>
-      </c>
-      <c r="E44" s="132"/>
-      <c r="F44" s="132"/>
+        <v>153</v>
+      </c>
+      <c r="D44" s="129" t="s">
+        <v>176</v>
+      </c>
+      <c r="E44" s="130"/>
+      <c r="F44" s="130"/>
       <c r="H44" s="111"/>
       <c r="I44" s="109" t="s">
         <v>47</v>
@@ -5545,38 +5634,38 @@
     </row>
     <row r="45" spans="1:14" s="93" customFormat="1" ht="59.25" customHeight="1" outlineLevel="1">
       <c r="A45" s="88" t="s">
+        <v>144</v>
+      </c>
+      <c r="B45" s="98" t="s">
+        <v>145</v>
+      </c>
+      <c r="C45" s="92" t="s">
         <v>146</v>
       </c>
-      <c r="B45" s="98" t="s">
-        <v>147</v>
-      </c>
-      <c r="C45" s="92" t="s">
-        <v>148</v>
-      </c>
-      <c r="D45" s="126" t="s">
-        <v>150</v>
-      </c>
-      <c r="E45" s="132"/>
-      <c r="F45" s="132"/>
+      <c r="D45" s="129" t="s">
+        <v>178</v>
+      </c>
+      <c r="E45" s="130"/>
+      <c r="F45" s="130"/>
       <c r="H45" s="101"/>
-      <c r="I45" s="169" t="s">
+      <c r="I45" s="126" t="s">
         <v>47</v>
       </c>
       <c r="J45" s="94"/>
     </row>
     <row r="46" spans="1:14" s="4" customFormat="1" ht="13.2" customHeight="1" outlineLevel="1">
-      <c r="A46" s="134" t="s">
-        <v>164</v>
-      </c>
-      <c r="B46" s="135"/>
-      <c r="C46" s="135"/>
-      <c r="D46" s="135"/>
-      <c r="E46" s="135"/>
-      <c r="F46" s="135"/>
-      <c r="G46" s="135"/>
-      <c r="H46" s="135"/>
-      <c r="I46" s="135"/>
-      <c r="J46" s="136"/>
+      <c r="A46" s="140" t="s">
+        <v>159</v>
+      </c>
+      <c r="B46" s="141"/>
+      <c r="C46" s="141"/>
+      <c r="D46" s="141"/>
+      <c r="E46" s="141"/>
+      <c r="F46" s="141"/>
+      <c r="G46" s="141"/>
+      <c r="H46" s="141"/>
+      <c r="I46" s="141"/>
+      <c r="J46" s="142"/>
     </row>
     <row r="47" spans="1:14" s="93" customFormat="1" ht="34.799999999999997" customHeight="1" outlineLevel="1">
       <c r="A47" s="88" t="s">
@@ -5586,15 +5675,15 @@
         <v>125</v>
       </c>
       <c r="C47" s="105" t="s">
-        <v>159</v>
-      </c>
-      <c r="D47" s="129" t="s">
         <v>154</v>
       </c>
-      <c r="E47" s="132"/>
-      <c r="F47" s="132"/>
-      <c r="G47" s="168"/>
-      <c r="H47" s="168"/>
+      <c r="D47" s="131" t="s">
+        <v>174</v>
+      </c>
+      <c r="E47" s="130"/>
+      <c r="F47" s="130"/>
+      <c r="G47" s="125"/>
+      <c r="H47" s="125"/>
       <c r="I47" s="113" t="s">
         <v>47</v>
       </c>
@@ -5602,20 +5691,20 @@
     </row>
     <row r="48" spans="1:14" s="93" customFormat="1" ht="35.4" customHeight="1" outlineLevel="1">
       <c r="A48" s="88" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B48" s="98" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C48" s="92" t="s">
-        <v>160</v>
-      </c>
-      <c r="D48" s="150" t="s">
-        <v>157</v>
-      </c>
-      <c r="E48" s="151"/>
-      <c r="F48" s="151"/>
-      <c r="H48" s="167"/>
+        <v>155</v>
+      </c>
+      <c r="D48" s="132" t="s">
+        <v>177</v>
+      </c>
+      <c r="E48" s="133"/>
+      <c r="F48" s="133"/>
+      <c r="H48" s="124"/>
       <c r="I48" s="109" t="s">
         <v>47</v>
       </c>
@@ -5623,19 +5712,19 @@
     </row>
     <row r="49" spans="1:10" s="93" customFormat="1" ht="37.799999999999997" customHeight="1" outlineLevel="1">
       <c r="A49" s="88" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B49" s="98" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C49" s="92" t="s">
-        <v>161</v>
-      </c>
-      <c r="D49" s="126" t="s">
-        <v>149</v>
-      </c>
-      <c r="E49" s="132"/>
-      <c r="F49" s="132"/>
+        <v>156</v>
+      </c>
+      <c r="D49" s="129" t="s">
+        <v>176</v>
+      </c>
+      <c r="E49" s="130"/>
+      <c r="F49" s="130"/>
       <c r="H49" s="111"/>
       <c r="I49" s="109" t="s">
         <v>47</v>
@@ -5644,38 +5733,38 @@
     </row>
     <row r="50" spans="1:10" s="93" customFormat="1" ht="30.6" customHeight="1" outlineLevel="1">
       <c r="A50" s="88" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B50" s="98" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C50" s="92" t="s">
-        <v>162</v>
-      </c>
-      <c r="D50" s="126" t="s">
-        <v>150</v>
-      </c>
-      <c r="E50" s="132"/>
-      <c r="F50" s="132"/>
+        <v>157</v>
+      </c>
+      <c r="D50" s="129" t="s">
+        <v>175</v>
+      </c>
+      <c r="E50" s="130"/>
+      <c r="F50" s="130"/>
       <c r="H50" s="101"/>
-      <c r="I50" s="169" t="s">
+      <c r="I50" s="126" t="s">
         <v>47</v>
       </c>
       <c r="J50" s="94"/>
     </row>
     <row r="51" spans="1:10" s="4" customFormat="1" ht="13.2" customHeight="1">
-      <c r="A51" s="134" t="s">
-        <v>163</v>
-      </c>
-      <c r="B51" s="135"/>
-      <c r="C51" s="135"/>
-      <c r="D51" s="135"/>
-      <c r="E51" s="135"/>
-      <c r="F51" s="135"/>
-      <c r="G51" s="135"/>
-      <c r="H51" s="135"/>
-      <c r="I51" s="135"/>
-      <c r="J51" s="136"/>
+      <c r="A51" s="140" t="s">
+        <v>158</v>
+      </c>
+      <c r="B51" s="141"/>
+      <c r="C51" s="141"/>
+      <c r="D51" s="141"/>
+      <c r="E51" s="141"/>
+      <c r="F51" s="141"/>
+      <c r="G51" s="141"/>
+      <c r="H51" s="141"/>
+      <c r="I51" s="141"/>
+      <c r="J51" s="142"/>
     </row>
     <row r="52" spans="1:10" s="93" customFormat="1" ht="27.75" customHeight="1" outlineLevel="1">
       <c r="A52" s="88" t="s">
@@ -5685,96 +5774,138 @@
         <v>125</v>
       </c>
       <c r="C52" s="105" t="s">
-        <v>165</v>
-      </c>
-      <c r="D52" s="129" t="s">
-        <v>154</v>
-      </c>
-      <c r="E52" s="132"/>
-      <c r="F52" s="132"/>
-      <c r="G52" s="168"/>
-      <c r="H52" s="168"/>
+        <v>170</v>
+      </c>
+      <c r="D52" s="131" t="s">
+        <v>174</v>
+      </c>
+      <c r="E52" s="130"/>
+      <c r="F52" s="130"/>
+      <c r="G52" s="125"/>
+      <c r="H52" s="125"/>
       <c r="I52" s="113" t="s">
         <v>47</v>
       </c>
       <c r="J52" s="94"/>
     </row>
     <row r="53" spans="1:10" s="93" customFormat="1" ht="81" customHeight="1" outlineLevel="1">
-      <c r="A53" s="88"/>
-      <c r="B53" s="98"/>
-      <c r="C53" s="92"/>
-      <c r="D53" s="137"/>
-      <c r="E53" s="132"/>
-      <c r="F53" s="132"/>
-      <c r="H53" s="101"/>
-      <c r="I53" s="103"/>
-      <c r="J53" s="94"/>
-    </row>
-    <row r="54" spans="1:10" s="4" customFormat="1" ht="13.2" customHeight="1">
-      <c r="A54" s="134"/>
-      <c r="B54" s="135"/>
-      <c r="C54" s="135"/>
-      <c r="D54" s="135"/>
-      <c r="E54" s="135"/>
-      <c r="F54" s="135"/>
-      <c r="G54" s="135"/>
-      <c r="H54" s="135"/>
-      <c r="I54" s="135"/>
-      <c r="J54" s="136"/>
-    </row>
-    <row r="55" spans="1:10" s="4" customFormat="1" ht="13.2" customHeight="1" outlineLevel="1">
-      <c r="A55" s="134"/>
-      <c r="B55" s="135"/>
-      <c r="C55" s="135"/>
-      <c r="D55" s="135"/>
-      <c r="E55" s="135"/>
-      <c r="F55" s="135"/>
-      <c r="G55" s="135"/>
-      <c r="H55" s="135"/>
-      <c r="I55" s="135"/>
-      <c r="J55" s="136"/>
-    </row>
-    <row r="56" spans="1:10" s="93" customFormat="1" ht="87.75" customHeight="1" outlineLevel="1">
-      <c r="A56" s="88"/>
-      <c r="B56" s="98"/>
-      <c r="C56" s="92"/>
-      <c r="D56" s="126"/>
-      <c r="E56" s="132"/>
-      <c r="F56" s="132"/>
-      <c r="H56" s="101"/>
-      <c r="I56" s="103"/>
+      <c r="A53" s="170" t="s">
+        <v>138</v>
+      </c>
+      <c r="B53" s="171" t="s">
+        <v>160</v>
+      </c>
+      <c r="C53" s="172" t="s">
+        <v>164</v>
+      </c>
+      <c r="D53" s="173" t="s">
+        <v>173</v>
+      </c>
+      <c r="E53" s="174"/>
+      <c r="F53" s="174"/>
+      <c r="H53" s="175"/>
+      <c r="I53" s="176" t="s">
+        <v>161</v>
+      </c>
+      <c r="J53" s="177"/>
+    </row>
+    <row r="54" spans="1:10" s="93" customFormat="1" ht="81" customHeight="1" outlineLevel="1">
+      <c r="A54" s="88" t="s">
+        <v>141</v>
+      </c>
+      <c r="B54" s="171" t="s">
+        <v>162</v>
+      </c>
+      <c r="C54" s="92" t="s">
+        <v>165</v>
+      </c>
+      <c r="D54" s="166" t="s">
+        <v>172</v>
+      </c>
+      <c r="E54" s="178"/>
+      <c r="F54" s="179"/>
+      <c r="G54" s="125"/>
+      <c r="H54" s="125"/>
+      <c r="I54" s="126" t="s">
+        <v>161</v>
+      </c>
+      <c r="J54" s="94"/>
+    </row>
+    <row r="55" spans="1:10" s="93" customFormat="1" ht="81" customHeight="1" outlineLevel="1">
+      <c r="A55" s="88" t="s">
+        <v>144</v>
+      </c>
+      <c r="B55" s="98" t="s">
+        <v>163</v>
+      </c>
+      <c r="C55" s="92" t="s">
+        <v>169</v>
+      </c>
+      <c r="D55" s="166" t="s">
+        <v>171</v>
+      </c>
+      <c r="E55" s="178"/>
+      <c r="F55" s="179"/>
+      <c r="G55" s="125"/>
+      <c r="H55" s="125"/>
+      <c r="I55" s="126" t="s">
+        <v>161</v>
+      </c>
+      <c r="J55" s="94"/>
+    </row>
+    <row r="56" spans="1:10" s="93" customFormat="1" ht="81" customHeight="1" outlineLevel="1">
+      <c r="A56" s="88" t="s">
+        <v>179</v>
+      </c>
+      <c r="B56" s="98" t="s">
+        <v>180</v>
+      </c>
+      <c r="C56" s="92" t="s">
+        <v>181</v>
+      </c>
+      <c r="D56" s="166" t="s">
+        <v>182</v>
+      </c>
+      <c r="E56" s="178"/>
+      <c r="F56" s="179"/>
+      <c r="G56" s="125"/>
+      <c r="H56" s="125"/>
+      <c r="I56" s="126" t="s">
+        <v>161</v>
+      </c>
       <c r="J56" s="94"/>
     </row>
-    <row r="57" spans="1:10" s="93" customFormat="1" ht="87.75" customHeight="1" outlineLevel="1">
-      <c r="A57" s="88"/>
-      <c r="B57" s="98"/>
-      <c r="C57" s="92"/>
-      <c r="D57" s="126"/>
-      <c r="E57" s="132"/>
-      <c r="F57" s="132"/>
-      <c r="H57" s="101"/>
-      <c r="I57" s="103"/>
-      <c r="J57" s="94"/>
+    <row r="57" spans="1:10" s="4" customFormat="1" ht="13.2" customHeight="1">
+      <c r="A57" s="140"/>
+      <c r="B57" s="141"/>
+      <c r="C57" s="141"/>
+      <c r="D57" s="141"/>
+      <c r="E57" s="141"/>
+      <c r="F57" s="141"/>
+      <c r="G57" s="141"/>
+      <c r="H57" s="141"/>
+      <c r="I57" s="141"/>
+      <c r="J57" s="142"/>
     </row>
     <row r="58" spans="1:10" s="4" customFormat="1" ht="13.2" customHeight="1" outlineLevel="1">
-      <c r="A58" s="134"/>
-      <c r="B58" s="135"/>
-      <c r="C58" s="135"/>
-      <c r="D58" s="135"/>
-      <c r="E58" s="135"/>
-      <c r="F58" s="135"/>
-      <c r="G58" s="135"/>
-      <c r="H58" s="135"/>
-      <c r="I58" s="135"/>
-      <c r="J58" s="136"/>
+      <c r="A58" s="140"/>
+      <c r="B58" s="141"/>
+      <c r="C58" s="141"/>
+      <c r="D58" s="141"/>
+      <c r="E58" s="141"/>
+      <c r="F58" s="141"/>
+      <c r="G58" s="141"/>
+      <c r="H58" s="141"/>
+      <c r="I58" s="141"/>
+      <c r="J58" s="142"/>
     </row>
     <row r="59" spans="1:10" s="93" customFormat="1" ht="87.75" customHeight="1" outlineLevel="1">
       <c r="A59" s="88"/>
       <c r="B59" s="98"/>
       <c r="C59" s="92"/>
-      <c r="D59" s="126"/>
-      <c r="E59" s="132"/>
-      <c r="F59" s="132"/>
+      <c r="D59" s="129"/>
+      <c r="E59" s="130"/>
+      <c r="F59" s="130"/>
       <c r="H59" s="101"/>
       <c r="I59" s="103"/>
       <c r="J59" s="94"/>
@@ -5783,32 +5914,32 @@
       <c r="A60" s="88"/>
       <c r="B60" s="98"/>
       <c r="C60" s="92"/>
-      <c r="D60" s="126"/>
-      <c r="E60" s="132"/>
-      <c r="F60" s="132"/>
+      <c r="D60" s="129"/>
+      <c r="E60" s="130"/>
+      <c r="F60" s="130"/>
       <c r="H60" s="101"/>
       <c r="I60" s="103"/>
       <c r="J60" s="94"/>
     </row>
     <row r="61" spans="1:10" s="4" customFormat="1" ht="13.2" customHeight="1" outlineLevel="1">
-      <c r="A61" s="134"/>
-      <c r="B61" s="135"/>
-      <c r="C61" s="135"/>
-      <c r="D61" s="135"/>
-      <c r="E61" s="135"/>
-      <c r="F61" s="135"/>
-      <c r="G61" s="135"/>
-      <c r="H61" s="135"/>
-      <c r="I61" s="135"/>
-      <c r="J61" s="136"/>
+      <c r="A61" s="140"/>
+      <c r="B61" s="141"/>
+      <c r="C61" s="141"/>
+      <c r="D61" s="141"/>
+      <c r="E61" s="141"/>
+      <c r="F61" s="141"/>
+      <c r="G61" s="141"/>
+      <c r="H61" s="141"/>
+      <c r="I61" s="141"/>
+      <c r="J61" s="142"/>
     </row>
     <row r="62" spans="1:10" s="93" customFormat="1" ht="87.75" customHeight="1" outlineLevel="1">
       <c r="A62" s="88"/>
       <c r="B62" s="98"/>
       <c r="C62" s="92"/>
-      <c r="D62" s="126"/>
-      <c r="E62" s="132"/>
-      <c r="F62" s="132"/>
+      <c r="D62" s="129"/>
+      <c r="E62" s="130"/>
+      <c r="F62" s="130"/>
       <c r="H62" s="101"/>
       <c r="I62" s="103"/>
       <c r="J62" s="94"/>
@@ -5817,32 +5948,32 @@
       <c r="A63" s="88"/>
       <c r="B63" s="98"/>
       <c r="C63" s="92"/>
-      <c r="D63" s="126"/>
-      <c r="E63" s="132"/>
-      <c r="F63" s="132"/>
+      <c r="D63" s="129"/>
+      <c r="E63" s="130"/>
+      <c r="F63" s="130"/>
       <c r="H63" s="101"/>
       <c r="I63" s="103"/>
       <c r="J63" s="94"/>
     </row>
     <row r="64" spans="1:10" s="4" customFormat="1" ht="13.2" customHeight="1" outlineLevel="1">
-      <c r="A64" s="134"/>
-      <c r="B64" s="135"/>
-      <c r="C64" s="135"/>
-      <c r="D64" s="135"/>
-      <c r="E64" s="135"/>
-      <c r="F64" s="135"/>
-      <c r="G64" s="135"/>
-      <c r="H64" s="135"/>
-      <c r="I64" s="135"/>
-      <c r="J64" s="136"/>
+      <c r="A64" s="140"/>
+      <c r="B64" s="141"/>
+      <c r="C64" s="141"/>
+      <c r="D64" s="141"/>
+      <c r="E64" s="141"/>
+      <c r="F64" s="141"/>
+      <c r="G64" s="141"/>
+      <c r="H64" s="141"/>
+      <c r="I64" s="141"/>
+      <c r="J64" s="142"/>
     </row>
     <row r="65" spans="1:10" s="93" customFormat="1" ht="87.75" customHeight="1" outlineLevel="1">
       <c r="A65" s="88"/>
       <c r="B65" s="98"/>
       <c r="C65" s="92"/>
-      <c r="D65" s="126"/>
-      <c r="E65" s="132"/>
-      <c r="F65" s="132"/>
+      <c r="D65" s="129"/>
+      <c r="E65" s="130"/>
+      <c r="F65" s="130"/>
       <c r="H65" s="101"/>
       <c r="I65" s="103"/>
       <c r="J65" s="94"/>
@@ -5851,32 +5982,32 @@
       <c r="A66" s="88"/>
       <c r="B66" s="98"/>
       <c r="C66" s="92"/>
-      <c r="D66" s="126"/>
-      <c r="E66" s="132"/>
-      <c r="F66" s="132"/>
+      <c r="D66" s="129"/>
+      <c r="E66" s="130"/>
+      <c r="F66" s="130"/>
       <c r="H66" s="101"/>
       <c r="I66" s="103"/>
       <c r="J66" s="94"/>
     </row>
-    <row r="67" spans="1:10" s="4" customFormat="1" ht="13.2" customHeight="1">
-      <c r="A67" s="134"/>
-      <c r="B67" s="135"/>
-      <c r="C67" s="135"/>
-      <c r="D67" s="135"/>
-      <c r="E67" s="135"/>
-      <c r="F67" s="135"/>
-      <c r="G67" s="135"/>
-      <c r="H67" s="135"/>
-      <c r="I67" s="135"/>
-      <c r="J67" s="136"/>
+    <row r="67" spans="1:10" s="4" customFormat="1" ht="13.2" customHeight="1" outlineLevel="1">
+      <c r="A67" s="140"/>
+      <c r="B67" s="141"/>
+      <c r="C67" s="141"/>
+      <c r="D67" s="141"/>
+      <c r="E67" s="141"/>
+      <c r="F67" s="141"/>
+      <c r="G67" s="141"/>
+      <c r="H67" s="141"/>
+      <c r="I67" s="141"/>
+      <c r="J67" s="142"/>
     </row>
     <row r="68" spans="1:10" s="93" customFormat="1" ht="87.75" customHeight="1" outlineLevel="1">
       <c r="A68" s="88"/>
       <c r="B68" s="98"/>
       <c r="C68" s="92"/>
-      <c r="D68" s="126"/>
-      <c r="E68" s="132"/>
-      <c r="F68" s="132"/>
+      <c r="D68" s="129"/>
+      <c r="E68" s="130"/>
+      <c r="F68" s="130"/>
       <c r="H68" s="101"/>
       <c r="I68" s="103"/>
       <c r="J68" s="94"/>
@@ -5885,16 +6016,47 @@
       <c r="A69" s="88"/>
       <c r="B69" s="98"/>
       <c r="C69" s="92"/>
-      <c r="D69" s="126"/>
-      <c r="E69" s="132"/>
-      <c r="F69" s="132"/>
+      <c r="D69" s="129"/>
+      <c r="E69" s="130"/>
+      <c r="F69" s="130"/>
       <c r="H69" s="101"/>
       <c r="I69" s="103"/>
       <c r="J69" s="94"/>
     </row>
-    <row r="70" spans="1:10" ht="12" customHeight="1"/>
-    <row r="71" spans="1:10" ht="12" customHeight="1"/>
-    <row r="72" spans="1:10" ht="12" customHeight="1"/>
+    <row r="70" spans="1:10" s="4" customFormat="1" ht="13.2" customHeight="1">
+      <c r="A70" s="140"/>
+      <c r="B70" s="141"/>
+      <c r="C70" s="141"/>
+      <c r="D70" s="141"/>
+      <c r="E70" s="141"/>
+      <c r="F70" s="141"/>
+      <c r="G70" s="141"/>
+      <c r="H70" s="141"/>
+      <c r="I70" s="141"/>
+      <c r="J70" s="142"/>
+    </row>
+    <row r="71" spans="1:10" s="93" customFormat="1" ht="87.75" customHeight="1" outlineLevel="1">
+      <c r="A71" s="88"/>
+      <c r="B71" s="98"/>
+      <c r="C71" s="92"/>
+      <c r="D71" s="129"/>
+      <c r="E71" s="130"/>
+      <c r="F71" s="130"/>
+      <c r="H71" s="101"/>
+      <c r="I71" s="103"/>
+      <c r="J71" s="94"/>
+    </row>
+    <row r="72" spans="1:10" s="93" customFormat="1" ht="87.75" customHeight="1" outlineLevel="1">
+      <c r="A72" s="88"/>
+      <c r="B72" s="98"/>
+      <c r="C72" s="92"/>
+      <c r="D72" s="129"/>
+      <c r="E72" s="130"/>
+      <c r="F72" s="130"/>
+      <c r="H72" s="101"/>
+      <c r="I72" s="103"/>
+      <c r="J72" s="94"/>
+    </row>
     <row r="73" spans="1:10" ht="12" customHeight="1"/>
     <row r="74" spans="1:10" ht="12" customHeight="1"/>
     <row r="75" spans="1:10" ht="12" customHeight="1"/>
@@ -5930,34 +6092,48 @@
     <row r="105" ht="12" customHeight="1"/>
     <row r="106" ht="12" customHeight="1"/>
     <row r="107" ht="12" customHeight="1"/>
+    <row r="108" ht="12" customHeight="1"/>
+    <row r="109" ht="12" customHeight="1"/>
+    <row r="110" ht="12" customHeight="1"/>
   </sheetData>
-  <mergeCells count="76">
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="D42:F42"/>
-    <mergeCell ref="D43:F43"/>
-    <mergeCell ref="D44:F44"/>
-    <mergeCell ref="D45:F45"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="D40:F40"/>
-    <mergeCell ref="D39:F39"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="B1:D2"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="A12:J12"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="A11:J11"/>
-    <mergeCell ref="I9:I10"/>
+  <mergeCells count="79">
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="D54:F54"/>
+    <mergeCell ref="D55:F55"/>
+    <mergeCell ref="D56:F56"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="A57:J57"/>
+    <mergeCell ref="A41:J41"/>
+    <mergeCell ref="A36:J36"/>
+    <mergeCell ref="A51:J51"/>
+    <mergeCell ref="D47:F47"/>
+    <mergeCell ref="D52:F52"/>
+    <mergeCell ref="D53:F53"/>
+    <mergeCell ref="A46:J46"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="A70:J70"/>
+    <mergeCell ref="D71:F71"/>
+    <mergeCell ref="D72:F72"/>
+    <mergeCell ref="D49:F49"/>
+    <mergeCell ref="D66:F66"/>
+    <mergeCell ref="A67:J67"/>
+    <mergeCell ref="D68:F68"/>
+    <mergeCell ref="D69:F69"/>
+    <mergeCell ref="D62:F62"/>
+    <mergeCell ref="D63:F63"/>
+    <mergeCell ref="D65:F65"/>
+    <mergeCell ref="D59:F59"/>
+    <mergeCell ref="D60:F60"/>
+    <mergeCell ref="A58:J58"/>
+    <mergeCell ref="A61:J61"/>
+    <mergeCell ref="A64:J64"/>
     <mergeCell ref="D48:F48"/>
     <mergeCell ref="D50:F50"/>
     <mergeCell ref="A9:A10"/>
@@ -5974,40 +6150,32 @@
     <mergeCell ref="D16:F16"/>
     <mergeCell ref="D20:F20"/>
     <mergeCell ref="A33:C33"/>
-    <mergeCell ref="A67:J67"/>
-    <mergeCell ref="D68:F68"/>
-    <mergeCell ref="D69:F69"/>
-    <mergeCell ref="D49:F49"/>
-    <mergeCell ref="D63:F63"/>
-    <mergeCell ref="A64:J64"/>
-    <mergeCell ref="D65:F65"/>
-    <mergeCell ref="D66:F66"/>
-    <mergeCell ref="D59:F59"/>
-    <mergeCell ref="D60:F60"/>
-    <mergeCell ref="D62:F62"/>
-    <mergeCell ref="D56:F56"/>
-    <mergeCell ref="D57:F57"/>
-    <mergeCell ref="A55:J55"/>
-    <mergeCell ref="A58:J58"/>
-    <mergeCell ref="A61:J61"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="A54:J54"/>
-    <mergeCell ref="A41:J41"/>
-    <mergeCell ref="A36:J36"/>
-    <mergeCell ref="A51:J51"/>
-    <mergeCell ref="D47:F47"/>
-    <mergeCell ref="D52:F52"/>
-    <mergeCell ref="D53:F53"/>
-    <mergeCell ref="A46:J46"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="B1:D2"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="A12:J12"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="A11:J11"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="D42:F42"/>
+    <mergeCell ref="D43:F43"/>
+    <mergeCell ref="D44:F44"/>
+    <mergeCell ref="D45:F45"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="D40:F40"/>
+    <mergeCell ref="D39:F39"/>
+    <mergeCell ref="D38:F38"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6120,7 +6288,7 @@
       </c>
       <c r="D8" s="76">
         <f>'Export all carrier choices'!B6</f>
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E8" s="75">
         <f>'Export all carrier choices'!B7</f>
@@ -6132,7 +6300,7 @@
       </c>
       <c r="G8" s="76">
         <f>'Export all carrier choices'!D7</f>
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="13.8">
@@ -6152,7 +6320,7 @@
       </c>
       <c r="D10" s="61">
         <f>SUM(D6:D9)</f>
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E10" s="61">
         <f>SUM(E6:E9)</f>
@@ -6164,7 +6332,7 @@
       </c>
       <c r="G10" s="62">
         <f>SUM(G6:G9)</f>
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="13.8">
@@ -6185,7 +6353,7 @@
       <c r="D12" s="19"/>
       <c r="E12" s="24">
         <f>(D10+E10)*100/G10</f>
-        <v>130.76923076923077</v>
+        <v>126.66666666666667</v>
       </c>
       <c r="F12" s="19" t="s">
         <v>31</v>
@@ -6201,7 +6369,7 @@
       <c r="D13" s="19"/>
       <c r="E13" s="24">
         <f>D10*100/G10</f>
-        <v>119.23076923076923</v>
+        <v>116.66666666666667</v>
       </c>
       <c r="F13" s="19" t="s">
         <v>31</v>

--- a/test-case-example.xlsx
+++ b/test-case-example.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\QLCafe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{152D2ABA-F457-4065-9006-BF1E5870B8D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9585EA9D-55FA-4BC5-9346-5973BC0273AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="821" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -345,9 +345,6 @@
 password:123456789</t>
   </si>
   <si>
-    <t>Lỗi hiện thị"bạn nhập sai "</t>
-  </si>
-  <si>
     <t>Điền username và password  của staff</t>
   </si>
   <si>
@@ -450,9 +447,6 @@
 2.Ân nút chuyển bàn</t>
   </si>
   <si>
-    <t>Thông báo message:" bàn đã có người"</t>
-  </si>
-  <si>
     <t>3.Form thống kê</t>
   </si>
   <si>
@@ -649,6 +643,12 @@
   </si>
   <si>
     <t>Thông báo "Chỉ nhận giá trị 0 và 1"</t>
+  </si>
+  <si>
+    <t>Thông báo message:" bàn đã có người, hãy chọn bàn khác"</t>
+  </si>
+  <si>
+    <t>Đăng nhập thành công</t>
   </si>
 </sst>
 </file>
@@ -1645,135 +1645,6 @@
     <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="31" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="32" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="33" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="34" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="165" fontId="6" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1781,12 +1652,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="6" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -1796,11 +1661,146 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="31" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="32" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="33" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="34" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -4511,11 +4511,11 @@
       <c r="B6" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="C6" s="127" t="s">
+      <c r="C6" s="133" t="s">
         <v>64</v>
       </c>
-      <c r="D6" s="127"/>
-      <c r="E6" s="128"/>
+      <c r="D6" s="133"/>
+      <c r="E6" s="134"/>
       <c r="F6" s="26"/>
       <c r="G6" s="26"/>
     </row>
@@ -4524,11 +4524,11 @@
       <c r="B7" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="C7" s="127" t="s">
+      <c r="C7" s="133" t="s">
         <v>65</v>
       </c>
-      <c r="D7" s="127"/>
-      <c r="E7" s="128"/>
+      <c r="D7" s="133"/>
+      <c r="E7" s="134"/>
       <c r="F7" s="26"/>
       <c r="G7" s="26"/>
     </row>
@@ -4741,8 +4741,8 @@
   </sheetPr>
   <dimension ref="A1:N110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" outlineLevelRow="1"/>
@@ -4761,9 +4761,9 @@
       <c r="A1" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="134"/>
-      <c r="C1" s="134"/>
-      <c r="D1" s="134"/>
+      <c r="B1" s="166"/>
+      <c r="C1" s="166"/>
+      <c r="D1" s="166"/>
       <c r="E1" s="6"/>
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
@@ -4774,9 +4774,9 @@
     </row>
     <row r="2" spans="1:11" s="2" customFormat="1" ht="11.25" customHeight="1" thickBot="1">
       <c r="A2" s="7"/>
-      <c r="B2" s="135"/>
-      <c r="C2" s="135"/>
-      <c r="D2" s="135"/>
+      <c r="B2" s="167"/>
+      <c r="C2" s="167"/>
+      <c r="D2" s="167"/>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
@@ -4789,51 +4789,51 @@
       <c r="A3" s="65" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="127" t="s">
+      <c r="B3" s="133" t="s">
         <v>67</v>
       </c>
-      <c r="C3" s="127"/>
-      <c r="D3" s="128"/>
+      <c r="C3" s="133"/>
+      <c r="D3" s="134"/>
       <c r="E3" s="68"/>
       <c r="F3" s="68"/>
       <c r="G3" s="68"/>
-      <c r="H3" s="144"/>
-      <c r="I3" s="144"/>
-      <c r="J3" s="144"/>
+      <c r="H3" s="173"/>
+      <c r="I3" s="173"/>
+      <c r="J3" s="173"/>
       <c r="K3" s="9"/>
     </row>
     <row r="4" spans="1:11" s="3" customFormat="1" ht="13.2">
       <c r="A4" s="72" t="s">
         <v>46</v>
       </c>
-      <c r="B4" s="146" t="s">
+      <c r="B4" s="174" t="s">
         <v>68</v>
       </c>
-      <c r="C4" s="147"/>
-      <c r="D4" s="148"/>
+      <c r="C4" s="175"/>
+      <c r="D4" s="176"/>
       <c r="E4" s="68"/>
       <c r="F4" s="68"/>
       <c r="G4" s="68"/>
-      <c r="H4" s="144"/>
-      <c r="I4" s="144"/>
-      <c r="J4" s="144"/>
+      <c r="H4" s="173"/>
+      <c r="I4" s="173"/>
+      <c r="J4" s="173"/>
       <c r="K4" s="9"/>
     </row>
     <row r="5" spans="1:11" s="81" customFormat="1" ht="26.4">
       <c r="A5" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="137" t="s">
+      <c r="B5" s="169" t="s">
         <v>69</v>
       </c>
-      <c r="C5" s="138"/>
-      <c r="D5" s="139"/>
+      <c r="C5" s="170"/>
+      <c r="D5" s="171"/>
       <c r="E5" s="79"/>
       <c r="F5" s="79"/>
       <c r="G5" s="79"/>
-      <c r="H5" s="143"/>
-      <c r="I5" s="143"/>
-      <c r="J5" s="143"/>
+      <c r="H5" s="172"/>
+      <c r="I5" s="172"/>
+      <c r="J5" s="172"/>
       <c r="K5" s="80"/>
     </row>
     <row r="6" spans="1:11" s="3" customFormat="1" ht="15" customHeight="1">
@@ -4842,7 +4842,7 @@
       </c>
       <c r="B6" s="95">
         <f>COUNTIF(I12:I69,"Pass")</f>
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>48</v>
@@ -4854,9 +4854,9 @@
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
-      <c r="H6" s="144"/>
-      <c r="I6" s="144"/>
-      <c r="J6" s="144"/>
+      <c r="H6" s="173"/>
+      <c r="I6" s="173"/>
+      <c r="J6" s="173"/>
       <c r="K6" s="9"/>
     </row>
     <row r="7" spans="1:11" s="3" customFormat="1" ht="15" customHeight="1" thickBot="1">
@@ -4865,7 +4865,7 @@
       </c>
       <c r="B7" s="96">
         <f>COUNTIF(I12:I69,"Fail")</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C7" s="30" t="s">
         <v>37</v>
@@ -4877,16 +4877,16 @@
       <c r="E7" s="69"/>
       <c r="F7" s="69"/>
       <c r="G7" s="69"/>
-      <c r="H7" s="144"/>
-      <c r="I7" s="144"/>
-      <c r="J7" s="144"/>
+      <c r="H7" s="173"/>
+      <c r="I7" s="173"/>
+      <c r="J7" s="173"/>
       <c r="K7" s="9"/>
     </row>
     <row r="8" spans="1:11" s="3" customFormat="1" ht="15" customHeight="1">
-      <c r="A8" s="136"/>
-      <c r="B8" s="136"/>
-      <c r="C8" s="136"/>
-      <c r="D8" s="136"/>
+      <c r="A8" s="168"/>
+      <c r="B8" s="168"/>
+      <c r="C8" s="168"/>
+      <c r="D8" s="168"/>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
@@ -4899,67 +4899,67 @@
       <c r="A9" s="153" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="154" t="s">
+      <c r="B9" s="155" t="s">
         <v>14</v>
       </c>
       <c r="C9" s="153" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="156" t="s">
+      <c r="D9" s="157" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="157"/>
-      <c r="F9" s="157"/>
-      <c r="G9" s="158"/>
-      <c r="H9" s="149" t="s">
+      <c r="E9" s="158"/>
+      <c r="F9" s="158"/>
+      <c r="G9" s="159"/>
+      <c r="H9" s="177" t="s">
         <v>36</v>
       </c>
-      <c r="I9" s="145" t="s">
+      <c r="I9" s="154" t="s">
         <v>15</v>
       </c>
-      <c r="J9" s="145" t="s">
+      <c r="J9" s="154" t="s">
         <v>41</v>
       </c>
       <c r="K9" s="82"/>
     </row>
     <row r="10" spans="1:11" s="71" customFormat="1" ht="12" customHeight="1">
-      <c r="A10" s="145"/>
-      <c r="B10" s="155"/>
-      <c r="C10" s="145"/>
-      <c r="D10" s="150"/>
-      <c r="E10" s="159"/>
-      <c r="F10" s="159"/>
-      <c r="G10" s="160"/>
-      <c r="H10" s="150"/>
-      <c r="I10" s="145"/>
-      <c r="J10" s="145"/>
+      <c r="A10" s="154"/>
+      <c r="B10" s="156"/>
+      <c r="C10" s="154"/>
+      <c r="D10" s="160"/>
+      <c r="E10" s="161"/>
+      <c r="F10" s="161"/>
+      <c r="G10" s="162"/>
+      <c r="H10" s="160"/>
+      <c r="I10" s="154"/>
+      <c r="J10" s="154"/>
       <c r="K10" s="70"/>
     </row>
     <row r="11" spans="1:11" s="84" customFormat="1" ht="15">
-      <c r="A11" s="151"/>
-      <c r="B11" s="151"/>
-      <c r="C11" s="151"/>
-      <c r="D11" s="151"/>
-      <c r="E11" s="151"/>
-      <c r="F11" s="151"/>
-      <c r="G11" s="151"/>
-      <c r="H11" s="151"/>
-      <c r="I11" s="151"/>
-      <c r="J11" s="152"/>
+      <c r="A11" s="178"/>
+      <c r="B11" s="178"/>
+      <c r="C11" s="178"/>
+      <c r="D11" s="178"/>
+      <c r="E11" s="178"/>
+      <c r="F11" s="178"/>
+      <c r="G11" s="178"/>
+      <c r="H11" s="178"/>
+      <c r="I11" s="178"/>
+      <c r="J11" s="179"/>
     </row>
     <row r="12" spans="1:11" s="4" customFormat="1" ht="13.2">
-      <c r="A12" s="140" t="s">
+      <c r="A12" s="146" t="s">
         <v>72</v>
       </c>
-      <c r="B12" s="141"/>
-      <c r="C12" s="141"/>
-      <c r="D12" s="141"/>
-      <c r="E12" s="141"/>
-      <c r="F12" s="141"/>
-      <c r="G12" s="141"/>
-      <c r="H12" s="141"/>
-      <c r="I12" s="141"/>
-      <c r="J12" s="142"/>
+      <c r="B12" s="147"/>
+      <c r="C12" s="147"/>
+      <c r="D12" s="147"/>
+      <c r="E12" s="147"/>
+      <c r="F12" s="147"/>
+      <c r="G12" s="147"/>
+      <c r="H12" s="147"/>
+      <c r="I12" s="147"/>
+      <c r="J12" s="148"/>
     </row>
     <row r="13" spans="1:11" s="4" customFormat="1" ht="39.6" customHeight="1" outlineLevel="1">
       <c r="A13" s="88" t="s">
@@ -4971,11 +4971,11 @@
       <c r="C13" s="87" t="s">
         <v>74</v>
       </c>
-      <c r="D13" s="129" t="s">
+      <c r="D13" s="143" t="s">
         <v>81</v>
       </c>
-      <c r="E13" s="130"/>
-      <c r="F13" s="130"/>
+      <c r="E13" s="144"/>
+      <c r="F13" s="144"/>
       <c r="G13" s="86"/>
       <c r="H13" s="112"/>
       <c r="I13" s="87" t="s">
@@ -4993,11 +4993,11 @@
       <c r="C14" s="87" t="s">
         <v>83</v>
       </c>
-      <c r="D14" s="130" t="s">
+      <c r="D14" s="144" t="s">
         <v>84</v>
       </c>
-      <c r="E14" s="130"/>
-      <c r="F14" s="130"/>
+      <c r="E14" s="144"/>
+      <c r="F14" s="144"/>
       <c r="G14" s="120"/>
       <c r="H14" s="94"/>
       <c r="I14" s="87" t="s">
@@ -5015,11 +5015,11 @@
       <c r="C15" s="87" t="s">
         <v>79</v>
       </c>
-      <c r="D15" s="132" t="s">
+      <c r="D15" s="151" t="s">
         <v>80</v>
       </c>
-      <c r="E15" s="133"/>
-      <c r="F15" s="164"/>
+      <c r="E15" s="152"/>
+      <c r="F15" s="165"/>
       <c r="G15" s="87"/>
       <c r="H15" s="97"/>
       <c r="I15" s="87" t="s">
@@ -5037,11 +5037,11 @@
       <c r="C16" s="87" t="s">
         <v>86</v>
       </c>
-      <c r="D16" s="130" t="s">
+      <c r="D16" s="144" t="s">
         <v>87</v>
       </c>
-      <c r="E16" s="130"/>
-      <c r="F16" s="130"/>
+      <c r="E16" s="144"/>
+      <c r="F16" s="144"/>
       <c r="G16" s="120"/>
       <c r="H16" s="94"/>
       <c r="I16" s="87" t="s">
@@ -5059,11 +5059,11 @@
       <c r="C17" s="87" t="s">
         <v>76</v>
       </c>
-      <c r="D17" s="129" t="s">
+      <c r="D17" s="143" t="s">
         <v>77</v>
       </c>
-      <c r="E17" s="130"/>
-      <c r="F17" s="130"/>
+      <c r="E17" s="144"/>
+      <c r="F17" s="144"/>
       <c r="G17" s="86"/>
       <c r="H17" s="112"/>
       <c r="I17" s="87" t="s">
@@ -5081,15 +5081,15 @@
       <c r="C18" s="87" t="s">
         <v>89</v>
       </c>
-      <c r="D18" s="129" t="s">
-        <v>90</v>
-      </c>
-      <c r="E18" s="130"/>
-      <c r="F18" s="165"/>
+      <c r="D18" s="143" t="s">
+        <v>182</v>
+      </c>
+      <c r="E18" s="144"/>
+      <c r="F18" s="145"/>
       <c r="G18" s="87"/>
       <c r="H18" s="94"/>
       <c r="I18" s="87" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="J18" s="85"/>
     </row>
@@ -5098,20 +5098,20 @@
         <v>10</v>
       </c>
       <c r="B19" s="97" t="s">
+        <v>90</v>
+      </c>
+      <c r="C19" s="87" t="s">
         <v>91</v>
       </c>
-      <c r="C19" s="87" t="s">
-        <v>92</v>
-      </c>
-      <c r="D19" s="129" t="s">
-        <v>90</v>
-      </c>
-      <c r="E19" s="130"/>
-      <c r="F19" s="165"/>
+      <c r="D19" s="143" t="s">
+        <v>182</v>
+      </c>
+      <c r="E19" s="144"/>
+      <c r="F19" s="145"/>
       <c r="G19" s="87"/>
       <c r="H19" s="94"/>
       <c r="I19" s="87" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="J19" s="85"/>
     </row>
@@ -5120,16 +5120,16 @@
         <v>51</v>
       </c>
       <c r="B20" s="97" t="s">
+        <v>92</v>
+      </c>
+      <c r="C20" s="87" t="s">
         <v>93</v>
       </c>
-      <c r="C20" s="87" t="s">
+      <c r="D20" s="143" t="s">
         <v>94</v>
       </c>
-      <c r="D20" s="129" t="s">
-        <v>95</v>
-      </c>
-      <c r="E20" s="130"/>
-      <c r="F20" s="165"/>
+      <c r="E20" s="144"/>
+      <c r="F20" s="145"/>
       <c r="G20" s="87"/>
       <c r="H20" s="94"/>
       <c r="I20" s="87" t="s">
@@ -5138,11 +5138,11 @@
       <c r="J20" s="85"/>
     </row>
     <row r="21" spans="1:10" s="4" customFormat="1" ht="13.2" customHeight="1" outlineLevel="1">
-      <c r="A21" s="161" t="s">
-        <v>96</v>
-      </c>
-      <c r="B21" s="162"/>
-      <c r="C21" s="162"/>
+      <c r="A21" s="163" t="s">
+        <v>95</v>
+      </c>
+      <c r="B21" s="164"/>
+      <c r="C21" s="164"/>
       <c r="D21" s="106"/>
       <c r="E21" s="106"/>
       <c r="F21" s="106"/>
@@ -5156,16 +5156,16 @@
         <v>52</v>
       </c>
       <c r="B22" s="105" t="s">
+        <v>96</v>
+      </c>
+      <c r="C22" s="105" t="s">
         <v>97</v>
       </c>
-      <c r="C22" s="105" t="s">
+      <c r="D22" s="135" t="s">
         <v>98</v>
       </c>
-      <c r="D22" s="131" t="s">
-        <v>99</v>
-      </c>
-      <c r="E22" s="130"/>
-      <c r="F22" s="130"/>
+      <c r="E22" s="144"/>
+      <c r="F22" s="144"/>
       <c r="G22" s="86"/>
       <c r="H22" s="119"/>
       <c r="I22" s="87" t="s">
@@ -5178,16 +5178,16 @@
         <v>53</v>
       </c>
       <c r="B23" s="105" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C23" s="105" t="s">
-        <v>119</v>
-      </c>
-      <c r="D23" s="131" t="s">
-        <v>99</v>
-      </c>
-      <c r="E23" s="163"/>
-      <c r="F23" s="163"/>
+        <v>118</v>
+      </c>
+      <c r="D23" s="135" t="s">
+        <v>98</v>
+      </c>
+      <c r="E23" s="136"/>
+      <c r="F23" s="136"/>
       <c r="G23" s="86"/>
       <c r="H23" s="112"/>
       <c r="I23" s="87" t="s">
@@ -5200,16 +5200,16 @@
         <v>54</v>
       </c>
       <c r="B24" s="105" t="s">
+        <v>100</v>
+      </c>
+      <c r="C24" s="105" t="s">
         <v>101</v>
       </c>
-      <c r="C24" s="105" t="s">
-        <v>102</v>
-      </c>
-      <c r="D24" s="129" t="s">
-        <v>130</v>
-      </c>
-      <c r="E24" s="130"/>
-      <c r="F24" s="130"/>
+      <c r="D24" s="143" t="s">
+        <v>128</v>
+      </c>
+      <c r="E24" s="144"/>
+      <c r="F24" s="144"/>
       <c r="G24" s="86"/>
       <c r="H24" s="94"/>
       <c r="I24" s="87" t="s">
@@ -5222,16 +5222,16 @@
         <v>55</v>
       </c>
       <c r="B25" s="105" t="s">
+        <v>102</v>
+      </c>
+      <c r="C25" s="105" t="s">
         <v>103</v>
       </c>
-      <c r="C25" s="105" t="s">
+      <c r="D25" s="135" t="s">
         <v>104</v>
       </c>
-      <c r="D25" s="131" t="s">
-        <v>105</v>
-      </c>
-      <c r="E25" s="130"/>
-      <c r="F25" s="130"/>
+      <c r="E25" s="144"/>
+      <c r="F25" s="144"/>
       <c r="G25" s="86"/>
       <c r="H25" s="119"/>
       <c r="I25" s="87" t="s">
@@ -5244,16 +5244,16 @@
         <v>56</v>
       </c>
       <c r="B26" s="87" t="s">
+        <v>105</v>
+      </c>
+      <c r="C26" s="87" t="s">
         <v>106</v>
       </c>
-      <c r="C26" s="87" t="s">
+      <c r="D26" s="135" t="s">
         <v>107</v>
       </c>
-      <c r="D26" s="131" t="s">
-        <v>108</v>
-      </c>
-      <c r="E26" s="163"/>
-      <c r="F26" s="169"/>
+      <c r="E26" s="136"/>
+      <c r="F26" s="137"/>
       <c r="G26" s="87"/>
       <c r="H26" s="87"/>
       <c r="I26" s="87" t="s">
@@ -5266,16 +5266,16 @@
         <v>57</v>
       </c>
       <c r="B27" s="87" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C27" s="87" t="s">
+        <v>113</v>
+      </c>
+      <c r="D27" s="135" t="s">
         <v>114</v>
       </c>
-      <c r="D27" s="131" t="s">
-        <v>115</v>
-      </c>
-      <c r="E27" s="163"/>
-      <c r="F27" s="169"/>
+      <c r="E27" s="136"/>
+      <c r="F27" s="137"/>
       <c r="G27" s="120"/>
       <c r="H27" s="87"/>
       <c r="I27" s="87" t="s">
@@ -5288,16 +5288,16 @@
         <v>58</v>
       </c>
       <c r="B28" s="87" t="s">
+        <v>115</v>
+      </c>
+      <c r="C28" s="87" t="s">
         <v>116</v>
       </c>
-      <c r="C28" s="87" t="s">
+      <c r="D28" s="135" t="s">
         <v>117</v>
       </c>
-      <c r="D28" s="131" t="s">
-        <v>118</v>
-      </c>
-      <c r="E28" s="163"/>
-      <c r="F28" s="169"/>
+      <c r="E28" s="136"/>
+      <c r="F28" s="137"/>
       <c r="G28" s="120"/>
       <c r="H28" s="87"/>
       <c r="I28" s="87" t="s">
@@ -5310,16 +5310,16 @@
         <v>0</v>
       </c>
       <c r="B29" s="87" t="s">
+        <v>108</v>
+      </c>
+      <c r="C29" s="87" t="s">
+        <v>112</v>
+      </c>
+      <c r="D29" s="135" t="s">
         <v>109</v>
       </c>
-      <c r="C29" s="87" t="s">
-        <v>113</v>
-      </c>
-      <c r="D29" s="131" t="s">
-        <v>110</v>
-      </c>
-      <c r="E29" s="167"/>
-      <c r="F29" s="168"/>
+      <c r="E29" s="138"/>
+      <c r="F29" s="139"/>
       <c r="G29" s="120"/>
       <c r="H29" s="87"/>
       <c r="I29" s="87" t="s">
@@ -5332,20 +5332,20 @@
         <v>1</v>
       </c>
       <c r="B30" s="87" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C30" s="87" t="s">
-        <v>120</v>
-      </c>
-      <c r="D30" s="131" t="s">
-        <v>121</v>
-      </c>
-      <c r="E30" s="163"/>
-      <c r="F30" s="169"/>
+        <v>119</v>
+      </c>
+      <c r="D30" s="135" t="s">
+        <v>181</v>
+      </c>
+      <c r="E30" s="136"/>
+      <c r="F30" s="137"/>
       <c r="G30" s="120"/>
       <c r="H30" s="87"/>
       <c r="I30" s="87" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="J30" s="85"/>
     </row>
@@ -5354,16 +5354,16 @@
         <v>2</v>
       </c>
       <c r="B31" s="87" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C31" s="87" t="s">
-        <v>123</v>
-      </c>
-      <c r="D31" s="129" t="s">
-        <v>124</v>
-      </c>
-      <c r="E31" s="167"/>
-      <c r="F31" s="168"/>
+        <v>121</v>
+      </c>
+      <c r="D31" s="143" t="s">
+        <v>122</v>
+      </c>
+      <c r="E31" s="138"/>
+      <c r="F31" s="139"/>
       <c r="G31" s="120"/>
       <c r="H31" s="87"/>
       <c r="I31" s="87" t="s">
@@ -5376,16 +5376,16 @@
         <v>59</v>
       </c>
       <c r="B32" s="87" t="s">
+        <v>129</v>
+      </c>
+      <c r="C32" s="87" t="s">
+        <v>130</v>
+      </c>
+      <c r="D32" s="143" t="s">
         <v>131</v>
       </c>
-      <c r="C32" s="87" t="s">
-        <v>132</v>
-      </c>
-      <c r="D32" s="129" t="s">
-        <v>133</v>
-      </c>
-      <c r="E32" s="130"/>
-      <c r="F32" s="130"/>
+      <c r="E32" s="144"/>
+      <c r="F32" s="144"/>
       <c r="G32" s="121"/>
       <c r="H32" s="87"/>
       <c r="I32" s="87" t="s">
@@ -5394,11 +5394,11 @@
       <c r="J32" s="123"/>
     </row>
     <row r="33" spans="1:14" s="4" customFormat="1" ht="13.8" customHeight="1" outlineLevel="1">
-      <c r="A33" s="161" t="s">
-        <v>122</v>
-      </c>
-      <c r="B33" s="162"/>
-      <c r="C33" s="162"/>
+      <c r="A33" s="163" t="s">
+        <v>120</v>
+      </c>
+      <c r="B33" s="164"/>
+      <c r="C33" s="164"/>
       <c r="D33" s="106"/>
       <c r="E33" s="106"/>
       <c r="F33" s="106"/>
@@ -5412,16 +5412,16 @@
         <v>60</v>
       </c>
       <c r="B34" s="105" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C34" s="105" t="s">
-        <v>168</v>
-      </c>
-      <c r="D34" s="131" t="s">
-        <v>136</v>
-      </c>
-      <c r="E34" s="130"/>
-      <c r="F34" s="130"/>
+        <v>166</v>
+      </c>
+      <c r="D34" s="135" t="s">
+        <v>134</v>
+      </c>
+      <c r="E34" s="144"/>
+      <c r="F34" s="144"/>
       <c r="G34" s="86"/>
       <c r="H34" s="100"/>
       <c r="I34" s="87" t="s">
@@ -5431,19 +5431,19 @@
     </row>
     <row r="35" spans="1:14" s="4" customFormat="1" ht="63.75" customHeight="1" outlineLevel="1">
       <c r="A35" s="88" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B35" s="105" t="s">
+        <v>124</v>
+      </c>
+      <c r="C35" s="105" t="s">
+        <v>125</v>
+      </c>
+      <c r="D35" s="135" t="s">
         <v>126</v>
       </c>
-      <c r="C35" s="105" t="s">
-        <v>127</v>
-      </c>
-      <c r="D35" s="131" t="s">
-        <v>128</v>
-      </c>
-      <c r="E35" s="130"/>
-      <c r="F35" s="130"/>
+      <c r="E35" s="144"/>
+      <c r="F35" s="144"/>
       <c r="G35" s="86"/>
       <c r="H35" s="112"/>
       <c r="I35" s="87" t="s">
@@ -5452,34 +5452,34 @@
       <c r="J35" s="85"/>
     </row>
     <row r="36" spans="1:14" s="4" customFormat="1" ht="13.2" customHeight="1">
-      <c r="A36" s="140" t="s">
-        <v>129</v>
-      </c>
-      <c r="B36" s="141"/>
-      <c r="C36" s="141"/>
-      <c r="D36" s="141"/>
-      <c r="E36" s="141"/>
-      <c r="F36" s="141"/>
-      <c r="G36" s="141"/>
-      <c r="H36" s="141"/>
-      <c r="I36" s="141"/>
-      <c r="J36" s="142"/>
+      <c r="A36" s="146" t="s">
+        <v>127</v>
+      </c>
+      <c r="B36" s="147"/>
+      <c r="C36" s="147"/>
+      <c r="D36" s="147"/>
+      <c r="E36" s="147"/>
+      <c r="F36" s="147"/>
+      <c r="G36" s="147"/>
+      <c r="H36" s="147"/>
+      <c r="I36" s="147"/>
+      <c r="J36" s="148"/>
     </row>
     <row r="37" spans="1:14" s="93" customFormat="1" ht="37.200000000000003" customHeight="1" outlineLevel="1">
       <c r="A37" s="88" t="s">
+        <v>133</v>
+      </c>
+      <c r="B37" s="105" t="s">
+        <v>123</v>
+      </c>
+      <c r="C37" s="105" t="s">
+        <v>165</v>
+      </c>
+      <c r="D37" s="135" t="s">
         <v>135</v>
       </c>
-      <c r="B37" s="105" t="s">
-        <v>125</v>
-      </c>
-      <c r="C37" s="105" t="s">
-        <v>167</v>
-      </c>
-      <c r="D37" s="131" t="s">
-        <v>137</v>
-      </c>
-      <c r="E37" s="130"/>
-      <c r="F37" s="130"/>
+      <c r="E37" s="144"/>
+      <c r="F37" s="144"/>
       <c r="G37" s="125"/>
       <c r="H37" s="125"/>
       <c r="I37" s="113" t="s">
@@ -5489,19 +5489,19 @@
     </row>
     <row r="38" spans="1:14" s="93" customFormat="1" ht="46.2" customHeight="1" outlineLevel="1">
       <c r="A38" s="88" t="s">
+        <v>136</v>
+      </c>
+      <c r="B38" s="98" t="s">
+        <v>137</v>
+      </c>
+      <c r="C38" s="92" t="s">
+        <v>149</v>
+      </c>
+      <c r="D38" s="151" t="s">
         <v>138</v>
       </c>
-      <c r="B38" s="98" t="s">
-        <v>139</v>
-      </c>
-      <c r="C38" s="92" t="s">
-        <v>151</v>
-      </c>
-      <c r="D38" s="132" t="s">
-        <v>140</v>
-      </c>
-      <c r="E38" s="133"/>
-      <c r="F38" s="133"/>
+      <c r="E38" s="152"/>
+      <c r="F38" s="152"/>
       <c r="H38" s="124"/>
       <c r="I38" s="109" t="s">
         <v>47</v>
@@ -5510,19 +5510,19 @@
     </row>
     <row r="39" spans="1:14" s="93" customFormat="1" ht="43.2" customHeight="1" outlineLevel="1">
       <c r="A39" s="88" t="s">
+        <v>139</v>
+      </c>
+      <c r="B39" s="98" t="s">
+        <v>140</v>
+      </c>
+      <c r="C39" s="92" t="s">
         <v>141</v>
       </c>
-      <c r="B39" s="98" t="s">
-        <v>142</v>
-      </c>
-      <c r="C39" s="92" t="s">
-        <v>143</v>
-      </c>
-      <c r="D39" s="129" t="s">
-        <v>147</v>
-      </c>
-      <c r="E39" s="130"/>
-      <c r="F39" s="130"/>
+      <c r="D39" s="143" t="s">
+        <v>145</v>
+      </c>
+      <c r="E39" s="144"/>
+      <c r="F39" s="144"/>
       <c r="H39" s="111"/>
       <c r="I39" s="109" t="s">
         <v>47</v>
@@ -5535,19 +5535,19 @@
     </row>
     <row r="40" spans="1:14" s="93" customFormat="1" ht="52.8" customHeight="1" outlineLevel="1">
       <c r="A40" s="88" t="s">
+        <v>142</v>
+      </c>
+      <c r="B40" s="98" t="s">
+        <v>143</v>
+      </c>
+      <c r="C40" s="92" t="s">
         <v>144</v>
       </c>
-      <c r="B40" s="98" t="s">
-        <v>145</v>
-      </c>
-      <c r="C40" s="92" t="s">
+      <c r="D40" s="143" t="s">
         <v>146</v>
       </c>
-      <c r="D40" s="129" t="s">
-        <v>148</v>
-      </c>
-      <c r="E40" s="130"/>
-      <c r="F40" s="130"/>
+      <c r="E40" s="144"/>
+      <c r="F40" s="144"/>
       <c r="H40" s="101"/>
       <c r="I40" s="126" t="s">
         <v>47</v>
@@ -5555,34 +5555,34 @@
       <c r="J40" s="94"/>
     </row>
     <row r="41" spans="1:14" s="4" customFormat="1" ht="13.2" customHeight="1">
-      <c r="A41" s="140" t="s">
-        <v>149</v>
-      </c>
-      <c r="B41" s="141"/>
-      <c r="C41" s="141"/>
-      <c r="D41" s="141"/>
-      <c r="E41" s="141"/>
-      <c r="F41" s="141"/>
-      <c r="G41" s="141"/>
-      <c r="H41" s="141"/>
-      <c r="I41" s="141"/>
-      <c r="J41" s="142"/>
+      <c r="A41" s="146" t="s">
+        <v>147</v>
+      </c>
+      <c r="B41" s="147"/>
+      <c r="C41" s="147"/>
+      <c r="D41" s="147"/>
+      <c r="E41" s="147"/>
+      <c r="F41" s="147"/>
+      <c r="G41" s="147"/>
+      <c r="H41" s="147"/>
+      <c r="I41" s="147"/>
+      <c r="J41" s="148"/>
     </row>
     <row r="42" spans="1:14" s="93" customFormat="1" ht="70.5" customHeight="1" outlineLevel="1">
       <c r="A42" s="88" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B42" s="105" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C42" s="105" t="s">
-        <v>166</v>
-      </c>
-      <c r="D42" s="131" t="s">
-        <v>174</v>
-      </c>
-      <c r="E42" s="130"/>
-      <c r="F42" s="130"/>
+        <v>164</v>
+      </c>
+      <c r="D42" s="135" t="s">
+        <v>172</v>
+      </c>
+      <c r="E42" s="144"/>
+      <c r="F42" s="144"/>
       <c r="G42" s="125"/>
       <c r="H42" s="125"/>
       <c r="I42" s="113" t="s">
@@ -5592,19 +5592,19 @@
     </row>
     <row r="43" spans="1:14" s="93" customFormat="1" ht="87.75" customHeight="1" outlineLevel="1">
       <c r="A43" s="88" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B43" s="98" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C43" s="92" t="s">
-        <v>152</v>
-      </c>
-      <c r="D43" s="132" t="s">
-        <v>177</v>
-      </c>
-      <c r="E43" s="133"/>
-      <c r="F43" s="133"/>
+        <v>150</v>
+      </c>
+      <c r="D43" s="151" t="s">
+        <v>175</v>
+      </c>
+      <c r="E43" s="152"/>
+      <c r="F43" s="152"/>
       <c r="H43" s="124"/>
       <c r="I43" s="109" t="s">
         <v>47</v>
@@ -5613,19 +5613,19 @@
     </row>
     <row r="44" spans="1:14" s="93" customFormat="1" ht="87.75" customHeight="1" outlineLevel="1">
       <c r="A44" s="88" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B44" s="98" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C44" s="92" t="s">
-        <v>153</v>
-      </c>
-      <c r="D44" s="129" t="s">
-        <v>176</v>
-      </c>
-      <c r="E44" s="130"/>
-      <c r="F44" s="130"/>
+        <v>151</v>
+      </c>
+      <c r="D44" s="143" t="s">
+        <v>174</v>
+      </c>
+      <c r="E44" s="144"/>
+      <c r="F44" s="144"/>
       <c r="H44" s="111"/>
       <c r="I44" s="109" t="s">
         <v>47</v>
@@ -5634,19 +5634,19 @@
     </row>
     <row r="45" spans="1:14" s="93" customFormat="1" ht="59.25" customHeight="1" outlineLevel="1">
       <c r="A45" s="88" t="s">
+        <v>142</v>
+      </c>
+      <c r="B45" s="98" t="s">
+        <v>143</v>
+      </c>
+      <c r="C45" s="92" t="s">
         <v>144</v>
       </c>
-      <c r="B45" s="98" t="s">
-        <v>145</v>
-      </c>
-      <c r="C45" s="92" t="s">
-        <v>146</v>
-      </c>
-      <c r="D45" s="129" t="s">
-        <v>178</v>
-      </c>
-      <c r="E45" s="130"/>
-      <c r="F45" s="130"/>
+      <c r="D45" s="143" t="s">
+        <v>176</v>
+      </c>
+      <c r="E45" s="144"/>
+      <c r="F45" s="144"/>
       <c r="H45" s="101"/>
       <c r="I45" s="126" t="s">
         <v>47</v>
@@ -5654,34 +5654,34 @@
       <c r="J45" s="94"/>
     </row>
     <row r="46" spans="1:14" s="4" customFormat="1" ht="13.2" customHeight="1" outlineLevel="1">
-      <c r="A46" s="140" t="s">
-        <v>159</v>
-      </c>
-      <c r="B46" s="141"/>
-      <c r="C46" s="141"/>
-      <c r="D46" s="141"/>
-      <c r="E46" s="141"/>
-      <c r="F46" s="141"/>
-      <c r="G46" s="141"/>
-      <c r="H46" s="141"/>
-      <c r="I46" s="141"/>
-      <c r="J46" s="142"/>
+      <c r="A46" s="146" t="s">
+        <v>157</v>
+      </c>
+      <c r="B46" s="147"/>
+      <c r="C46" s="147"/>
+      <c r="D46" s="147"/>
+      <c r="E46" s="147"/>
+      <c r="F46" s="147"/>
+      <c r="G46" s="147"/>
+      <c r="H46" s="147"/>
+      <c r="I46" s="147"/>
+      <c r="J46" s="148"/>
     </row>
     <row r="47" spans="1:14" s="93" customFormat="1" ht="34.799999999999997" customHeight="1" outlineLevel="1">
       <c r="A47" s="88" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B47" s="105" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C47" s="105" t="s">
-        <v>154</v>
-      </c>
-      <c r="D47" s="131" t="s">
-        <v>174</v>
-      </c>
-      <c r="E47" s="130"/>
-      <c r="F47" s="130"/>
+        <v>152</v>
+      </c>
+      <c r="D47" s="135" t="s">
+        <v>172</v>
+      </c>
+      <c r="E47" s="144"/>
+      <c r="F47" s="144"/>
       <c r="G47" s="125"/>
       <c r="H47" s="125"/>
       <c r="I47" s="113" t="s">
@@ -5691,19 +5691,19 @@
     </row>
     <row r="48" spans="1:14" s="93" customFormat="1" ht="35.4" customHeight="1" outlineLevel="1">
       <c r="A48" s="88" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B48" s="98" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C48" s="92" t="s">
-        <v>155</v>
-      </c>
-      <c r="D48" s="132" t="s">
-        <v>177</v>
-      </c>
-      <c r="E48" s="133"/>
-      <c r="F48" s="133"/>
+        <v>153</v>
+      </c>
+      <c r="D48" s="151" t="s">
+        <v>175</v>
+      </c>
+      <c r="E48" s="152"/>
+      <c r="F48" s="152"/>
       <c r="H48" s="124"/>
       <c r="I48" s="109" t="s">
         <v>47</v>
@@ -5712,19 +5712,19 @@
     </row>
     <row r="49" spans="1:10" s="93" customFormat="1" ht="37.799999999999997" customHeight="1" outlineLevel="1">
       <c r="A49" s="88" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B49" s="98" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C49" s="92" t="s">
-        <v>156</v>
-      </c>
-      <c r="D49" s="129" t="s">
-        <v>176</v>
-      </c>
-      <c r="E49" s="130"/>
-      <c r="F49" s="130"/>
+        <v>154</v>
+      </c>
+      <c r="D49" s="143" t="s">
+        <v>174</v>
+      </c>
+      <c r="E49" s="144"/>
+      <c r="F49" s="144"/>
       <c r="H49" s="111"/>
       <c r="I49" s="109" t="s">
         <v>47</v>
@@ -5733,19 +5733,19 @@
     </row>
     <row r="50" spans="1:10" s="93" customFormat="1" ht="30.6" customHeight="1" outlineLevel="1">
       <c r="A50" s="88" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B50" s="98" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C50" s="92" t="s">
-        <v>157</v>
-      </c>
-      <c r="D50" s="129" t="s">
-        <v>175</v>
-      </c>
-      <c r="E50" s="130"/>
-      <c r="F50" s="130"/>
+        <v>155</v>
+      </c>
+      <c r="D50" s="143" t="s">
+        <v>173</v>
+      </c>
+      <c r="E50" s="144"/>
+      <c r="F50" s="144"/>
       <c r="H50" s="101"/>
       <c r="I50" s="126" t="s">
         <v>47</v>
@@ -5753,34 +5753,34 @@
       <c r="J50" s="94"/>
     </row>
     <row r="51" spans="1:10" s="4" customFormat="1" ht="13.2" customHeight="1">
-      <c r="A51" s="140" t="s">
-        <v>158</v>
-      </c>
-      <c r="B51" s="141"/>
-      <c r="C51" s="141"/>
-      <c r="D51" s="141"/>
-      <c r="E51" s="141"/>
-      <c r="F51" s="141"/>
-      <c r="G51" s="141"/>
-      <c r="H51" s="141"/>
-      <c r="I51" s="141"/>
-      <c r="J51" s="142"/>
+      <c r="A51" s="146" t="s">
+        <v>156</v>
+      </c>
+      <c r="B51" s="147"/>
+      <c r="C51" s="147"/>
+      <c r="D51" s="147"/>
+      <c r="E51" s="147"/>
+      <c r="F51" s="147"/>
+      <c r="G51" s="147"/>
+      <c r="H51" s="147"/>
+      <c r="I51" s="147"/>
+      <c r="J51" s="148"/>
     </row>
     <row r="52" spans="1:10" s="93" customFormat="1" ht="27.75" customHeight="1" outlineLevel="1">
       <c r="A52" s="88" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B52" s="105" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C52" s="105" t="s">
-        <v>170</v>
-      </c>
-      <c r="D52" s="131" t="s">
-        <v>174</v>
-      </c>
-      <c r="E52" s="130"/>
-      <c r="F52" s="130"/>
+        <v>168</v>
+      </c>
+      <c r="D52" s="135" t="s">
+        <v>172</v>
+      </c>
+      <c r="E52" s="144"/>
+      <c r="F52" s="144"/>
       <c r="G52" s="125"/>
       <c r="H52" s="125"/>
       <c r="I52" s="113" t="s">
@@ -5789,123 +5789,123 @@
       <c r="J52" s="94"/>
     </row>
     <row r="53" spans="1:10" s="93" customFormat="1" ht="81" customHeight="1" outlineLevel="1">
-      <c r="A53" s="170" t="s">
-        <v>138</v>
-      </c>
-      <c r="B53" s="171" t="s">
-        <v>160</v>
-      </c>
-      <c r="C53" s="172" t="s">
-        <v>164</v>
-      </c>
-      <c r="D53" s="173" t="s">
-        <v>173</v>
-      </c>
-      <c r="E53" s="174"/>
-      <c r="F53" s="174"/>
-      <c r="H53" s="175"/>
-      <c r="I53" s="176" t="s">
-        <v>161</v>
-      </c>
-      <c r="J53" s="177"/>
+      <c r="A53" s="127" t="s">
+        <v>136</v>
+      </c>
+      <c r="B53" s="128" t="s">
+        <v>158</v>
+      </c>
+      <c r="C53" s="129" t="s">
+        <v>162</v>
+      </c>
+      <c r="D53" s="149" t="s">
+        <v>171</v>
+      </c>
+      <c r="E53" s="150"/>
+      <c r="F53" s="150"/>
+      <c r="H53" s="130"/>
+      <c r="I53" s="131" t="s">
+        <v>159</v>
+      </c>
+      <c r="J53" s="132"/>
     </row>
     <row r="54" spans="1:10" s="93" customFormat="1" ht="81" customHeight="1" outlineLevel="1">
       <c r="A54" s="88" t="s">
-        <v>141</v>
-      </c>
-      <c r="B54" s="171" t="s">
-        <v>162</v>
+        <v>139</v>
+      </c>
+      <c r="B54" s="128" t="s">
+        <v>160</v>
       </c>
       <c r="C54" s="92" t="s">
-        <v>165</v>
-      </c>
-      <c r="D54" s="166" t="s">
-        <v>172</v>
-      </c>
-      <c r="E54" s="178"/>
-      <c r="F54" s="179"/>
+        <v>163</v>
+      </c>
+      <c r="D54" s="140" t="s">
+        <v>170</v>
+      </c>
+      <c r="E54" s="141"/>
+      <c r="F54" s="142"/>
       <c r="G54" s="125"/>
       <c r="H54" s="125"/>
       <c r="I54" s="126" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="J54" s="94"/>
     </row>
     <row r="55" spans="1:10" s="93" customFormat="1" ht="81" customHeight="1" outlineLevel="1">
       <c r="A55" s="88" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B55" s="98" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C55" s="92" t="s">
+        <v>167</v>
+      </c>
+      <c r="D55" s="140" t="s">
         <v>169</v>
       </c>
-      <c r="D55" s="166" t="s">
-        <v>171</v>
-      </c>
-      <c r="E55" s="178"/>
-      <c r="F55" s="179"/>
+      <c r="E55" s="141"/>
+      <c r="F55" s="142"/>
       <c r="G55" s="125"/>
       <c r="H55" s="125"/>
       <c r="I55" s="126" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="J55" s="94"/>
     </row>
     <row r="56" spans="1:10" s="93" customFormat="1" ht="81" customHeight="1" outlineLevel="1">
       <c r="A56" s="88" t="s">
+        <v>177</v>
+      </c>
+      <c r="B56" s="98" t="s">
+        <v>178</v>
+      </c>
+      <c r="C56" s="92" t="s">
         <v>179</v>
       </c>
-      <c r="B56" s="98" t="s">
+      <c r="D56" s="140" t="s">
         <v>180</v>
       </c>
-      <c r="C56" s="92" t="s">
-        <v>181</v>
-      </c>
-      <c r="D56" s="166" t="s">
-        <v>182</v>
-      </c>
-      <c r="E56" s="178"/>
-      <c r="F56" s="179"/>
+      <c r="E56" s="141"/>
+      <c r="F56" s="142"/>
       <c r="G56" s="125"/>
       <c r="H56" s="125"/>
       <c r="I56" s="126" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="J56" s="94"/>
     </row>
     <row r="57" spans="1:10" s="4" customFormat="1" ht="13.2" customHeight="1">
-      <c r="A57" s="140"/>
-      <c r="B57" s="141"/>
-      <c r="C57" s="141"/>
-      <c r="D57" s="141"/>
-      <c r="E57" s="141"/>
-      <c r="F57" s="141"/>
-      <c r="G57" s="141"/>
-      <c r="H57" s="141"/>
-      <c r="I57" s="141"/>
-      <c r="J57" s="142"/>
+      <c r="A57" s="146"/>
+      <c r="B57" s="147"/>
+      <c r="C57" s="147"/>
+      <c r="D57" s="147"/>
+      <c r="E57" s="147"/>
+      <c r="F57" s="147"/>
+      <c r="G57" s="147"/>
+      <c r="H57" s="147"/>
+      <c r="I57" s="147"/>
+      <c r="J57" s="148"/>
     </row>
     <row r="58" spans="1:10" s="4" customFormat="1" ht="13.2" customHeight="1" outlineLevel="1">
-      <c r="A58" s="140"/>
-      <c r="B58" s="141"/>
-      <c r="C58" s="141"/>
-      <c r="D58" s="141"/>
-      <c r="E58" s="141"/>
-      <c r="F58" s="141"/>
-      <c r="G58" s="141"/>
-      <c r="H58" s="141"/>
-      <c r="I58" s="141"/>
-      <c r="J58" s="142"/>
+      <c r="A58" s="146"/>
+      <c r="B58" s="147"/>
+      <c r="C58" s="147"/>
+      <c r="D58" s="147"/>
+      <c r="E58" s="147"/>
+      <c r="F58" s="147"/>
+      <c r="G58" s="147"/>
+      <c r="H58" s="147"/>
+      <c r="I58" s="147"/>
+      <c r="J58" s="148"/>
     </row>
     <row r="59" spans="1:10" s="93" customFormat="1" ht="87.75" customHeight="1" outlineLevel="1">
       <c r="A59" s="88"/>
       <c r="B59" s="98"/>
       <c r="C59" s="92"/>
-      <c r="D59" s="129"/>
-      <c r="E59" s="130"/>
-      <c r="F59" s="130"/>
+      <c r="D59" s="143"/>
+      <c r="E59" s="144"/>
+      <c r="F59" s="144"/>
       <c r="H59" s="101"/>
       <c r="I59" s="103"/>
       <c r="J59" s="94"/>
@@ -5914,32 +5914,32 @@
       <c r="A60" s="88"/>
       <c r="B60" s="98"/>
       <c r="C60" s="92"/>
-      <c r="D60" s="129"/>
-      <c r="E60" s="130"/>
-      <c r="F60" s="130"/>
+      <c r="D60" s="143"/>
+      <c r="E60" s="144"/>
+      <c r="F60" s="144"/>
       <c r="H60" s="101"/>
       <c r="I60" s="103"/>
       <c r="J60" s="94"/>
     </row>
     <row r="61" spans="1:10" s="4" customFormat="1" ht="13.2" customHeight="1" outlineLevel="1">
-      <c r="A61" s="140"/>
-      <c r="B61" s="141"/>
-      <c r="C61" s="141"/>
-      <c r="D61" s="141"/>
-      <c r="E61" s="141"/>
-      <c r="F61" s="141"/>
-      <c r="G61" s="141"/>
-      <c r="H61" s="141"/>
-      <c r="I61" s="141"/>
-      <c r="J61" s="142"/>
+      <c r="A61" s="146"/>
+      <c r="B61" s="147"/>
+      <c r="C61" s="147"/>
+      <c r="D61" s="147"/>
+      <c r="E61" s="147"/>
+      <c r="F61" s="147"/>
+      <c r="G61" s="147"/>
+      <c r="H61" s="147"/>
+      <c r="I61" s="147"/>
+      <c r="J61" s="148"/>
     </row>
     <row r="62" spans="1:10" s="93" customFormat="1" ht="87.75" customHeight="1" outlineLevel="1">
       <c r="A62" s="88"/>
       <c r="B62" s="98"/>
       <c r="C62" s="92"/>
-      <c r="D62" s="129"/>
-      <c r="E62" s="130"/>
-      <c r="F62" s="130"/>
+      <c r="D62" s="143"/>
+      <c r="E62" s="144"/>
+      <c r="F62" s="144"/>
       <c r="H62" s="101"/>
       <c r="I62" s="103"/>
       <c r="J62" s="94"/>
@@ -5948,32 +5948,32 @@
       <c r="A63" s="88"/>
       <c r="B63" s="98"/>
       <c r="C63" s="92"/>
-      <c r="D63" s="129"/>
-      <c r="E63" s="130"/>
-      <c r="F63" s="130"/>
+      <c r="D63" s="143"/>
+      <c r="E63" s="144"/>
+      <c r="F63" s="144"/>
       <c r="H63" s="101"/>
       <c r="I63" s="103"/>
       <c r="J63" s="94"/>
     </row>
     <row r="64" spans="1:10" s="4" customFormat="1" ht="13.2" customHeight="1" outlineLevel="1">
-      <c r="A64" s="140"/>
-      <c r="B64" s="141"/>
-      <c r="C64" s="141"/>
-      <c r="D64" s="141"/>
-      <c r="E64" s="141"/>
-      <c r="F64" s="141"/>
-      <c r="G64" s="141"/>
-      <c r="H64" s="141"/>
-      <c r="I64" s="141"/>
-      <c r="J64" s="142"/>
+      <c r="A64" s="146"/>
+      <c r="B64" s="147"/>
+      <c r="C64" s="147"/>
+      <c r="D64" s="147"/>
+      <c r="E64" s="147"/>
+      <c r="F64" s="147"/>
+      <c r="G64" s="147"/>
+      <c r="H64" s="147"/>
+      <c r="I64" s="147"/>
+      <c r="J64" s="148"/>
     </row>
     <row r="65" spans="1:10" s="93" customFormat="1" ht="87.75" customHeight="1" outlineLevel="1">
       <c r="A65" s="88"/>
       <c r="B65" s="98"/>
       <c r="C65" s="92"/>
-      <c r="D65" s="129"/>
-      <c r="E65" s="130"/>
-      <c r="F65" s="130"/>
+      <c r="D65" s="143"/>
+      <c r="E65" s="144"/>
+      <c r="F65" s="144"/>
       <c r="H65" s="101"/>
       <c r="I65" s="103"/>
       <c r="J65" s="94"/>
@@ -5982,32 +5982,32 @@
       <c r="A66" s="88"/>
       <c r="B66" s="98"/>
       <c r="C66" s="92"/>
-      <c r="D66" s="129"/>
-      <c r="E66" s="130"/>
-      <c r="F66" s="130"/>
+      <c r="D66" s="143"/>
+      <c r="E66" s="144"/>
+      <c r="F66" s="144"/>
       <c r="H66" s="101"/>
       <c r="I66" s="103"/>
       <c r="J66" s="94"/>
     </row>
     <row r="67" spans="1:10" s="4" customFormat="1" ht="13.2" customHeight="1" outlineLevel="1">
-      <c r="A67" s="140"/>
-      <c r="B67" s="141"/>
-      <c r="C67" s="141"/>
-      <c r="D67" s="141"/>
-      <c r="E67" s="141"/>
-      <c r="F67" s="141"/>
-      <c r="G67" s="141"/>
-      <c r="H67" s="141"/>
-      <c r="I67" s="141"/>
-      <c r="J67" s="142"/>
+      <c r="A67" s="146"/>
+      <c r="B67" s="147"/>
+      <c r="C67" s="147"/>
+      <c r="D67" s="147"/>
+      <c r="E67" s="147"/>
+      <c r="F67" s="147"/>
+      <c r="G67" s="147"/>
+      <c r="H67" s="147"/>
+      <c r="I67" s="147"/>
+      <c r="J67" s="148"/>
     </row>
     <row r="68" spans="1:10" s="93" customFormat="1" ht="87.75" customHeight="1" outlineLevel="1">
       <c r="A68" s="88"/>
       <c r="B68" s="98"/>
       <c r="C68" s="92"/>
-      <c r="D68" s="129"/>
-      <c r="E68" s="130"/>
-      <c r="F68" s="130"/>
+      <c r="D68" s="143"/>
+      <c r="E68" s="144"/>
+      <c r="F68" s="144"/>
       <c r="H68" s="101"/>
       <c r="I68" s="103"/>
       <c r="J68" s="94"/>
@@ -6016,32 +6016,32 @@
       <c r="A69" s="88"/>
       <c r="B69" s="98"/>
       <c r="C69" s="92"/>
-      <c r="D69" s="129"/>
-      <c r="E69" s="130"/>
-      <c r="F69" s="130"/>
+      <c r="D69" s="143"/>
+      <c r="E69" s="144"/>
+      <c r="F69" s="144"/>
       <c r="H69" s="101"/>
       <c r="I69" s="103"/>
       <c r="J69" s="94"/>
     </row>
     <row r="70" spans="1:10" s="4" customFormat="1" ht="13.2" customHeight="1">
-      <c r="A70" s="140"/>
-      <c r="B70" s="141"/>
-      <c r="C70" s="141"/>
-      <c r="D70" s="141"/>
-      <c r="E70" s="141"/>
-      <c r="F70" s="141"/>
-      <c r="G70" s="141"/>
-      <c r="H70" s="141"/>
-      <c r="I70" s="141"/>
-      <c r="J70" s="142"/>
+      <c r="A70" s="146"/>
+      <c r="B70" s="147"/>
+      <c r="C70" s="147"/>
+      <c r="D70" s="147"/>
+      <c r="E70" s="147"/>
+      <c r="F70" s="147"/>
+      <c r="G70" s="147"/>
+      <c r="H70" s="147"/>
+      <c r="I70" s="147"/>
+      <c r="J70" s="148"/>
     </row>
     <row r="71" spans="1:10" s="93" customFormat="1" ht="87.75" customHeight="1" outlineLevel="1">
       <c r="A71" s="88"/>
       <c r="B71" s="98"/>
       <c r="C71" s="92"/>
-      <c r="D71" s="129"/>
-      <c r="E71" s="130"/>
-      <c r="F71" s="130"/>
+      <c r="D71" s="143"/>
+      <c r="E71" s="144"/>
+      <c r="F71" s="144"/>
       <c r="H71" s="101"/>
       <c r="I71" s="103"/>
       <c r="J71" s="94"/>
@@ -6050,9 +6050,9 @@
       <c r="A72" s="88"/>
       <c r="B72" s="98"/>
       <c r="C72" s="92"/>
-      <c r="D72" s="129"/>
-      <c r="E72" s="130"/>
-      <c r="F72" s="130"/>
+      <c r="D72" s="143"/>
+      <c r="E72" s="144"/>
+      <c r="F72" s="144"/>
       <c r="H72" s="101"/>
       <c r="I72" s="103"/>
       <c r="J72" s="94"/>
@@ -6097,11 +6097,53 @@
     <row r="110" ht="12" customHeight="1"/>
   </sheetData>
   <mergeCells count="79">
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="D54:F54"/>
-    <mergeCell ref="D55:F55"/>
-    <mergeCell ref="D56:F56"/>
+    <mergeCell ref="D39:F39"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="B1:D2"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="A12:J12"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="A11:J11"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:G10"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A70:J70"/>
+    <mergeCell ref="D71:F71"/>
+    <mergeCell ref="D72:F72"/>
+    <mergeCell ref="D49:F49"/>
+    <mergeCell ref="D66:F66"/>
+    <mergeCell ref="A67:J67"/>
+    <mergeCell ref="D68:F68"/>
+    <mergeCell ref="D69:F69"/>
+    <mergeCell ref="D62:F62"/>
+    <mergeCell ref="D63:F63"/>
+    <mergeCell ref="D65:F65"/>
+    <mergeCell ref="D59:F59"/>
+    <mergeCell ref="D60:F60"/>
+    <mergeCell ref="A58:J58"/>
+    <mergeCell ref="A61:J61"/>
+    <mergeCell ref="A64:J64"/>
     <mergeCell ref="D18:F18"/>
     <mergeCell ref="D19:F19"/>
     <mergeCell ref="A57:J57"/>
@@ -6118,53 +6160,13 @@
     <mergeCell ref="D28:F28"/>
     <mergeCell ref="D24:F24"/>
     <mergeCell ref="D25:F25"/>
-    <mergeCell ref="A70:J70"/>
-    <mergeCell ref="D71:F71"/>
-    <mergeCell ref="D72:F72"/>
-    <mergeCell ref="D49:F49"/>
-    <mergeCell ref="D66:F66"/>
-    <mergeCell ref="A67:J67"/>
-    <mergeCell ref="D68:F68"/>
-    <mergeCell ref="D69:F69"/>
-    <mergeCell ref="D62:F62"/>
-    <mergeCell ref="D63:F63"/>
-    <mergeCell ref="D65:F65"/>
-    <mergeCell ref="D59:F59"/>
-    <mergeCell ref="D60:F60"/>
-    <mergeCell ref="A58:J58"/>
-    <mergeCell ref="A61:J61"/>
-    <mergeCell ref="A64:J64"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="D54:F54"/>
+    <mergeCell ref="D55:F55"/>
+    <mergeCell ref="D56:F56"/>
     <mergeCell ref="D48:F48"/>
     <mergeCell ref="D50:F50"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:G10"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="B1:D2"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="A12:J12"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="A11:J11"/>
-    <mergeCell ref="I9:I10"/>
     <mergeCell ref="D32:F32"/>
     <mergeCell ref="D42:F42"/>
     <mergeCell ref="D43:F43"/>
@@ -6174,8 +6176,6 @@
     <mergeCell ref="D35:F35"/>
     <mergeCell ref="D37:F37"/>
     <mergeCell ref="D40:F40"/>
-    <mergeCell ref="D39:F39"/>
-    <mergeCell ref="D38:F38"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6288,11 +6288,11 @@
       </c>
       <c r="D8" s="76">
         <f>'Export all carrier choices'!B6</f>
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E8" s="75">
         <f>'Export all carrier choices'!B7</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F8" s="75">
         <f>'Export all carrier choices'!D6</f>
@@ -6320,11 +6320,11 @@
       </c>
       <c r="D10" s="61">
         <f>SUM(D6:D9)</f>
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E10" s="61">
         <f>SUM(E6:E9)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F10" s="61">
         <f>SUM(F6:F9)</f>
@@ -6369,7 +6369,7 @@
       <c r="D13" s="19"/>
       <c r="E13" s="24">
         <f>D10*100/G10</f>
-        <v>116.66666666666667</v>
+        <v>126.66666666666667</v>
       </c>
       <c r="F13" s="19" t="s">
         <v>31</v>
